--- a/output/Total_time_range_data/江西省/赣州市_学习考察.xlsx
+++ b/output/Total_time_range_data/江西省/赣州市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,5790 +436,6335 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>124</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>赣县区学习考察团到我县学习考察主攻工业工作</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2018-01-26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.jxln.gov.cn/lnxxxgk/c100759/201801/9da4e2e6c5e54e31bcfdad790e183814.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['1月25日，赣县区学习考察团在赣县区委书记、赣州高新区党工委书记胡晓平的带领下到我县学习考察主攻工业工作。龙南经开区党工委书记、县委书记缪兰英，县领导刘建华、叶雪平、叶为、曾学文先后陪同。', '★考察团一行先后来到比邦科技、志浩电子等企业，详细了解了我县推进主攻工业的经验做法，对我县取得的成绩给予了高度赞赏。考察团表示，要把我县的好经验、好做法带回去，并希望两地多加强联系，相互学习，共同促进县域经济又好又快发展，为赣南苏区振兴发展做贡献。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>124</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>大余县主攻工业攻坚战外出学习考察工作</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2019-03-07</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c100646/201903/2cb1a583bc1845e6bd499a530d346242.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['为深入学习信丰、龙南等兄弟县市区在推进项目建设方面的先进做法和经验，我县于3月5日至3月6日组织县主攻工业领导小组成员单位等有关同志赴信丰、会昌、安远、寻乌、龙南、定南等地学习考察，我委主要负责同志参加此次考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>124</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>刘文华率队到厦门学习考察金融工作</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2018-04-26</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100289/201804/aa80d437f97a4146b0909ef2ce3cb687.shtml</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['在赣州市与厦门市的战略合作框架下， 4月23日，刘文华同志率市财政、国资、金融、发投等单位、企业赴厦门市学习考察金融工作。 厦门市金融办主任张全军等同志陪同。', '刘文华一行先后考察了厦门金圆融资租赁有限公司、厦门国际金融管理学院、厦门资产管理有限公司、厦门市担保有限公司、厦门国际信托有限公司、厦门市创业投资公司等金融组织、机构、企业。双方围绕区域性金融中心建设、组建金控集团诸方面深入沟通交流，进一步深化了金融合作共识。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>124</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>城市社区赴会昌瑞金学习考察</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-07-18</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.jxxf.gov.cn/xfxxxgk/gzdtr/202207/387deffab1ce4f83b3af36b4ea99c42a.shtml</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['为进一步学习借鉴兄弟县（市）城市基层党建工作先进经验，探索我县城市社区治理新模式，提升社区服务水平。7月15日，受城市社区党工委书记陈晓建委托，城市社区党工委副书记叶敏，党工委委员、管委会副主任钟俊毅带队，城市社区党建办干部、城市管理办干部及19个社区书记等一行28人赴会昌县、瑞金市，就城市基层党建、社区治理、社区服务等方面的工作开展学习考察。 上午，学习考察组一行首先来到了会昌县贡江花苑小区参观红色物业，听取了会昌县城市社区党工委书记刘剑英关于红色物业的起因背景、工作措施和工作成效等方面的经验介绍，双方就红色物业和小区治理等相关问题进行了探讨和交流。随后，学习考察组一行还参观了会昌县南外社区和湘青社区。 下午，学习考察组一行来到瑞金市，先后参观了九天社区、河背街社区、城北社区。大家一路走、一路看、一路听、一路议，现场交流了社区党建、社区治理工作开展情况，并询问了解为民服务、新时代文明实践活动开展等情况，重点学习了解瑞金市城市社区的先进做法，积极汲取社区党建、治理、服务的经验做法。 通过对会昌、瑞金的参观学习，学习考察组成员一致认为，会昌、瑞金方面有很多值得我们学习借鉴的地方，此次考察开拓了视野、丰富了思路、解开了疑惑，具有较强的启发性。下一步，我们要把实实在在的收获转化为工作的动力，进一步解放思想，取长补短，把好经验、好做法落实到实际工作中，力争城市社区各项工作取得新成效。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>124</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>吴忠琼率我市考察团赴上饶学习考察</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-10-27</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.shangyou.gov.cn/syxxxgk/xzwdtfegdscqke/202210/9d8a5cbaca0544fe9f60397305db9123.shtml</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['10月14日至15日，市委书记吴忠琼率我市考察团在上饶学习考察文旅产业、工业经济发展等工作，深入开展交流，务实推进合作。上饶市委副书记、市长邱向军，市委副书记郭素芳，市领导任海斌、王勇分别陪同。赣州市领导胡剑飞、孙敏、赖正文参加活动。', '金秋时节，上饶的乡村叠翠流金、风景宜人，一个个文旅新项目展现出勃勃生机。考察团一行先后来到广信区云谷田园生态小镇、时光PARK文化街区、华坛山镇樟涧村、望仙谷和铅山县葛仙山乡葛仙村，实地察看并深入了解各文旅项目建设理念、资源利用、功能布局、产品设计、市场运营及政策、用地、资金等保障情况，还分别与当地文旅企业负责人进行座谈，宣传推介赣州，推进对接合作。', '一路走、一路看、一路听，考察团一行对上饶市充分挖掘特色资源，按照“打造一个、成型一个”“成功一个、带动一片”的理念，高标准高质量打造文旅项目等做法印象深刻、深受启发。大家表示，要把上饶的好理念好做法带回去，落实运用到工作中去，提升项目建设水平，让优势更优、特色更特、强项更强，进一步促进赣州文旅产业高质量发展。', '“这是一次开阔视野之旅，也是一次解放思想之旅。”吴忠琼说，上饶市静下心、实打实地发展文旅产业，每年都有新的爆发点，得到了方方面面的充分肯定。成绩的取得，来自于优良的营商环境，也来自于企业家的创新创造，关键还在于各级干部解放思想、敢于担当、勇于作为。新时代新阶段，如何推进文旅产业高质量发展，上饶的经验做法值得学习借鉴。我们要把收获激情转化为务实行动，深化区域协作，互学互鉴、取长补短，共同努力为全省发展大局多作贡献，以一域之光为全省全国添彩。', '吴忠琼强调，要招大引强，做实项目。集中政策、资金、用地、规划等要素，围绕“一核三区”引进建设一批标志性文旅项目。要丰富业态，做优品质。加快推进景区提档升级，通过丰富业态做旺人气、留下消费。要打造品牌，做活营销。全力开展好“大营销”，积极推进新媒体传播，打造更多符合时代潮流的节庆活动、网红活动，放大赣州旅游的知名度和影响力。', '上饶市重点招商项目和重大产业项目快速推进，工业发展势头猛、劲头足。考察团一行来到上饶经开区，走进吉利新能源商用车有限公司，详细了解产能规模、产品特色、市场前景和新能源产业发展等情况。考察团一行表示，要对标先进找差距，学习标杆促提升，努力将所看所学所思转化为推动高质量发展的真招实招硬招，狠抓工业倍增升级，培育壮大产业集群，增强企业核心竞争力，加快推进赣州工业经济高质量跨越式发展。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>124</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>定南县学习考察团到我县参观考察</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2017-01-19</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.jxxf.gov.cn/xfxrmzfyyh/c104548/201701/85ee38b4c4bc4e8d9583d5955a9a48ce.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['1月17日，定南县委常委、统战部部长何春林带领定南县学习考察团到我县参观考察，县委常委、统战部部长沈宝春陪同考察。', '考察团一行先后来到聚声泰、迅捷兴、文峰电子等地，一路看、一路听，互相交流，详细了解我县打好六大攻坚战的经验做法。考察团对我县聚全县之力主攻工业，整合资源、招大引强、集聚发展，全力打造电子信息首位产业等方面取得的成绩给予肯定，并表示将以此次考察为契机，加强合作交流，促进共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>124</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>李炳军率团赴贵州陕西学习考察</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2018-09-03</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.ganxian.gov.cn/gxqxxgk/c110981/201809/2a3e003094b54effb65edeff4f4731b7.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['习近平在中共中央政治局第十五次集体学习时强调：贯彻落实新时代党的建设总要求 进一步健全全面从严治党体系', '全国科技大会 国家科学技术奖励大会 两院院士大会在京召开 习近平为国家最高科学技术奖获得者等颁奖并发表重要讲话', '习近平在青海考察时强调：持续推进青藏高原生态保护和高质量发展 奋力谱写中国式现代化青海篇章', '习近平主持召开中央全面深化改革委员会第五次会议强调 完善中国特色现代企业制度 建设具有全球竞争力的科技创新开放环境', '中共中央政治局召开会议 审议《新时代推动中部地区加快崛起的若干政策措施》《防范化解金融风险问责规定（试行）》 中共中央总书记习近平主持会议', '问答解读丨关于印发《赣县区稀土新材料及应用集群培育提升三年行动方案（2024-2026年）》的通知政策解读']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>124</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>前往住建局学习考察扫黑除恶资料整理相关工作</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2019-10-09</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c100326/201910/55f44c77695946ac8a6057eaad877ba1.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['10月9日下午，局办、扫黑办、局属各单位扫黑除恶相关工作人员前往县住建局学习考察扫黑除恶资料整理相关工作，主要学习落实中央省反馈问题整改、治乱、会议、总结汇报、线索摸排、宣传、承诺书、查结申请、文件等资料整理工作。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>124</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>华晓斌带队到南昌学习考察民政重点工作</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-03-02</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://mzw.ganzhou.gov.cn/gzsmzjy/tzgg/202303/7512b26fdbdd47248bca1d901b174aba.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['为贯彻落实市委六届四次全体（扩大）会议精神，学习兄弟市先进经验，进一步加强我市民政能力建设，3月1日，党组书记、局长华晓斌率学习考察组到南昌市民政局学习重点工作。南昌市民政局党组书记、局长戴闽全程陪同调研。', '学习考察组一行与南昌市民政局进行交流座谈。在听取南昌市民政局关于养老服务、婚俗改革、区划地名等重点工作情况介绍后，考察组成员一致认为，南昌的宝贵经验做法非常值得我们学习和借鉴，下一步将结合赣州实际，研究制定相关政策措施，推动我市民政工作迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>124</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>傅小新率党政考察团外出学习考察</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-11-17</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.ningdu.gov.cn/ndxrmzfyyh/c104221/202311/8724f51a46324caaa2b4abb7a281b330.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['11月15日至17日，县委书记傅小新率党政考察团在赣州经开区、南康、龙南、信丰等地学习考察，并召开学习考察座谈会。他强调，要深入学习贯彻习近平总书记考察江西重要讲话精神，聚焦“走在前、勇争先、善作为”的目标要求，解放思想、开拓进取、扬长补短、固本兴新，全力推动宁都经济社会高质量发展。县委副书记、县长何国杰，县委副书记龚升炬，县委副书记、县政府副县长黄海，县人大常委会主任邱坚，县政协主席李过春，以及方忠、汤荣福、文武、李济成、王勇亮、王楠、梁宝英等县四套班子领导，县法检“两长”参加。', '考察团一行先后来到赣州经开区、南康、龙南、信丰等地，一路走、一路听、一路看，详细了解各县（市、区）招大引强、招商引资、城市规划等工作情况，认真学习招商引资、城市建设管理、工业经济发展等方面的好经验好做法。大家一致认为，此次外出学习考察，让大家进一步解放了思想，开阔了视野，凝聚了齐心协力谋发展、促发展、抓发展的共识共为，助推全县经济社会高质量、跨越式发展。', '座谈会上，与会领导围绕此次学习考察活动，结合自身工作实际，直奔主题，畅所欲言，谈心得、说体会、讲打算。傅小新认真听取大家发言，不时互动交流，现场气氛热烈。', '要跳出宁都看宁都，看到差距和短板。换届以来，县四套班子领导带领全县干部群众聚焦项目建设、招商引资、乡村振兴等工作重点，干事创业的氛围越来越浓厚，呈现了良好发展势头。但也要清醒地看到，和其他兄弟县（市、区）相比，我们在工业、旅游业和城市建设、城市管理等方面还有很大差距。要认真审视自身差距与短板，持续改进工作作风，广泛凝聚发展合力，以思想“破冰”，推动发展“破局”，以思想解放引领全县实现高质量发展。', '要找准优势谋发展，坚定信心和决心。结合县情实际，充分发挥宁都的资源优势、后发优势、乡贤优势、干部优势，扬长补短，加快发展。要全力以赴求突破，推动高质量发展。要解放思想，在更新观念上持续发力，学习先进地区思想大解放、观念大改变的勇气和魄力。要做强工业，在招商引资上持续发力，强化工业“无工不富”和农业“固本兴新”理念，充分依托宁都资源优势，找准发展路径，坚持精准招商，强化服务意识，完善园区配套设施，围绕电子信息、食品加工、轻纺服装等产业，瞄准有实力的头部企业，推动产业延链补链强链，着力招引一批强龙头、补链条、聚集群的工业项目。', '学习借鉴其他地方的经验做法，撬动社会资本积极参与，真正把宁都优质的旅游资源整合好、开发好。', '加大城市建设力度，提升城市功能品质，狠抓城市精细管理，完善城市功能配套，建设美丽宜居城市。', '始终保持危机意识，树牢标杆意识，敢于同先进比高下、比速度，以“坐不住”的紧迫感、“慢不得”的危机感，努力跑出最快速度，争取最好结果。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>124</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>抚州市考察团在赣州学习考察</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2024-04-03</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.jxxf.gov.cn/xfxxxgk/c101234/202404/39794423edcc4e8e831ab05bea14fd07.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['3月30日至31日，抚州市委副书记、市长高世文率队在我市学习考察文化产业、科技创新、化工园区建设等方面工作的经验做法。市委副书记、市长李克坚，市领导胡剑飞、何琦分别陪同。', '在会昌县，考察团一行先后来到汉仙温泉项目、江西氟盐新材料产业基地数字大脑、会昌戏剧小镇、和君教育小镇等地学习考察；在于都县，观看了大型文旅史诗《长征第一渡》；在赣县区考察了赣县稀金新材料产业园化工集中区智慧平台、赣州腾远钴业新材料股份有限公司等地；在章贡区，考察了七鲤古镇国际旅游度假区、赣州方特东方欲晓主题公园、重大疾病新药创制全国重点实验室、江西驴充充充电技术有限公司等地。每到一处，考察团都认真听、仔细看，与相关负责人深入交谈，详细了解我市在发展文化产业、推进科技创新、建设化工园区等方面的先进做法和成功经验，切身感受我市上下一心拼经济拼发展的拼劲、干劲和闯劲。', '考察团对我市全力推进“三大战略、八大行动”，加快建设革命老区高质量发展示范区所取得的成效给予高度赞赏，纷纷表示要深入贯彻落实习近平总书记考察江西重要讲话精神和省委、省政府部署要求，进一步解放思想、创新举措、改进作风，学习借鉴赣州的好经验好做法，奋力推动抚州高质量发展。同时，希望两市加强协同发展、联动发展，深化产业发展、文化旅游、科技创新等领域交流合作，携手谱写共赢发展新篇章。（见习记者刘晓慧）']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>124</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>章贡区人大系统赴瑞金市学习考察</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2021-09-26</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.zgq.gov.cn/zgqzf/c116641/202109/c6bb58d781894bcbaa1929d27c1e3d7f.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['月26日，刚刚选举产生的章贡区新一届人大常委会班子领导率领机关专（工）委、办负责人以及镇（街）人大负责人前往瑞金市学习考察，深化党史学习教育，深入了解人民代表大会制度的历史，强化全区人大系统新任领导的履职意识。', '瑞金是共和国摇篮，当天，区人大常委会班子成员先后前往叶坪革命旧址、中华苏维埃代表大会制度史陈列馆现场参观学习。每到一处，大家都仔细看、倾心听、认真学，详细了解有关中华苏维埃代表大会制度诞生、苏维埃民主选举、中华苏维埃共和国历史演变、中华苏维埃法律生成等历史，并在叶坪革命旧址群红军烈士纪念塔前敬献了花篮，表达了对革命先烈的无比崇敬。', '在中华苏维埃代表大会制度史陈列馆进行现场教学后，随即召开座谈交流。区人大常委会主任黄华在会上指出，此次赴瑞金的学习考察是一次朝圣之旅、红色之旅、心灵之旅。要敬仰、敬重、敬畏我们的前辈和革命先烈，在学思践悟中内化于心、外化于行，立足本职、奋发作为，更好发挥人大及其代表作用；要', '切实把习近平总书记关于坚持和完善人民代表大会制度的重要思想贯彻到人大工作的各方面、全过程，推动全区人大各项工作迈上新台阶，努力展现区人大新气象。]']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>124</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>吴忠琼率团在深圳学习考察</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2021-05-26</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.jxxf.gov.cn/xfxxxgk/c101174/202105/db5cca9f9d064a52a97d94b28129d3c5.shtml</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['5月25日，省委常委、市委书记吴忠琼率领赣州市党政代表团在广东省深圳市学习考察，实地学习深圳发展的成功经验，推进深赣两地高质量合作发展。 市委副书记、市长许南吉，市领导王成兵、徐兵、邱建军、严水石、胡聚文、胡晓平、柯岩松等参加学习考察。深圳市领导艾学峰、聂新平、郑红波，广东省发改委一级巡视员钟明等分别陪同。 党政代表团一行首先来到南山区前海国际会议中心，参观“从先行先试到先行示范——庆祝深圳经济特区建立40周年展览” 。展览通过大量照片、图表、视频、文字，配合全息影像等先进技术，展现了中国改革开放的磅礴伟力和勃勃生机。代表团一行边听边看，感受深圳经济特区40年的沧桑巨变，学习特区不断深化改革、扩大开放的成功实践，现场领悟改革开放新时期历史。 来到创维集团有限公司，代表团一行参观了产品展示厅，深入了解电子信息及新能源汽车产业发展情况。 走进深圳市民中心服务大厅，代表团一行学习考察了深圳市行政审批改革工作，详细了解其 “大政务服务”工作机制等情况。 福田区河套深港科技创新合作区是粤港澳大湾区唯一定位以科技创新为主题的特色平台，代表团一行来到这里，认真察看合作区深港双方园区开发建设的最新进展，了解港方合作项目、国家级科研项目、重点科研机构和研发型领军企业等情况，学习先进经验和做法。 其间，吴忠琼、许南吉等领导会见了宝能集团董事长姚振华、广东鸿艺集团董事局主席蔡鸿文等企业家，就有关合作事宜进行深入交谈；会见了粤港澳大湾区赣商联盟主席熊建明、执行主席王再兴，以及广州、深圳、东莞赣州商会代表，勉励各个商会和各位企业家在做大做强自身的同时，始终不忘初心，倾力帮助家乡发展和建设，更加积极主动参与和推动赣商回归、赣才回归，更加积极主动帮助家乡招商引资，更加积极主动为家乡发展建言献策。 吴忠琼、许南吉等领导看望了赣州在深圳、广州跟班学习干部代表，希望大家弘扬苏区干部好作风，虚心学习、勤奋工作，加强调研、总结提升，进一步解放思想，把跟班学习的切身感受，转化为敢想敢干、敢闯敢试的精气神，转化为抓工作、干实事的新理念新思路新方法，同时大力宣传推介赣州，积极为我市招商引资、招才引智和深化老区与特区的交流合作牵线搭桥、贡献力量。 来源：赣南日报']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>124</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>召开全市体育系统学习考察汇报会</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2015-12-14</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c116146/201512/dc584c0c539f4e54b9ee9776c99cc073.shtml</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['为促进赴体育事业发展较好地区学习考察成果的转换，进一步统一思想，明确目标，2015年12月8日,我局组织召开全市体育系统学习考察汇报会。参加会议的有各县(市、区)体育（教体）局长及参加学习考察的副局长，局领导及机关、体育中心全体干部，体校副科级以上干部。', '成果的转换，进一步统一思想，明确目标，2015年12月8日,我局组织召开全市体育系统学习考察汇报会。参加会议的有各县(市、区)体育（教体）局长及参加学习考察的副局长，局领导及机关、体育中心全体干部，体校副科级以上干部。', '召开全市体育系统学习考察汇报会。参加会议的有各县(市、区)体育（教体）局长及参加学习考察的副局长，局领导及机关、体育中心全体干部，体校副科级以上干部。', '各县(市、区)体育（教体）局长及参加学习考察的副局长，局领导及机关、体育中心全体干部，体校副科级以上干部。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>124</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>黄晓东带队赴大湾区学习考察</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2021-12-01</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449gq/202112/bee89fabb09f48f28a9efa8451975dc9.shtml</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['为深化国企改革，加快融湾步伐，11月24日至27日，市国资委党委委员、副主任黄晓东带队赴深圳、广州等粤港澳大湾区学习考察。 考察组先后前往深圳市国资委、深国际控股（深圳）有限公司、深圳市地铁集团有限公司、深圳市投资控股有限公司、广州市国资委、广州港股份有限公司（广州国企党建学院）进行学习考察，并分别开展座谈交流。 座谈会上，黄晓东介绍了我市经济社会发展及国资国企情况，围绕内设监事会管理、外部董事选聘、国企经营业绩差异化考核、国企人才队伍建设、国企党建创新等工作，向大湾区国资监管部门和先进国有企业“取经”，并诚挚邀请大湾区国有企业前来我市参观学习、投资合作。 下一步，市国资委将继续加强与大湾区国资系统的沟通对接，在产业合作、文化旅游、干部培训、人才培养等方面进一步深化合作交流，推动合作再升级，为赣州打造对接融入粤港澳大湾区“桥头堡”贡献国资国企力量。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>124</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>袁炎率团赴六地学习考察</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2021-10-13</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.jxxf.gov.cn/xfxxxgk/c101174/202110/1f3bdc55548d43f1adef4d5b0ef23c02.shtml</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['10月8日下午至10日上午，县委书记袁炎率领我县党政考察团赴经开区、章贡、南康区、赣县区、于都、龙南等六县（市、区）学习考察，学习借鉴招大引强和项目建设等方面的经验。 三天满满的行程，考察团一行马不停蹄、争分夺秒，奔行1000余公里，考察了近三十个项目，详细听取了有关情况介绍，深入了解了六地产业发展和项目建设的做法和经验。 在章贡区，考察团一行先后来到赣州方特东方欲晓项目、深联电路智能制造项目、七鲤古镇文化旅游 PPP 核心区建设项目、江西威高医疗装备有限公司中国威高集团南方制造基地项目，走企业、进车间、看项目，深入一线，详细了解章贡区在产业转型升级、打造智能化工厂、文化旅游产业、产业链招商等方面的做法和成效。袁炎指出，要立足区位优势，立足首位产业，打造新的增长点。 来到于都中央红军长征集结出发地纪念园，考察团举行了纪念仪式，向中央红军长征出发纪念碑敬献花篮，县委书记袁炎代表考察团整理了缎带；在长征渡口，满怀着对革命先辈的崇敬之情观看了情景剧《长征组歌》；在纪念馆内，进行了党史学习教育现场教学，通过一张张历史图片、一件件文献实物、一个个沙盘模型，考察团一行切身学习领会了中央红军长征前后那段可歌可泣的壮烈历史。袁炎要求，要不忘初心再出发，走好新时代的长征路。 在赣县区，考察团一行参观了赣州腾远钴业新材料股份有限公司智能化产业升级项目、赣州珐玛珈智能设备有限公司智能包装自动化设备生产项目、中科院赣江创新研究院，了解项目引进、落地建设、竣工投产的好做法。袁炎强调，要坚持科技引领，引进大院大所，推动信丰工业高质量发展。 在经开区，大力倾力打造新能源汽车首位产业，大力引进整车生产和配套项目，正向营收两千亿元园区全力迈进。考察团一行来到赣州市同兴达科技三期项目、蓝芯存储、赣州锐晶科技有限公司、赣州金瑞麒低速自动驾驶、吉利（赣州）动力电池项目、凯马汽车制造有限公司，了解招大引强、靠大联强、项目推进、项目投融资等方面的做法和成效。袁炎强调，必须保持战略定力，久久为功，推动产业集群发展。 南康区“无中生有”，家具产业实现了“买全球”“卖全球”双向循环，正全力推动现代家居产业产值倍增。考察团一行参观了格力电器（赣州）智能制造基地、大自然家居高端智能制造（南康）基地、美克数创智造园、共享备料中心等项目，了解南康区以格力电器为龙头，打造智能制造千亿产业集群，建设“万亩千亿”新产业平台，推动家具产业数字化转型等方面的好思路、好做法。袁炎要求，要坚持资本招商，运用金融手段推动产业倍增升级。 在龙南市，考察团一行分别来到龙南经开区展示馆、柔驰锂电产业园项目、赣粤产业合作试验区“三南”片区（新圳组团）（富康组团）、里仁镇围屋民俗小镇等地参观学习。袁炎强调，要以项目为抓手，把高质量发展的各项工作落到实处。 10日下午召开座谈会，袁炎强调，这次考察学习是迅速贯彻市、县党代会精神的具体行动，也是一次解放思想、开拓视野之行。要认真学习兄弟县（市、区）好的做法、经验，结合信丰实际开创各项工作新局面。要学习兄弟县（市、区）如坐针毡、如履薄冰的危机感和紧迫感，充满激情、勇争一流的精气神，解放思想、敢想敢干的魄力，大视野、大格局、大气魄干事的风格，攻坚克难、善作善成的能力，精益求精、追求卓越的理念，拼命三郎、迅速落实的作风。学习的结束，就是行动的开始。要将所学所思所获迅速转化为具体行动、具体举措和实际成果，起而行之，以决战工业一千亿暨重大项目百日攻坚行动为抓手，迅速掀起主攻工业、招大引强、扶优扶强、优化环境、大抓项目的热潮，为当好融湾排头兵、决战全省二十强、奋力建设全国革命老区高质量发展示范先行区注入强劲动力。 此外，袁炎还就当前招大引强、争资争项、重大项目建设、高铁沿线环境整治、脐橙节筹备等工作进行了强调。 来源：信丰融媒体中心']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>124</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>信丰县考察团来我区学习考察</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2021-02-02</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.zgq.gov.cn/zgqzf/jryd/202102/e9961f636a454296bdb66004e4fa8559.shtml</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['1月31日,信丰县委副书记孙晖率信丰县考察团一行来我区学习考察。区领导范秀刚、何景炎等陪同考察或参加有关活动。', '考察团一行先后来到中国威高集团南方制造基地项目和江西特智慧新能源有限公司特来电新基建项目,进展厅看规划,进车间看产品,详细了解项目引进、投资、建设、产品销售与研发等情况。', '通过实地考察和听取介绍,考察团表示,章贡区一行收获颇丰、备受启发,回去以后要认真研究、归纳总结、充分吸收和借鉴章贡区的好经验、好做法,并运用到实际工作中,推动信丰县各项工作实现高质量发展,希望双方进一步加强各个领域、各个层面的交流与合作,携手共谋发展,实现互利共赢。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>124</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>我县组团赴石城兴国学习考察</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2015-06-01</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c102598/201506/1327262679d245cbb74086c2781c4da5.shtml</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['我县组团赴石城兴国学习考察 在兴国县埠头乡铭恩新村，县委书记曹爱珍，县委副书记、县长邱凌和村官亲切交流。记者袁荣德 摄', '本报讯（记者严峥 袁荣德）5月5日，县委书记曹爱珍率团赴石城县、兴国县学习考察乡村旅游和精准扶贫工作，学习借鉴两县成功经验和先进做法，开拓思想、提振精神，为发展好我县乡村旅游，做好我县精准扶贫工作创新思路、提神聚力。', '县委书记曹爱珍，县委副书记、县长邱凌以及李兵、李细妹、吴昌星、邹志华、杨运武、李志坚、陈晓斌、黄文发、何国杰等县四套班子领导及各乡镇、部分单位部门主要负责人随团考察。', '在石城县委书记鲍峰庭，县委副书记、县长尹忠等县领导的带领下，我县考察团先后实地参观考察了石城县水岸新城、通天寨景区、九寨温泉景区、城区游客集散中心、雍和文园及旅游文化街等地，详细了解了该县精致县城建设情况和旅游强县主战略实施情况。', '据了解，石城县一直十分重视旅游业发展，着力打造了生态体验、温泉养生、四季休闲、客家文化四大品牌，形成了“以旅游业为引领，生态农业、低碳工业、现代服务业齐振兴”的产业发展新格局。2014年，该县实现旅游综合收入5.2亿元。在旅游业的带动下，生态农业、低碳工业、现代服务业等蓬勃发展。', '通过现场考察学习，大家都表示受到了很大的触动，石城的发展之快、变化之大，全县上下齐心协力一心求发展的氛围之浓烈让人体会深刻，也更加感觉到了加快发展的迫切需要。', '曹爱珍指出，大家要通过实地学习考察，学习石城发展旅游业的先进做法，学习他们的成功经验，并结合大余实际，深入思考，谋划出路，找出适合大余发展旅游的路子，适合每个乡镇、每个村发展旅游的路子，形成共识，形成合力，全县上下拧成一股绳打造好大余的旅游产业，打响大余的旅游品牌，使大余得发展，百姓得实惠。', '在兴国县，兴国县委书记赖晓军带领我县考察团参观了长冈乡合富新村、江西山村油脂食品有限公司、埠头乡田庄上统筹城乡发展示范点、埠头乡铭恩新村、埠头乡官桥蔬菜基地等地。学习考察了该县精准扶贫工作经验做法。', '考察中，曹爱珍强调，乡镇和扶贫相关部门要以这次考察学习为契机，进一步增强做好精准扶贫工作的责任感和紧迫感；要通过学习两县先进经验做法，深入思考、科学谋划，因地制宜地将精准扶贫和各地实际情况紧密结合起来。立足变“输血”为“造血”，实施产业扶贫、旅游扶贫等符合实际的扶贫措施，让贫困户能真正脱贫，逐步迈向小康。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>124</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>马益军赴广东学习考察</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2020-10-20</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.yudu.gov.cn/ydxxxgk/c100264s/202010/5bead28cb83448d9884aa32cf884af3e.shtml</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['在佛山，考察团参观了佛山仲裁委员会并与相关人员举行座谈，就仲裁工作的开展、仲裁委员会管理体制机制、仲裁员管理、仲裁工作人员管理、仲裁调解等方面进行了交流。', '通过这次考察，我们学习了先进的管理经验和规章制度，吸取了宝贵的办案经验，对解决仲裁工作当中遇到的实际问题很有帮助。赣州仲裁委员会于都分会']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>124</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>峡江县学习考察组一行到于都进行学习考察</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2019-11-15</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.yudu.gov.cn/ydxxxgk/c100264pm/201911/68aee1e79b2b4590929d71402984ffb0.shtml</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['8月28日，吉安市峡江县人大常委会副主任宋东生、龙足立等一行6人来我县学习考察，主要就“放管服”改革的主要做法、存在问题及下一步工作打算等工作到县行管委进行学习考察。县人大常委会副主任朱寿福等领导陪同。', '考察组一行首先实地察看了我委政务服务大厅。随后，考察组一行会同我县人大办、政府办、行管委、市监局、环保局等单位在我委召开“放管服”改革工作座谈会。会上']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>124</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>我县学习考察团到宁都瑞金学习考察</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2017-10-27</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.yudu.gov.cn/yudu/jryd/201710/d880ff90085f46f189a20c6c679138cb.shtml</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['日，县委副书记吴虹率我县学习考察团到宁都县、瑞金县学习考察小城镇建设、圩镇管理、农村生活垃圾治理、整村推进、精准扶贫、农业产业发展、乡村旅游等方面工作。县领导刘春林、邓晓斌、管宏参加活动。', '认真听取了关于产业扶贫项目的运营管理、收益分配等情况介绍，并就整村推进项目的建设模式、实施步骤相关问题，以及城乡规划、两违管控等热点、难点问题进行了深入地研讨和交流。他们', '纷纷表示，要加强与两地的沟通交流，对照先进找差距、认真思索谋思路、埋头苦干求发展。回去之后，要将此次学习的经验、体会向其他干部传达学习好，进一步更新理念，夯实基础，鼓足干劲，立足于都实际，在精准扶贫、产业发展和秀美乡村建设等方面真抓实干，改革创新，为决胜全面小康社会而努力奋斗']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>124</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>罗红梅率队在厦门学习考察</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-02-24</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.jxln.gov.cn/lnxxxgk/c101188/202302/eca57c752a564788813f4b1241391943.shtml</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['2月14日至15日，市供销联社党组书记、理事会主任罗红梅率队赴厦门市学习考察预制菜产业发展，学习交流预制菜联盟组建经验做法，并洽谈相关合作事宜。市供销联社党组成员、理事会副主任孔青山及相关科室负责人、市供销集团有关负责人参加考察活动。', '考察组一行首先来到厦门市古龙食品有限公司，参观考察了古龙酱文化园和古龙中央厨房，并就传承酱油古法酿造工艺、中央厨房生产线管理等进行深入交流。古龙食品有限公司是一家具有百年历史的食品企业，产品和服务涵盖罐头食品、软包休闲食品、调味品、冷冻调理食品、中央厨房和工业旅游等。考察组对该公司传承古法酿造工艺，推进中央厨房产业技术升级的探索表示赞赏。', '厦门市联华航空食品有限公司主要从事米饭预制餐的研发与生产，拥有日本、德国全系列的先进生产线、先进的生产环境和超低温激冻锁鲜技术，现有生产线有航空餐、激冻便当及学校供餐', '5条生产线。考察组认为超低温激冻锁鲜技术有利于食品保鲜、能大大降低食品腐损率，是预制菜产业发展的重要技术支撑。', '厦门会展集团股份有限公司是厦门市同安区预制菜产业发展联合会秘书长单位，考察组与该公司就组建预制菜联盟、联盟作用发挥等进行了深入交流。', '厦门市利泰盛食品冷冻有限公司是一家集蔬菜种植、加工、出口一体化的民营企业，主打胡萝卜、洋葱、西兰花等多品种蔬菜的加工出口，年加工量', '5万吨以上，产值1.6亿元。考察组对利泰盛食品冷冻有限公司构建农产品上下游有序衔接、“产供销”一体的做法值得学习借鉴。', '福建鑫达隆盛供应链管理有限公司是集肉类调理品加工、冷热鲜餐及预制菜生产为一体。产业园占地面积', '50亩，已建成8000平方米标准化中央厨房、4000平方米预制菜加工厂，配套食材配送中心和大型冷藏冷冻库，年可供餐900万份、可生产冷冻食品1万吨。考察组认为该企业的食品制造业优势与赣南地区农产品产地优势可实现互补共赢发展。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>124</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>实地学习考察统战基地</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2022-07-22</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://gzjkq.ganzhou.gov.cn/jkqxxgk/c110034/202301/66986d10937140439875629984252da0.shtml</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['7月22日，区党群工作部分管负责同志带队赴章贡区民族团结一家亲工作站、赣江街道民族团结一家亲工作站、数字经济产业园网络统战基地实地学习考察，听取情况介绍，翻阅统战工作台账，并就做好新形势下网络统战工作和民族团结工作共同交流分享体会。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>124</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>我局主要领导外出学习考察项目</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2019-04-03</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c100614/201904/579679196e5749e2bf4370f24367eeb4.shtml</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['近期，副县长罗少贵带领县工信局、县工业园管委会、县应急管理局、县民企局、县市场监督管理局、县自然资源局、县商务局、县生态环境局、县教科体局等单位相关负责同志，赴信丰、会昌、安远、定南、龙南五个县市区学习考察项目推进、园区建设、招商引资及优化政务环境等方面服务工业和企业发展的经验做法。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>124</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>我区赴经开区学习考察创卫工作</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2020-07-02</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.zgq.gov.cn/zgqzf/jryd/202007/a08d8557094e43daa54ee7209a664699.shtml</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['6月29日，我区组织考察组赴经开区学习考察创卫工作，区创卫办，各镇街和各责任单位分管领导、业务骨干共计53余人参与考察交流。 考察组一行先后来到经开区黄金岭社区卫生服务中心、宝塔农贸市场、市容环境卫生示范点金榜路社区及健康教育示范点财政局参观学习，大家积极找差距，对经开区创卫工作方面的做法以及具体经验有了较深入的了解。考察组成员纷纷表示，今后在工作中将会借鉴此次交流经验，坚定创卫信心和决心，并结合我区创卫工作实际，创新工作方法，推进我区创卫工作深入开展。（杨慧）']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>124</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>粤港澳大湾区赣商学习考察团一行在赣州学习考察</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2021-04-19</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://swj.ganzhou.gov.cn/gzsswj/c103280/202104/827615690d6043f884ca645a8ab76ec9.shtml</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['4月14日至16日，粤港澳大湾区赣商学习考察团一行在我市进行学习考察。赣州市政府副市长胡聚文，市政府副秘书长黄红民，市委统战部副部长、市工商联党组书记、常务副主席杨小妹，赣州市商务局党组书记肖作信、赣州市商务局局长吴忠浩出席相关活动。', '考察团一行首先来到赣州革命烈士纪念馆开展党史学习教育。粤港澳大湾区赣商联盟主席、深圳江西商会会长、方大集团董事长熊建明向革命烈士敬献花圈，全体考察团成员在烈士纪念碑前向烈士行三鞠躬礼。随后，考察团步入革命烈士纪念馆展厅，在讲解员的带领下，重温历史，感悟先烈们艰苦奋斗、甘于奉献的革命精神。', '期间，考察团一行先后来到赣州经开区新能源汽车科技城国机智骏汽车有限公司、山东凯马汽车制造有限公司，深入生产车间、产品展厅等场所，详细了解了企业生产经营和项目建设情况。熊建明表示，本次来访一是参观考察赣州市整体环境，二是对拟在赣州投资的现代农业、汽车产业和跨境电商等项目进行实地考察对接，争取把最新的理念、最优的资本、最好的技术和人才带回赣州，助力赣州高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>124</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>我市赴石城县学习考察工业倍增升级等工作</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022-07-16</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://rjjkq.ganzhou.gov.cn/rjjskfq/rj80055/202207/76b4ff7954064b988df5fa75bdb83d51.shtml</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['7月16日，市委常委、副市长、瑞金经开区党工委副书记罗林生率学习考察组一行赴石城县学习考察。石城县委书记张小川会见学习考察组一行。石城县领导钟本祥、李明海、李芳陪同考察调研或参加座谈会。区领导李莉娜及市工信局、市商务局、市金融服务中心、市交通运输局、市工投公司和瑞金经开区有关部门负责人参加学习考察活动。', '学习考察组先后到江西德都食品科技有限公司、江西省鞋类产品质量监督检验中心、石城龙行天下鞋业有限公司、爱威亚鞋服产业园、工业园PPP平台建设项目、江西大由大食品科技有限公司等实地考察，了解产业发展、企业生产经营、项目建设、园区开发等有关情况。现场调研后，与石城县相关领导、部门座谈交流，双方围绕产业培育和招大引强、园区规划和产城融合、科技创新和平台建设、营商环境等方面进行深入探讨、交流互鉴。双方表示，下一步将在产业发展、平台建设等方面进一步深化两地合作，共同促进区域高质量协同发展。', '学习考察组成员表示，瑞金与石城地缘相邻、人文相亲，有较好地交流合作基础。近年来，石城产业定位清晰，措施有效得力，品牌运动鞋服产业发展迅猛，园区建设取得很大成效，值得我们学习借鉴。要学习石城园区立足基础谋产业，围绕平台抓建设，围绕产业强要素等方面的先进经验做法，结合瑞金实际，激发发展内生动力。同时，加强与石城园区互动，携手共进，深入贯彻落实瑞兴于一体化发展战略，持续推动试验区园区资源整合、品牌共用、政策共享，创新园区管理体制机制，推动两地园区高质量发展。', '学习考察组成员宋闽军：石城县工业园区规划建设“一园四区”，布局合理，功能互补，形成鲜明的园区产业特色。同时，园区开发秉持“规划先行”，统筹布局水电路网等基础设施和配套设施建设，也给我留下深刻印象。下一步，要加强开发区整体规划建设、产业布局、基础设施配套、“工业+旅游”前瞻性思考，提升园区承载能力和整体形象', '学习考察组成员熊骏驰：随着石城鞋服首位产业集聚壮大，石城围绕产业链抓科技创新、招才引智，完善检测中心等服务平台，提升劳动密集型企业智改数转等方面的工作经验值得我们学习。', '学习考察组成员彭兰海：石城县围绕首位产业、主导产业抓招商、抓配套、抓扶持，铆钉目标干，久久为功，达到了“兴一个产业、富一座城市”目标。我市首位产业、主导产业有一定基础，要学习好石城在抓产业招商、产业链培育等方面的好思路好方法，动员各级各部门闻令而动、全力以赴、精准招商，锲而不舍，积小胜为大胜，不断取得招商引资新成效，集聚工业倍增升级发展后劲。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>124</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>吴忠琼率我市考察团赴上饶学习考察</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2022-10-19</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.chongyi.gov.cn/cyxxxgk/cy78175/202210/7dd60be42fed462da65e3aa2d1fce2e5.shtml</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['月14日至15日，市委书记吴忠琼率我市考察团在上饶学习考察文旅产业、工业经济发展等工作，深入开展交流，务实推进合作。上饶市委副书记、市长邱向军，市委副书记郭素芳，市领导任海斌、王勇分别陪同。赣州市领导胡剑飞、孙敏、赖正文参加活动。', '金秋时节，上饶的乡村叠翠流金、风景宜人，一个个文旅新项目展现出勃勃生机。考察团一行先后来到广信区云谷田园生态小镇、时光PARK文化街区、华坛山镇樟涧村、望仙谷和铅山县葛仙山乡葛仙村，实地察看并深入了解各文旅项目建设理念、资源利用、功能布局、产品设计、市场运营及政策、用地、资金等保障情况，还分别与当地文旅企业负责人进行座谈，宣传推介赣州，推进对接合作。', '一路走、一路看、一路听，考察团一行对上饶市充分挖掘特色资源，按照“打造一个、成型一个”“成功一个、带动一片”的理念，高标准高质量打造文旅项目等做法印象深刻、深受启发。大家表示，要把上饶的好理念好做法带回去，落实运用到工作中去，提升项目建设水平，让优势更优、特色更特、强项更强，进一步促进赣州文旅产业高质量发展。', '“这是一次开阔视野之旅，也是一次解放思想之旅。”吴忠琼说，上饶市静下心、实打实地发展文旅产业，每年都有新的爆发点，得到了方方面面的充分肯定。成绩的取得，来自于优良的营商环境，也来自于企业家的创新创造，关键还在于各级干部解放思想、敢于担当、勇于作为。新时代新阶段，如何推进文旅产业高质量发展，上饶的经验做法值得学习借鉴。我们要把收获激情转化为务实行动，深化区域协作，互学互鉴、取长补短，共同努力为全省发展大局多作贡献，以一域之光为全省全国添彩。', '吴忠琼强调，要招大引强，做实项目。集中政策、资金、用地、规划等要素，围绕“一核三区”引进建设一批标志性文旅项目。要丰富业态，做优品质。加快推进景区提档升级，通过丰富业态做旺人气、留下消费。要打造品牌，做活营销。全力开展好“大营销”，积极推进新媒体传播，打造更多符合时代潮流的节庆活动、网红活动，放大赣州旅游的知名度和影响力。', '上饶市重点招商项目和重大产业项目快速推进，工业发展势头猛、劲头足。考察团一行来到上饶经开区，走进吉利新能源商用车有限公司，详细了解产能规模、产品特色、市场前景和新能源产业发展等情况。考察团一行表示，要对标先进找差距，学习标杆促提升，努力将所看所学所思转化为推动高质量发展的真招实招硬招，狠抓工业倍增升级，培育壮大产业集群，增强企业核心竞争力，加快推进赣州工业经济高质量跨越式发展。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>124</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>于都县组团到龙南市学习考察</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2020-12-14</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.yudu.gov.cn/ydxxxgk/c100263ur/202012/7344a4baf7d146f2a1bb5ac9ada608d8.shtml</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['12月8日至9日,于都县组织工业战线干部到龙南市学习考察。考察团先后到江西新灵倍康三产融合发展项目、龙南经济技术开发区展示馆、江西联茂电子科技有限公司、江西志浩电子科技有限公司等地,详细了解企业生产经营、招商引资和项目建设情况,考察学习了龙南工业经济发展和招商引资等方面的经验做法。考察团一路走、一路看,一路思、一路议,所到之处,认真观摩,深入交流,亲眼目睹兄弟县市日新月异的发展变化,切实感受当地干部干事创业、奋发有为的精神风貌,认为收获满满、受益匪浅,也深感压力接踵而来,学以致用显得紧迫而又关键。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>124</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>我县党政考察团赴福建广东学习考察</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2017-03-20</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.shicheng.gov.cn/scxzf/c104798/201703/f6b2b0fc8fe848579a99d4ad0d62ebac.shtml</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['加快发展，聆闽粤先声；解放思想，促交流合作。3月10日至14日，县委书记鲍峰庭，县委副书记、县长尹忠率县党政考察团赴福建省南安市、晋江市，广东省深圳市罗湖区，东莞市厚街镇、沙田镇等地学习考察。', '南安市委书记王春金；晋江市委书记刘文儒，市委副书记、市长张文贤；罗湖区委书记贺海涛，罗湖区委副书记、区长聂新平；厚街镇党委副书记、镇长蒋亚军；沙田镇党委副书记、镇长詹志斌等分别出席相关活动。', '县委副书记杨小妹，县政协主席黄运群，以及县领导宋怡萍、刘晓方、黄晓明、赖松林、唐祎泾等分别参加相关学习考察。', '5天的学习考察，行程紧凑，马不停蹄，考察团进园区、看项目、访企业、观市容，跳出石城看石城，感受闽粤先进的发展理念、强劲的发展势头、宝贵的发展经验、浓厚的发展氛围。', '南安市坚持走产业、基地、市场联动发展的路子，培育形成了石材陶瓷、水暖厨卫、机械装备、鞋服轻纺、光电信息等五大产业集群，成为世界上规模最大、种类最齐全的石材生产出口基地和全国最大的五金水暖生产基地。考察团走进南安市梅山镇蓉中村、南安市九牧厨卫股份有限公司、五里桥文化公园、南安市海丝泛家居线下体验中心？英良馆等考察点，了解南安产业发展及城镇建设等方面的经验和做法。鲍峰庭说，我们要借鉴梅山镇蓉中村“经济先行、文化引领、科学发展、强村富民”的做法，夯村基层党建基础，创新扶贫模式，帮助群众脱贫致富。要学习九牧集团和英良集团注重产品研发和创新、致力转型升级的做法，发挥自身优势，实施创新驱动战略，推动现代鞋服、新型矿山机械、绿色食品等产业转型升级。', '南安市坚持走产业、基地、市场联动发展的路子，培育形成了石材陶瓷、水暖厨卫、机械装备、鞋服轻纺、光电信息等五大产业集群，成为世界上规模最大、种类最齐全的石材生产出口基地和全国最大的五金水暖生产基地。考察团走进南安市梅山镇蓉中村、南安市九牧厨卫股份有限公司、五里桥文化公园、南安市海丝泛家居线下体验中心', '英良馆等考察点，了解南安产业发展及城镇建设等方面的经验和做法。鲍峰庭说，我们要借鉴梅山镇蓉中村“经济先行、文化引领、科学发展、强村富民”的做法，夯村基层党建基础，创新扶贫模式，帮助群众脱贫致富。要学习九牧集团和英良集团注重产品研发和创新、致力转型升级的做法，发挥自身优势，实施创新驱动战略，推动现代鞋服、新型矿山机械、绿色食品等产业转型升级。', '晋江市以创新转型、跨越发展为主线，坚定不移推进“人才强市”“新型城镇化”“国际化”战略，着力培育“集成电路产业”“体育”“汽车制造”新产业，壮大了新型产业集群，延续了强劲发展态势，连续领跑福建县域经济23年。考察团走进晋江市安踏（中国）有限公司、五店市传统街区、创意创业创新园服务中心和创客大街、磁灶镇大埔村，感受晋江敢为人先的改革热情、创新创业的巨大活力、城市发展的美好前景。鲍峰庭指出，要把握趋势，抢抓机遇, 以开明开放的姿态,加强与发达地区交流合作，学习当地先进经验，加大科技创新、城乡统筹、生态保护、改善民生工作力度，积极培育新产业、新业态、新模式，做大做强实体经济。', '罗湖区是改革开放的前沿，是“深圳速度”的发源地。近年来，该区围绕“谋长远、打硬仗、补短板、转作风”，向改革要未来、向创新要发展、向转型要潜力、向改革要空间，朝着建设精致精品精彩城区和现代化国际化创新先锋城区大步前进。考察团来到笋岗-清水河商圈项目、京基 100 大厦项目，并登上博隆大厦顶楼俯瞰城市更新项目。鲍峰庭、尹忠指出，罗湖区在城市建设中敢于直面难题、先行先试，不仅解决了城市更新的难题，也让辖区产业得到突破性发展。石城县要借鉴罗湖在城市更新、棚户区改造、规划建设、项目运作、环境整治及作风建设等方面的实践经验，着力攻项目、整环境、提效率，建设宜居宜业宜游的幸福家园。', '在罗湖区召开的座谈会上，我县与罗湖区就经济运行、医疗改革、城市更新中的热点难点问题进行深入交流，并签订了《缔结友好城市战略合作协议书》。双方表示，将进一步加强沟通与联系，推动罗湖金融商贸优势与石城自然资源优势互补，在产业对接、文化旅游、商贸往来、人才交流等方面强化合作，实现双方共赢发展。', '厚街镇位于穗深港经济黄金通道中间，打造了家具业、制鞋业、机电业等三大支持产业，形成了会展业、酒店餐饮业、专业市场、工业旅游等现代服务业，培育了黄金珠宝、汽车配件、高端装备制造等三大新兴产业，走上了转型升级的康庄大道。考察团先后考察了远梦家居用品股份有限公司、创科实业有限公司、名家居世博园、鑫源食品有限公司，感受到了走品牌先行、创新升级的新气象。尹忠说，石城要借鉴厚街镇的做法，开展建链、补链、强链行动，着重培植鞋服、旅游、机电，电商等产业。要加快重大项目建设，落实优惠政策，鼓励科技创新。同时，要深化产业招商、金融招商、以商招商，加快“主攻工业、三年翻番”步伐。', '沙田镇是“中国港口物流重镇”，紧紧抓住虎门港开发建设的机遇，重点发展临港工业、石化产业、物流业、现代服务旅游业，展现蓬勃的生机和活力。考察团先后走进沙田镇永晋灯饰厂、穗丰年温地公园西大坦驿站、东莞港集装箱码头、保税物流中心等地，听介绍，看展示。考察团成员一致认为，石城要借鉴沙田镇主打“港口经济”的做法，不断提升政务服务水平，深入开展“降成本、优环境”专项行动，大力发展现代物流，擦亮“闽粤通衢”品牌;要更新理念，以淳朴、自然、生态为定位，挖掘客家文化，优化城市环境，提升城市品位。', '考察中，鲍峰庭、尹忠强调，全县各级各部门要进一步解放思想、转变观念、拓宽视野，努力加强与先进地区的沟通联系，在学习中借鉴，在借鉴中提升，推动多领域、多层次、多方面对接合作。要围绕打造“赣闽粤长产业合作先行示范区”，明确主攻工业的方向路径，大力发展开放型经济，加大招商引资力度，夯实工业发展平台，鼓励企业创新创特，培育壮大首位产业，加快工业转型升级。要以创建“国家全域旅游示范区”为抓手，坚持“精致县城、乡美乡村、特色景区、集群产业”四位一体推进旅游强县建设，统筹城乡发展，完善城市、乡村规划，抓实城乡环境整治，倡导树立文明乡风，提升公共服务水平，让县城更精致、乡村更靓丽。要学习发达地区敢想敢干、敢闯敢试、敢为人先的创新理念，不畏困难、敢做善成的开拓精神，改进工作作风，提高办事效率，鼓励创新创业，营造高效清廉务实的政务环境，增强区域发展软实力和竞争力。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>124</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>大余县组织赴井冈山学习考察精准脱贫工作</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2017-04-27</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c102577/201704/094be6a7071945ba8b77755e0867172b.shtml</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['为深入学习井冈山市在脱贫摘帽等方面的经验做法，大余县精准扶贫办于4月25日组织各乡镇分管领导、22个省级贫困村书记、第一书记等近80人赴井冈山市学习考察。', '此次考察学习主要是针对井冈山市脱贫摘帽的经验做法，包括考察茅坪乡坝上村、神山村整村推进和旅游扶贫经验，考察柏露乡长富桥村安居工程，井冈山市迎接国家脱贫摘帽评估的经验做法等，为更好地做好全县脱贫攻坚奠定了扎实的基础。考察人员纷纷表示，要学习好井冈山脱贫先进经验，努力做出全县脱贫攻坚优异成绩。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>124</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>学习考察人大代表联络工作站规范化建设</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2022-07-21</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://gzjkq.ganzhou.gov.cn/jkqxxgk/c110034/202301/ce457124682046259f39614987742b16.shtml</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['7月21日，区党群工作部分管负责同志带队赴南康区太窝乡、上犹县东山镇人大代表联络工作站及全南县人大代表专家联络工作站等地，实地学习考察人大代表联络工作站规范化建设情况。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>124</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>县领导率考察团赴外县学习考察</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2022-01-25</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.shicheng.gov.cn/scxzf/c104798/202201/2c8b2749c659466092cc847f44c1dcdb.shtml</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['21至22号，县委常委、组织部部长钟本祥，县委常委、副县长彭长春率我县考察团赴于都、赣县、信丰、龙南、全南等县市区学习考察乡村振兴、新型城镇化建设、工业倍增升级等工作。县领导宁雄、李芳、刘衍志一同学习考察。', '于都县副县长杨俊刚，赣县区委常委、组织部部长黄桂昌、副区长左兵，信丰县人大常委会副主任刘贤联、县政协副主席王孚明，龙南市委常委，常务副市长朱志勇，全南县县委常委、政法委书记刘宏春、副县长许瑞强等分别陪同相关活动。', '考察团一行先后来到于都梓山镇富硒产业馆、潭头社区，赣州寒锐新能源科技有限公司、井前家园小区，信丰县江西瑞烜新材料项目、粤港澳大湾区“菜篮子”产品赣州配送中心暨江西供销（信丰）冷链物流园项目，龙南市江西联茂电子科技有限公、龙南新涛亚克力科技有限公司、江西佳纳新能源锂离子电池材料全生命周期绿色制造项目，全南县城区立体停车场、桃江北岸城市更新项目、鼎龙·十里桃江国际芳香森林度假区项目等地参观考察，大家边走边看边听、细问细思细悟，对各地在强化秀美乡村建设、创新人居环境整治提升、高标准老旧小区改造、加速农业产业发展、不断巩固拓展脱贫攻坚与乡村振兴有效衔接、加强新型城镇化建设等方面的经验做法印象深刻。', '考察团一行先后来到于都梓山镇富硒产业馆、潭头社区，赣州寒锐新能源科技有限公司、井前家园小区，信丰县江西瑞烜新材料项目、粤港澳大湾区', '考察团表示，这次考察学习受益匪浅，各地在乡村振兴、新型城镇化建设、工业倍增升级等方面所作的有益探索令人深受启迪。我们要创新思路，学习借鉴于都县的经验做法，结合我县实际，努力在示范镇建设、产业发展等各项工作上抓提升、求突破。要学习赣县区先进做法，把城市建设与民生改善工作有机结合，注重细节，抓好实施，推动城市建设与民生工作双提升。要借鉴信丰县农业设施发展经验做法，加速发展大农业，加快推进农业设施和蔬菜产业发展，不断巩固脱贫攻坚成果，全面推进乡村振兴。要认真学习龙南招商引资工作的好经验、好做法，并与自身实际相结合，推动石城招商引资工作再上新台阶。要从“全南经验”“全南做法”中获得启发，促进石城全域旅游和新型城镇化快速发展。', '考察团表示，这次考察学习受益匪浅，各地在乡村振兴、新型城镇化建设、工业倍增升级等方面所作的有益探索令人深受启迪。我们要创新思路，学习借鉴于都县的经验做法，结合我县实际，努力在示范镇建设、产业发展等各项工作上抓提升、求突破。要学习赣县区先进做法，把城市建设与民生改善工作有机结合，注重细节，抓好实施，推动城市建设与民生工作双提升。要借鉴信丰县农业设施发展经验做法，加速发展大农业，加快推进农业设施和蔬菜产业发展，不断巩固脱贫攻坚成果，全面推进乡村振兴。要认真学习龙南招商引资工作的好经验、好做法，并与自身实际相结合，推动石城招商引资工作再上新台阶。要从']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>124</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>吴忠琼率我市党政考察团在泉州学习考察</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2022-05-27</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/gzszf/c100022/202205/cad9ded23b5b4424861e90719468d61d.shtml</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['5月26日下午，江西省委副书记、赣州市委书记吴忠琼率我市党政考察团来到泉州学习考察，并召开两市党政座谈会，进一步加强泉赣合作交流，促进互利共赢发展。', '福建省委常委、泉州市委书记刘建洋，泉州市委副书记、市长蔡战胜，泉州市领导施宇辉、张文贤、汪志红等陪同考察或出席座谈会。赣州市领导何琦、孙敏、陈水连参加。', '梧林传统村落位于泉州晋江市新塘街道，距今已有600多年历史，这里交融着中西结合的建筑史、闽南华侨的文化史、福建人下南洋的创业史、中国与东南亚国家的交流史。该项目坚持“固态保护、活态传承、业态提升”，做到“见人见物见生活、留形留神留乡愁”，打造成“年轻人觉得很时尚，老年人觉得很怀旧，外地人觉得很闽南，华侨觉得很乡土”的文化旅游度假目的地。考察团一行实地考察了梧林传统红砖厝、闽南官式大厝、番仔楼等建筑群的保护利用情况，参观了梧林历史展示馆、“侨批馆”等，详细了解梧林传统村落保护项目的建设运营等情况。行走在岁月沉淀的青石板上，考察团一行触摸着一栋栋古老建筑，感受到别样的家国之情与浓浓乡愁。大家表示，要学习借鉴晋江因地制宜保护发展传统村落、延续乡愁记忆的好经验好做法，持续推进赣南古村落保护利用，结合乡村振兴，加速发展旅游产业，让传统村落迸发持久活力，促进赣州美丽乡村建设。', '利郎（中国）有限公司是一家集设计、产品开发、生产、营销于一体的中国商务男装领军品牌企业。考察团先后参观了利郎文创园、多功能演艺大厅等，大家对企业通过积极引入新兴商业项目，不断丰富业态形式，满足企业高端人才创新、研发、居住、休闲所需印象深刻，表示要学习借鉴利郎文创园一系列先进做法，丰富城市业态，激发区位活力，打造企业发展助推器、文旅新名片。', '在安踏（中国）有限公司，考察团一行参观了安踏产品展示馆、安踏运动科学实验室等。安踏集团是中国最大、全球第三的综合性、多品牌体育用品集团，我市的于都兴雪莱服装有限公司是其配套企业。大家表示，要积极对接海西经济区纺织服装产业链，招大引强、强化创新，打响全国服装品牌，加快我市纺织服装产业高质量发展。', '来到九牧王股份有限公司，考察团一行走进智能制造工厂，看到智能制造设备比比皆是。了解到近年来九牧王通过数字化、智能化改造，建成10条服装智能型生产线。大家认为，要强化科技创新赋能，培育更多智能工厂、数字化车间，让赣州的企业插上“智能的翅膀”。', '来到九牧王股份有限公司，考察团一行走进智能制造工厂，看到智能制造设备比比皆是。了解到近年来九牧王通过数字化、智能化改造，建成', '吴忠琼说，新时代的泉州深入学习贯彻习近平总书记来闽考察重要讲话精神，大力传承弘扬“晋江经验”，实施“强产业、兴城市”双轮驱动，在全方位推进高质量发展超越上取得了显著成绩。我们要学习泉州爱拼敢赢的精神和抓工业强产业的拼劲韧劲，认真借鉴泉州改革创新、服务企业的好经验好做法。赣州与泉州地缘相近、人缘相亲，两地产业互补性强，交流合作空间很大，前景广阔。希望双方建立长效合作机制，定期沟通协商，为两地人员商贸交流交往打通便捷通道，同时建立两地互派干部跟班学习机制；推进产业协作配套，一起做大做强赣闽纺织服装产业带，在旅游资源互推、文化交流、线路打造、项目投资等方面开展更深层次、更有成效的合作；加强港口物流合作，推动更多产品“走出去、引进来”，共同打造海西经济区大宗货物进入内地市场的中转站，助力两地港口发展壮大。', '刘建洋代表泉州市委、市政府对赣州市党政考察团一行的到来表示热烈欢迎。他指出，近年来，赣州敢为人先、攻坚克难，扎实推进革命老区高质量发展示范区建设，创造了许多好经验好做法好成果。当前，泉州正传承弘扬“晋江经验”，发挥民营经济发达、世界文化遗产城市历史厚重、在外泉商和港澳台侨资源丰富等三大比较优势，加快实施“强产业、兴城市”双轮驱动，勇当福建全方位推进高质量发展超越主力军。希望两地共同学习贯彻习近平总书记重要讲话重要指示精神，传承红色基因，加强战略对接，创新合作机制，凸显兴泉铁路重要纽带作用，在加快老区苏区全面振兴、搭建贯通中西部物流大通道、促进产业链创新链供应链融合协作、加强历史文化遗产保护利用等领域深化务实合作，实现更宽领域更深层次更高水平的互利共赢，携手书写高质量发展新篇章。', '刘建洋代表泉州市委、市政府对赣州市党政考察团一行的到来表示热烈欢迎。他指出，近年来，赣州敢为人先、攻坚克难，扎实推进革命老区高质量发展示范区建设，创造了许多好经验好做法好成果。当前，泉州正传承弘扬']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>124</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>赣州客家旅游集团董事长罗迅率团赴义乌学习考察</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2012-12-07</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449gq/201212/365bd35a61714fc79b83d9898157c483.shtml</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['为学习借鉴浙江义乌旅游商品研发营销方面的先进经验，2012年11月20日，赣州客家旅游集团董事长罗迅率行政综合部和市场经营部负责人赴“小商品海洋，购物者天堂”——浙江义乌学习考察。考察团重点考察了义乌旅游商品博览中心，并与相关负责人进行了深入的座谈交流。', '赣州旅游商品研发项目是赣州客家旅游集团为全面贯彻《若干意见》而推出的重大项目。目前，赣州客家旅游集团已与赣南师范学院签订了框架协议，通过“校企合作”的模式共同研发赣州旅游商品，初步形成了“赣州旅游商品研发合作试行方案”。下一步，集团拟成立“赣州礼品有限公司”，注册“赣州礼品”商标，推介“赣州礼品”名称品牌。用“统一打包”的运营模式进行运作。义乌在旅游商品研发和营销方面的成功经验，得到了全国各地业内人士的认可。此次学考察就是为了学习义乌的先进做法，为集团公司下一步工作的开展提供“他山之石”。', '通过此次学习考察，开阔了眼界，增长了见识，创新了理念，义乌在旅游商品研发和营销方面的成功经验将为集团公司在赣州旅游商品研发工作上提供很好的借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>124</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>赣州市党政代表团在东莞学习考察</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2021-06-09</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.jxxf.gov.cn/xfxxxgk/c101204/202106/030f0cf76a254d17a1d51ba303163269.shtml</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['5月25日晚，在结束深圳学习考察之后，江西省委常委、赣州市委书记吴忠琼率领赣州市党政代表团连夜来到广东之行的第二站东莞市，实地学习东莞科技创新、产业转型升级、城市建设管理等方面的先进经验和做法，全面深化莞赣两地合作交流。', '赣州市委副书记、市长许南吉，市领导高世文、徐兵、邱建军、严水石、胡聚文、胡晓平、柯岩松等参加学习考察。广东省政府副秘书长张春新，广东省发改委一级巡视员钟明，东莞市领导喻丽君等陪同。', '松山湖材料实验室是广东省第一批省实验室之一，致力探索“前沿基础研究-应用基础研究-产业技术研究-产业转化”的全链条创新模式。26日上午，党政代表团一行来到这里，参观了实验室一楼展厅，认真听取了实验室建设背景、四大核心板块建设进展、人才队伍建设、体制机制创新等方面的情况介绍，观看了实验室宣传视频，并实地考察了锂离子电池团队实验室及其创新成果。实验室开放的科研发展理念、浓厚的创新创业氛围和强大的人才集聚能力，给大家留下了深刻印象。吴忠琼要求，要依托中科院赣江创新研究院和松山湖材料实验室等重大科研平台，在技术创新中心、重点实验室、新型研发机构等创新平台载体方面开展全面合作，实施关键共性技术联合攻关，努力实现共赢发展。', '位于松山湖高新区南部的华为终端总部项目（华为欧洲小镇），是华为包括手机在内的全球终端总部运营、研发和居住配套工程。华为技术有限公司负责人热情接待了代表团一行，陪同参观了图书馆，并就科技前沿领域发展趋势、深化合作领域等进行亲切交谈，对赣州经济社会发展成就及生态文明建设、良好营商环境等给予高度评价，双方表示将进一步加强合作交流，努力实现互惠共赢。随后，党政代表团一行搭上“华为欧洲小镇”的小火车，从“巴黎站”缓缓向前，各类欧式建筑次第划过车窗外，代表团成员纷纷拿出手机记录所见所闻，称赞华为公司将生态环境与办公场所完美结合，华为企业文化和发展理念值得学习借鉴。大家表示，要学习华为自主创新、追求卓越的精神，深入实施创新驱动发展战略，积极招大引强、招才引智，加快打造对接', '位于松山湖高新区南部的华为终端总部项目（华为欧洲小镇），是华为包括手机在内的全球终端总部运营、研发和居住配套工程。华为技术有限公司负责人热情接待了代表团一行，陪同参观了图书馆，并就科技前沿领域发展趋势、深化合作领域等进行亲切交谈，对赣州经济社会发展成就及生态文明建设、良好营商环境等给予高度评价，双方表示将进一步加强合作交流，努力实现互惠共赢。随后，党政代表团一行搭上']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>124</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>我县学习考察团赴兴国等县市考察学习</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2018-01-30</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.yudu.gov.cn/yudu/jryd/201801/bd18a407bced4e8cb66fd64f1a6787e1.shtml</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['1月26日至27日，县委副书记吴虹带领我县学习考察团赴兴国、赣县、寻乌、会昌、瑞金、石城等兄弟县（市）学习考察秀美乡村、现代农业、旅游产业建设与发展等工作。县领导梁敏辉、邓晓斌一同参加。', '日，县委副书记吴虹带领我县学习考察团赴兴国、赣县、寻乌、会昌、瑞金、石城等兄弟县（市）学习考察秀美乡村、现代农业、旅游产业建设与发展等工作。县领导梁敏辉、邓晓斌一同参加。', '学习考察团先后来到兴国县龙口镇睦埠金叶新村现代农业项目、赣县江口镇河埠村蔬菜产业扶贫百千万示范项目、寻乌县南桥镇东江源田园综合体建设项目、会昌县庄口镇江西大昌现代农业项目、瑞金市叶坪乡山岐村精准扶贫示范项目、石城县琴江镇通天寨赛石花乐园项目、长乐大数据农旅一体化扶贫产业园等项目建设现场，实地参观学习兄弟县市先进工作理念、经验和方法。', '在为期一天半的实地考察中，我县学习考察团进园区、看展示、听介绍、作交流，一路马不停蹄，详细了解了所到县（市）的发展思路、规划理念及运作模式。', '一路走，一路看，一路思，一个个的园区、基地和项目，给考察学习团成员留下了深刻的印象。学习考察团成员一致认为，各县（市）区城市建设高规格、大手笔，产业发展思路清、定位准，尤其是因地制宜、放大特色的差异化发展模式值得借鉴和探索，回去之后将把好经验、好做法运用到我县经济社会建设中来，推动我县发展再上新台阶。（郭顺）']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>124</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>代表团赴闽学习考察系列评论之三</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2016-12-22</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c102472/201612/90c9c776bf304a029b14ceaf5a13abf6.shtml</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['经济社会的发展，离不开环境的保障、支撑和推动。好的环境，犹如一个磁场，总能吸引资金、项目、人才等发展要素源源汇聚，从而凝聚起推动经济社会加快发展的强大合力。 这样的规律、这样的道理，在我市党政代表团此次学习考察的福建三地，得到再次印证和生动诠释。龙岩、泉州、厦门等地着力打造优良发展环境，促进了项目建设加快推进、创新创业活力涌流、实体经济蓬勃发展，经济的大勃兴反过来又促进环境的再优化，如此形成一个互促互融的良性循环，让人眼界大开、感触良多。 尤其是厦门，一直以来勇于创新、先行先试，不遗余力打造国际一流营商环境，给人留下深刻印象。厦门市实行“多规合一”，推进建设领域审批事项清理和流程再造，大幅精简审批环节，缩短办理时限，提高审批效率，项目建设实现提速增效，“美丽厦门”建设日新月异。同时，他们积极深化“五证合一，一照一码”、多证联办等商事登记制度改革，极大方便了市民、创优了环境、服务了企业，激发了全民创新创业热情。这一切，都让厦门以一个更加开明开放、务实高效、以人为本的形象展示在世人面前。 厦门作为沿海发达地区，尚且如此重视发展环境的持续优化，地处内陆、欠发达、后发展的赣州又怎能不增强环境建设的紧迫感？ 毋庸讳言，在优化发展环境方面，赣州这些年虽然持续用心用力，但也还存在一些不足，打好六大攻坚战，面临环境因素的掣肘仍然不少，比如“肠梗阻”现象、“小鬼难缠”问题。目前，赣州正处于加快推进振兴发展、决战同步全面小康的关键时期，全市上下更要学习借鉴厦门等地的经验做法，不断优化发展环境，着力打造全省乃至全国审批程序最少、办事效率最高、服务质量最好的发展环境，提升发展软实力，以良好环境促进经济社会跨越发展。 打造良好发展环境，要持续推进简政放权，认真做好“减”和“放”的文章。厦门等地的行政审批改革，集中体现了以人为本、效率优先，政府精简审批环节，合并审批程序，以“减”促变，化繁为简，实现了便民利民、高效运转。对于赣州市而言，当前既要承接好中央和省下放的审批事项，又要厘清已有的各项审批事项，把该放的权力放下去、该管的事项管到位。要大力推进公共服务流程简化、质量优化和网上办理便捷化，坚决砍掉各类无谓证明和繁琐手续，最大限度精简办事程序，切实解决“办证多”“办事难”等问题。通过政府的“减”和“放”，给经济发展营造一个宽松、规范、高效、和谐的环境。 打造良好发展环境，要不断增强服务意识，提升服务能力水平。厦门等地能够发展得又好又快，跟政府部门和干部的良好服务意识不无关系。学习厦门等地的经验，我们要树立服务至上的理念，主动转变职能，变“管理员”为“服务员”，全心全意为企业、客商和群众提供贴心服务。要全面公开政务服务事项，接受公众监督；切实改进政务服务方式，最大限度便利群众、满足个性需求；积极推广“互联网+政务服务”，完善网上办事大厅，打造“政务超市”，让群众少跑腿、办好事。同时，要努力在政策宣传、法律咨询、社会保障和融资、用地、用能、用工等方面提供更好服务。 环境是软实力。一个地方的发展环境涉及方方面面，是地方综合实力的集中体现。因此，在营造务实高效、勤勉廉洁的政务环境的同时，我们还要学习厦门、泉州、龙岩等地，努力打造公平正义、依法办事的法治环境，规范有序、诚实守信的市场环境，安全温暖、文明和谐的社会环境，宜居宜业、舒适便捷的人居环境等，以良好的整体环境推进振兴发展，助力追赶跨越。（赣南日报评论员）', '这样的规律、这样的道理，在我市党政代表团此次学习考察的福建三地，得到再次印证和生动诠释。龙岩、泉州、厦门等地着力打造优良发展环境，促进了项目建设加快推进、创新创业活力涌流、实体经济蓬勃发展，经济的大勃兴反过来又促进环境的再优化，如此形成一个互促互融的良性循环，让人眼界大开、感触良多。', '尤其是厦门，一直以来勇于创新、先行先试，不遗余力打造国际一流营商环境，给人留下深刻印象。厦门市实行“多规合一”，推进建设领域审批事项清理和流程再造，大幅精简审批环节，缩短办理时限，提高审批效率，项目建设实现提速增效，“美丽厦门”建设日新月异。同时，他们积极深化“五证合一，一照一码”、多证联办等商事登记制度改革，极大方便了市民、创优了环境、服务了企业，激发了全民创新创业热情。这一切，都让厦门以一个更加开明开放、务实高效、以人为本的形象展示在世人面前。', '厦门作为沿海发达地区，尚且如此重视发展环境的持续优化，地处内陆、欠发达、后发展的赣州又怎能不增强环境建设的紧迫感？', '毋庸讳言，在优化发展环境方面，赣州这些年虽然持续用心用力，但也还存在一些不足，打好六大攻坚战，面临环境因素的掣肘仍然不少，比如“肠梗阻”现象、“小鬼难缠”问题。目前，赣州正处于加快推进振兴发展、决战同步全面小康的关键时期，全市上下更要学习借鉴厦门等地的经验做法，不断优化发展环境，着力打造全省乃至全国审批程序最少、办事效率最高、服务质量最好的发展环境，提升发展软实力，以良好环境促进经济社会跨越发展。', '打造良好发展环境，要持续推进简政放权，认真做好“减”和“放”的文章。厦门等地的行政审批改革，集中体现了以人为本、效率优先，政府精简审批环节，合并审批程序，以“减”促变，化繁为简，实现了便民利民、高效运转。对于赣州市而言，当前既要承接好中央和省下放的审批事项，又要厘清已有的各项审批事项，把该放的权力放下去、该管的事项管到位。要大力推进公共服务流程简化、质量优化和网上办理便捷化，坚决砍掉各类无谓证明和繁琐手续，最大限度精简办事程序，切实解决“办证多”“办事难”等问题。通过政府的“减”和“放”，给经济发展营造一个宽松、规范、高效、和谐的环境。', '打造良好发展环境，要不断增强服务意识，提升服务能力水平。厦门等地能够发展得又好又快，跟政府部门和干部的良好服务意识不无关系。学习厦门等地的经验，我们要树立服务至上的理念，主动转变职能，变“管理员”为“服务员”，全心全意为企业、客商和群众提供贴心服务。要全面公开政务服务事项，接受公众监督；切实改进政务服务方式，最大限度便利群众、满足个性需求；积极推广“互联网+政务服务”，完善网上办事大厅，打造“政务超市”，让群众少跑腿、办好事。同时，要努力在政策宣传、法律咨询、社会保障和融资、用地、用能、用工等方面提供更好服务。', '环境是软实力。一个地方的发展环境涉及方方面面，是地方综合实力的集中体现。因此，在营造务实高效、勤勉廉洁的政务环境的同时，我们还要学习厦门、泉州、龙岩等地，努力打造公平正义、依法办事的法治环境，规范有序、诚实守信的市场环境，安全温暖、文明和谐的社会环境，宜居宜业、舒适便捷的人居环境等，以良好的整体环境推进振兴发展，助力追赶跨越。（赣南日报评论员）']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>124</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>石城县行政审批局赴于都县学习考察</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2021-12-06</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.shicheng.gov.cn/scxxxgk/sc90248/202112/6fa1233c15c64cdd96d368c8b83ecd6c.shtml</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['为进一步提升政务服务能力，优化政务营商环境，11月23日，县行政审批局党组书记、局长熊运发率考察组一行赴于都县行政审批局学习考察。', '学习考察组实地参观了于都县政务服务大厅，认真听取了于都县行政审批局负责人对大厅运行、窗口设置、功能布局、服务管理等情况的介绍，详细了解行政审批局划转事项运行、惠企政策兑现、首位产业、工程项目集成审批等方面运行情况。我局相关业务人员虚心请教并深入交流，获取了宝贵的经验做法。', '通过这次考察学习，我局学习了兄弟单位的先进工作理念，在政务服务模式创新、政务服务制度化、精细化管理等方面有了全新的认识，为进一步推动我县政务服务水平提升奠定了基础。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>124</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>温扬汉院长带队赴广州成都学习考察</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2020-07-17</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100440tb/202007/611fe10655ed4c2e956f541b89a3753c.shtml</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['为深入推进“思想大解放、改革促发展”主题活动，学习国家级大院大所和先进发达地区科研院所推进科技体制改革发展的成功经验，进一步发挥赣南科学院平台作用对接服务粤港澳大湾区“菜篮子”工程，助力我市蔬菜产业发展，7月8日至7月11日，温扬汉院长带队前往广州、成都等地学习考察，院党组成员、副院长刘义生、农科所党总支书记刘小全、柑桔所所长牛王翠和院改革办有关人员参加活动。', '此次学习考察，有针对性选择了国家级新型科技创新平台、在整合组建地市级农林类科学院和粤港澳大湾区蔬菜产业链等方面的先进典型单位和企业，其中，包括3个国家级大院大所和平台、1个兄弟院所、4个蔬菜产业链相关企业。选取了中国农科院都市农业研究所、成都国家现代农业产业科技创新中心、广州国家现代农业产业科技创新中心、成都市农林科学院、广东省现代金穗种业有限公司、广东田联种业有限公司、广州江南果菜批发市场经营管理有限公司和广东天禾农资股份有限公司等单位开展学习考察活动。', '在广州期间，温扬汉院长一行深入广东现代金穗种业有限公司、广东田联种业有限公司、广州江南果菜批发市场和广东天禾农资股份有限公司，围绕蔬菜产业链上下游科研、示范、生产、销售和农资相关企业开展考察，通过与企业负责人进行座谈、考察果蔬生产示范现场，针对企业发展需求、产业发展痛点难点和发挥赣南科学院蔬菜科技成果转移转化探寻合作可能性。', '在成都市，考察组一行先后来到中国农业科学院都市农业研究所、成都国家现代农业产业科技创新中心和成都市农林科学院参观学习，详细了解了国家级大院大所在成都市布局都市农业、智慧农业的最新科研进展，学习了成都市推进农业科技体制改革、科研平台建设、学科团队建设、成果转化、科技服务与激励机制方面的成功经验和做法，并就联合开展有关科研合作达成初步意向。', '下一步，在市委、市政府的坚强领导下，我院将认真学习借鉴有关单位科技体制改革与创新成功经验做法，以全省事业单位改革为契机，以打造地级市一流综合创新平台、更好服务赣南苏区乡村振兴和经济社会发展为目标，统筹推进院所深化改革各项工作。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>124</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>李国泉率团赴湖南桂东学习考察</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2023-04-26</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.chongyi.gov.cn/cyxxxgk/cy76724/202304/2e129d3a21864917b2e7b422a400d6bc.shtml</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['4月24日至25日，县委书记李国泉率团赴湖南省郴州市桂东县学习考察，深入开展交流，务实推进崇义桂东两地合作。县领导吉跃平、魏江华参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>124</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>临塘乡学习考察人居环境长效管护工作</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2021-10-29</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.jxln.gov.cn/lnxxxgk/c102358/202110/be959d014952479eb2f075fe4f9b5fb4.shtml</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['大屋村乡村干部、驻村工作队一行到全南县金龙镇来龙村，大吉山镇长谷坪村、坪头镇村学习考察人居环境长效管护工作，通过现场参观、详细座谈，了解了对方在抓项目促环境整治、完善村规民约、长效管护机制等方面的先进做法，为今后大屋村抓好人居环境整治工作提供了更多思路。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>124</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>薛斌带队到湖北江苏学习考察</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2023-02-25</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://rsj.ganzhou.gov.cn/gzsrsj/wxnews/202302/0aa160da27c74c119cc4741a4f03d8e0.shtml</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['2月21日至24日，市人社局党组书记、局长薛斌带队先后到湖北省武汉市，江苏省南京市、苏州市，学习考察公共就业示范项目建设工作。考察组一行邀请省人社厅就业处一级调研员谢小贵、省就业中心党组成员王海江、省人社厅就业处副处长薛旭亮，市财政局相关科室负责人参加；市人社局党组成员、副局长谢庚福，市就业中心主任隋庆，市人才集团负责人陪同。 其间，薛斌一行在武汉市和苏州市开展座谈交流。详细了解武汉市智慧就业平台建设情况和先进经验成效，了解苏州市公共就业示范项目建设情况和资金使用预期。两地人社部门对考察组一行表示热烈欢迎，并结合就业创业工作开展成效做法进行了重点介绍。苏州市人社局向我市人社局发出合作邀请，表达了共享示范项目建设经验的希望，双方还就如何开展下一步深入合作进行了交流。 调研期间，薛斌一行还深入武汉市、南京市、苏州市的零工市场、基层就业服务驿站和大学生创业园等公共就业服务平台，通过实地走访交流等形式，详细了解就业平台的建设模式、投资模式和运行模式，学习了当地卓有成效的就业政策、财政支持政策等，为下一步我市公共就业示范项目落地建设拓宽眼界、厘清思路。', '2月21日至24日，市人社局党组书记、局长薛斌带队先后到湖北省武汉市，江苏省南京市、苏州市，学习考察公共就业示范项目建设工作。考察组一行邀请省人社厅就业处一级调研员谢小贵、省就业中心党组成员王海江、省人社厅就业处副处长薛旭亮，市财政局相关科室负责人参加；市人社局党组成员、副局长谢庚福，市就业中心主任隋庆，市人才集团负责人陪同。', '其间，薛斌一行在武汉市和苏州市开展座谈交流。详细了解武汉市智慧就业平台建设情况和先进经验成效，了解苏州市公共就业示范项目建设情况和资金使用预期。两地人社部门对考察组一行表示热烈欢迎，并结合就业创业工作开展成效做法进行了重点介绍。苏州市人社局向我市人社局发出合作邀请，表达了共享示范项目建设经验的希望，双方还就如何开展下一步深入合作进行了交流。', '调研期间，薛斌一行还深入武汉市、南京市、苏州市的零工市场、基层就业服务驿站和大学生创业园等公共就业服务平台，通过实地走访交流等形式，详细了解就业平台的建设模式、投资模式和运行模式，学习了当地卓有成效的就业政策、财政支持政策等，为下一步我市公共就业示范项目落地建设拓宽眼界、厘清思路。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>124</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>省党政代表团举行沪皖学习考察小结座谈会</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2021-04-27</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.xingguo.gov.cn/xgxxxgk/xg76731/202104/8f29f76dd9a84e64bddce9c70ff21891.shtml</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['一路学习、一路思考、一路谋划。4月14日，赴上海、安徽学习考察的江西省党政代表团在合肥就地召开小结座谈会，交流体会，相互启发，进一步把学习考察成果转化为发展思路和实效。', '省委书记刘奇主持座谈会，省长易炼红出席并讲话，省领导叶建春、施小琳、吴忠琼、胡世忠、吴浩、陈俊卿出席座谈会。', '会上，省发改委、省科技厅、南昌市、九江市主要负责同志作了交流发言，他们结合学习考察情况和工作实际，找差距、谈启示、说打算，进一步坚定推进高质量跨越式发展的信心和决心。', '刘奇与大家互动交流，要求认真学习借鉴两省市的好经验好做法，紧密结合实际，创造性地转化为推动高质量跨越式发展的有力举措，为“十四五”开好局、起好步奠定坚实基础。', '——要切实增强“作示范、勇争先”的使命感紧迫感。牢固树立“不以江西为世界,而以世界谋江西”意识，切实增强坐不住的紧迫感、慢不得的危机感、等不起的责任感，勇于“向好的学、向强的比、向高的攀”，自觉在中部地区乃至全国范围定坐标、找标杆，奋起直追、拼搏进取，全力以赴加快推进高质量跨越式发展。', '——要依靠科技创新构建现代产业体系。深入实施创新驱动发展战略，集中力量做实做优做强做大航空、电子信息等优势产业和现代农业，千方百计提升创新平台建设水平，持续推动产业链供应链创新链价值链相互融合、迈向中高端，加快构建具有江西特色的现代化产业体系。', '——要以深化改革开放激发发展新活力。大力推进更深层次改革，实行更高水平开放，全面对接共建“一带一路”、长江经济带发展、长三角一体化发展、粤港澳大湾区建设等，持续优化营商环境，着力引进一批头部企业和百亿级大项目好项目，不断增强发展动能和势能。', '——要在党史学习教育中传承红色基因。这次考察专门瞻仰了中共一大会址，就是要在这个我们党梦想起航的神圣之地，更好地重温铭记党的奋斗历程，学习革命先辈崇高精神，进一步坚定理想信念、激发前进动力，真抓实干、锐意进取，努力让革命老区人民过上更加美好幸福的生活，以优异成绩庆祝建党100周年。', '易炼红指出，我们要以坐不住、等不起、慢不得的紧迫感、危机感，真学、真悟、真想、真谋，不断开创江西高质量跨越式发展新局面。取沪皖真经，要学习创新之道，不断完善推进创新体制机制，强化投融资平台建设，努力把科技创新这个“关键变量”转化为“最大增量”，持续推动产业链价值链迈向中高端。要学习开放之方，加快江西内陆开放型经济试验区建设，全面融入长江经济带发展、粤港澳大湾区建设和长三角一体化，加快构建内外并举、全域统筹、量质双高的开放新格局。要学习改革之勇，以担当的精神深化国有企业等重点领域改革，以敢走他人未走之路、敢闯他人未闯之关的胆识和魄力，努力把江西建设成为全国政务服务满意度一等省份。要学习为民之情，积极推进城市高质量发展示范省建设，让江西的城市功能更完备、形态更精美、运行更顺畅，努力打造更多宜居宜业、精致精美、人见人爱的人民满意城市。要学习奋进之为，扎实开展党史学习教育，激发党员干部干事创业的精气神，敢于作为，善于作为，奋力作为，努力在全面建设社会主义现代化国家新征程上书写更加精彩的江西篇章。', '当日，省党政代表团在合肥考察了晶合集成电路股份公司、京东方显示技术公司。下午，代表团在圆满完成此次沪皖学习考察各项活动后返回南昌。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>124</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>温扬汉院长带队到赣南医学院学习考察</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2020-06-17</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100440tb/202006/a67148d53bb94bf1a59334258144b6eb.shtml</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['为进一步推进高校与地方科研院所科技协同创新，推动教学、科研、产业深入融合，唱响“赣南油茶”品牌。近日，温扬汉院长带队到赣南医学院和市林科所共建的赣南油茶产业开发协同创新中心（江西省“2011协同创新中心”）学习考察 。赣南医学院党委书记李恭进、科研产业处处长范小娜及协同创新中心有关负责人会见了温扬汉院长一行。', '李恭进书记对温扬汉院长一行来校学习考察表示热烈欢迎，对我院近年来取得的成绩表示肯定，他指出赣南科学院新班子到任以来主动创新思路谋发展，聚焦党政中心大力提升科研显示度，积极发挥科技创新服务产业发展作用。油茶产业是我市农业三张名片之一，其产品市场用途广，经济效益高，是绿色产业、富民产业，发展前景广阔，赣南科学院在油茶育种、栽培技术等方面科研基础积淀扎实，希望整合优势科技资源，进一步深化双方合作交流，推动油茶产业技术协同创新，促进产学研融合，争取转化出更多新成果、争取更大的经济社会效益。', '温扬汉院长一行先实地参观了赣南医学院赣南油茶产业开发协同创新中心液质联用分析室、生物样品处理实验室、气质联用分析室、电离耦合质谱分析室等。', '在随后的座谈会上，温扬汉院长一行认真听取了赣南油茶产业开发协同创新中心刘志平博士等8位博士的工作介绍，温扬汉院长表示，此次前来学习真是不虚此行，赣南医学院在油茶产业开发研究方面，科研团队和平台建设成效显著，成果产出速度快、质量高，研发了一批深受市场欢迎的油茶深加工产品，希望赣南医学院今后在国家油茶工程中心、油茶科技产业园建设及科研项目申报实施中，纳入我院市林科所联合攻关，助力全省油茶产业实现高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>124</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>尹弘叶建春率我省党政代表团赴安徽学习考察</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2023-02-22</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.ganxian.gov.cn/gxqxxgk/c110946/202302/fdd43ebc4e564095bea0664492694ea2.shtml</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['2月18日，省委书记尹弘、省长叶建春率江西省党政代表团赴安徽开展为期两天学习考察。当日，代表团来到芜湖、合肥等地，考察了芜湖中国视谷和奇瑞智能网联超级一工厂，在合肥参观了安徽创新馆，并举行了两省交流座谈会，深入学习安徽成功经验，共商高质量合作发展大计。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>124</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>袁炎率团赴六地学习考察</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2021-10-19</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.jxxf.gov.cn/xfxxxgk/c101186/202110/1c2c704f5b024a9e8013e4f6379fb149.shtml</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['10月8日下午至10日上午，县委书记袁炎率领我县党政考察团赴章贡区、于都县等六县（市、区）学习考察，学习借鉴他们在产业发展和项目建设方面的先进经验和做法，10日下午主持召开交流座谈会并讲话。他强调，要进一步解放思想、开阔视野，坚定信心、增强信心，为当好融湾排头兵，决战全省二十强，奋力建设全国革命老区高质量发展示范先行区，着力描绘新时代“世界橙乡、北江源头、融湾标兵、人信物丰”新画卷而不懈奋斗。张琳、钟小春、何文庆、温岩松等县领导参加。相关县（市、区）党政主要领导或分管领导分别陪同。', '袁炎在座谈会上指出，这次考察学习是迅速贯彻市县党代会精神、县“两会”精神的具体行动，也是一次解放思想、开拓视野之行，同时也要充分看到差距，如坐针毡，坚定信心，闻鸡起舞，只争朝夕，日夜兼程，抓紧每一天，干好每件事，确保一年一变样、五年大跨越。', '袁炎强调，学习的结束，就是行动的开始。各乡镇各部门要全面梳理、充分消化，切实用好这次考察学习成果，迅速把学习考察成果转化成压力动力、转化成实际行动、转化成实际成果。要学习周边县（市、区）领导干部如坐针毡、如履薄冰的危机感和紧迫感，学习他们充满激情、勇争一流的精气神，学习他们解放思想、敢想敢干，学习他们的大视野、大格局、大气魄，学习他们攻坚克难、善作善成的能力，学习他们精益求精、追求卓越的精神，学习他们拼命三郎、迅速落实落地的作风，学习他们保持战略定力、久久为攻的毅力，迅速掀起新一轮“主攻工业、招大引强、扶优扶强、优化环境、大抓项目”热潮，奋力绘就新时代“世界橙乡、北江源头、融湾标兵、人信物丰”新画卷。', '袁炎还就当前招大引强、争资争项、重大项目建设、高铁沿线环境整治、脐橙节筹备等工作作了强调部署。', '张琳指出，要认真研究、仔细思考他山之石，做到招商精准、服务优化、难题破解、效率提高、保障强化。要创新方式方法，用资本的眼光看项目，借资本的力量找项目，以资本撬动各方面资金扩大投入、提升产能。要聚焦决战全省20强的目标，举全县之力盯住产业链招商，紧紧盯住、招引一批大项目、好项目，尽心尽责盯住要素保', '障。要坚定信心，讲好信丰故事、信丰政策，配齐配强配好招商队伍，让每个干部强化流水线意识、牛皮糖精神和拓荒牛干劲，同时做好土地、厂房、效率、指标、资金、上市、人才等方面工作，确保我县招商引资工作取得实效。', '整整两天的行程，考察团一行马不停蹄、争分夺秒，奔行1000余公里，考察了近三十个项目，详细听取了当地有关情况介绍，切身感受六地产业发展和项目建设取得的成绩和先进经验做法。', '章贡区发挥中心城区比较优势，全力建设“一区四中心”。考察团一行先后来到赣州方特东方欲晓项目、深联电路智能制造项目、七鲤古镇文化旅游 PPP 核心区建设项目、江西威高医疗装备有限公司中国威高集团南方制造基地项目，访景区、走企业、进车间、看项目，深入一线，详细了解章贡区在产业转型升级、打造智能化工厂、文化旅游产业、产业链招商等方面的经验做法和成效。', '来到于都中央红军长征集结出发地纪念园，考察团一行开展党史学习教育现场教学，向中央红军长征出发纪念碑敬献花篮，县委书记袁炎上前整理红色缎带，大家向纪念碑三鞠躬。在长征渡口，考察团一行满怀着对革命先辈的崇敬之情，观看了情景剧《长征组歌》。走进纪念馆内，通过一张张历史图片、一件件文献实物、一个个沙盘模型，考察团一行详细了解中央红军长征前后那段可歌可泣的壮烈历史。考察团一行还来到江西卫棉纺织有限公司、江西煜明智慧光电股份有限公司、于都-FDC时尚产业综合体等地，了解企业生产经营、院士成果转化、产品研发、市场开拓等情况，考察了于都县做强首位产业、招商引资等方面的经验做法。', '在赣县区，考察团一行参观了赣州腾远钴业新材料股份有限公司智能化产业升级项目、赣州珐玛珈智能设备有限公司智能包装自动化设备生产项目、中科院赣江创新研究院，了解项目引进、落地建设、竣工投产的好做法，对赣县区推动产业升级、以国家级创新平台驱动发展等的做法印象深刻。', '经开区大力倾力打造新能源汽车首位产业，大力引进整车生产和配套项目，正向营收两千亿元园区全力迈进。考察团一行来到赣州市同兴达科技三期项目、蓝芯存储、赣州锐晶科技有限公司、赣州金瑞麒低速自动驾驶、吉利（赣州）动力电池项目、凯马汽车制造有限公司，了解招大引强、靠大联强、项目推进、项目投融资等方面经验做法和显著成效。', '南康区“无中生有”，家具产业实现了“买全球”“卖全球”双向循环，正全力推动现代家居产业产值倍增。考察团一行参观了格力电器（赣州）智能制造基地项目、大自然家居高端智能制造（南康）基地项目、美克数创智造园项目、共享备料中心等项目，了解南康区', '以格力电器为龙头，打造智能制造千亿产业集群，建设“万亩千亿”新产业平台，推动家具产业数字化转型等方面的好思路、好做法。', '在龙南市，考察团一行先后来到龙南经开区展示馆、柔驰锂电产业园项目、赣粤产业合作试验区“三南”片区（新圳组团）（富康组团）、里仁镇围屋民俗小镇等地学习，对龙南市实施满园扩园工程，大抓项目、大干项目，发展全域旅游等做法表示赞赏。', '大家一致表示，这次考察学习，切身感受到了周边县（市、区）抓发展的大手笔、大气魄、大格局，亲眼目睹了他们的发展变化，充分领略了加快发展的蓬勃生机，深刻体会了当地干部干事创业、奋发有为的精神风貌，受到了强烈的视觉冲击、巨大的思想触动和发展启示。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>124</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>吴忠琼率赣州党政考察团继续在厦门学习考察</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2022-06-02</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.jxxf.gov.cn/xfxxxgk/c101198/202206/a380eefd46af47a7897dbaee47d93422.shtml</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['5月26日上午，省委副书记、市委书记吴忠琼率赣州市党政考察团继续在厦门学习考察，走访大集团大企业，现场感受厦门创新创业高质量发展、产业转型升级的“加速度”，进一步坚定推进赣州工业倍增升级、做优做强做大产业的信心决心。', '厦门市委副书记、市长黄文辉，厦门市领导连坤明等陪同考察。赣州市领导何琦、孙敏、陈水连参加。', '考察团一行首先来到厦门天马微电子有限公司，参观企业展厅和生产车间。该公司是全球显示行业领军企业天马微电子股份有限公司的全资子公司，主要生产应用于智能手机、平板电脑等高端移动终端的消费类显示屏及模块，填补了我国高端显示领域的空白。企业负责人向考察团一行详细介绍了企业发展历程、企业文化、技术研发、产品应用场景、未来发展规划和产品智能化生产流程等，大家边听边看、边走边问，深入了解企业科技研发、人才引进、市场开拓等情况。大家认为，厦门市着力打造千亿元光电产业集群，吸引配套企业聚集，形成产业“链群配”效应的先进经验非常值得赣州学习借鉴。要持续深化改革创新，进一步延链补链强链，坚定不移招大引强、完善配套、服务企业，不断做大做强“1+5+N”产业集群。', '考察团一行首先来到厦门天马微电子有限公司，参观企业展厅和生产车间。该公司是全球显示行业领军企业天马微电子股份有限公司的全资子公司，主要生产应用于智能手机、平板电脑等高端移动终端的消费类显示屏及模块，填补了我国高端显示领域的空白。企业负责人向考察团一行详细介绍了企业发展历程、企业文化、技术研发、产品应用场景、未来发展规划和产品智能化生产流程等，大家边听边看、边走边问，深入了解企业科技研发、人才引进、市场开拓等情况。大家认为，厦门市着力打造千亿元光电产业集群，吸引配套企业聚集，形成产业', '厦门弘信电子科技集团股份有限公司是一家主板上市、国内排名第一的专业从事柔性印制电路板研发生产的企业，其产品主要应用于智能手机、可穿戴电子产品、智能汽车、智能家居、虚拟现实、柔性显示等领域。考察团一行来到这里，参观了生产车间及产品展示厅，详细了解产品研发及市场销售等情况。该企业坚持自主创新，通过整合国内知名高校资源，大力引进创新人才，不断探索和开拓柔性电子应用领域，以及节约集约用地、精细化管理等做法，给大家留下了深刻印象。大家纷纷表示，要进一步加大人才、技术引进力度，推动我市电子信息产业升级，抢占行业高端。', '银鹭食品创始于1985年，是厦门乃至全国名列前茅的罐头食品、饮料生产基地之一，是农业产业化国家重点龙头企业。考察团一行参观了企业文化展示中心、无菌灌装生产线等，听取了银鹭集团的发展历程、产品生产、灌装、科研等情况介绍，对银鹭集团世界领先的灌装技术、产品的研发及产品市场投放给予赞许。大家表示，要学习银鹭集团艰苦奋斗、拼搏创新的精神，围绕我市特色优势产业，做大做强农业龙头企业，凝心聚力推进乡村全面振兴。（特派记者张宗兴/文 刘青/图）']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>124</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>赣州市党政代表团在广州学习考察</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2021-05-29</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.jxxf.gov.cn/xfxxxgk/c101222/202105/6c88d5f9a2a94baba9270f19d6fed29b.shtml</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['日，赣州市党政代表团在广州学习考察，学习广州的好理念、好思路和好经验、好做法，进一步深化合作交流。', '日下午，广东省委书记李希，广东省委副书记、省长马兴瑞在广州与江西省委常委、赣州市委书记吴忠琼一行座谈交流。广东省委常委、广州市委书记张硕辅，广东省委常委、省委秘书长张福海，广东省政府秘书长、办公厅主任叶牛平，广州市委副书记罗冀京，赣州市委副书记、市长许南吉等出席相关活动。广东省政府副秘书长张春新，广东省发改委一级巡视员钟明，市领导高世文、徐兵、邱建军、严水石、胡聚文、胡晓平、柯岩松等参加。', '李希代表广东省委、省政府对赣州市党政代表团的到来表示欢迎，对江西和赣州长期以来给予广东工作的支持表示感谢。他说，广东和江西是近邻，是兄弟省份。赣州是全国著名的革命老区，是江西省域副中心城市，支持革命老区高质量发展是我们义不容辞的责任。当前，广东正深入学习贯彻习近平总书记对广东重要讲话、重要指示批示精神，扎实抓好', '”工作部署落实，全力打造新发展格局战略支点，奋力在全面建设社会主义现代化国家新征程中走在全国前列、创造新的辉煌。我们坚决贯彻落实以习近平同志为核心的党中央的决策部署，进一步加强与革命老区交流合作，全力支持赣州高质量跨越式发展，推动新发展阶段粤赣合作再上新水平。', '吴忠琼转达了省委、省政府主要领导的问候，对广东长期以来给予江西和赣州的帮助和支持表示感谢。她说，习近平总书记一直关心赣南的发展，', '月视察江西和赣州时，提出了“在加快革命老区高质量发展上作示范”的重要要求。《国务院关于新时代支持革命老区振兴发展的意见》明确提出研究建立发达省市与革命老区重点城市对口合作机制，支持赣南等原中央苏区深度参与粤港澳大湾区建设，支持赣州与大湾区共建产业合作试验区。加快对接融入粤港澳大湾区，是赣州全力推动的重大战略，是高质量跨越式发展的重要路径。希望广东省一如既往关心支持江西和赣州发展，支持赣州市深度参与粤港澳大湾区建设，在科技创新、产业发展、基础设施、双向开放、干部培养等领域深化合作，助推赣州打造对接融入粤港澳大湾区的桥头堡。', '其间，代表团一行先后考察了新能源汽车及配套产业发展、科技创新及成果转化、城市规划建设和生物医药产业发展等工作。在广州明珞汽车装备有限公司，代表团一行参观了明珞装备创新体验中心，详细了解明珞研发、技术、产品、服务以及数字化、智能化等发展情况。大家表示，要把智能制造解决方案运用到赣州的工业领域，推动我市工业倍增升级，实现高质量发展。来到广州科学城初心使命馆，大家通过观看图片、文字、视频、模型、互动展示等，深入了解黄埔区、广州开发区以高质量党建推进高质量发展的建设成果。登上广州东塔（周大福金融中心），大家俯瞰珠江两岸，察看城市规划建设和生态保护情况，认真听取广州城市规划建设概要介绍，表示要认真学习借鉴广州的先进理念，促进城乡规划建设水平不断提升。金域医学检验集团有限公司是中国', '年领先行业。代表团一行来到这里，实地参观金域医学展厅，详细了解金域医学创业发展历程、服务网络、科技创新等情况及未来发展规划。吴忠琼说，希望金域医学将区域中心布局赣州，助力赣州提升公共卫生服务能力，更好满足群众健康需求，造福老区人民。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>124</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>南昌市安义县学习考察团来我县考察</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2018-02-01</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://www.yudu.gov.cn/yudu/jryd/201802/4d3456f466594610aa68a7fd40e4446c.shtml</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['1月30日，南昌市安义县常委、政法委书记吴志强带领该县学习考察团一行22人，到我县学习考察农旅和多种生产模式及规模的先进经验和做法。市政府副秘书长杨维田，县委常委、县政府副县长冯靖哲陪同。', '人，到我县学习考察农旅和多种生产模式及规模的先进经验和做法。市政府副秘书长杨维田，县委常委、县政府副县长冯靖哲陪同。', '考察团一行来到梓山镇万亩富硒蔬菜产业基地实地考察，通过看现场、听介绍，详细了解了各项农旅及多种生产做法，深入交流探讨了生产模式的先进经验。', '考察团一行对我县农旅产业发展给予了充分认可，通过此次参观考察，进一步加强了沟通交流。并表示回去以后将结合实际，推进农旅工作，争取取得更大的成效。（张淑华、曾小茂）']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>124</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>我县党政考察团赴全南定南学习考察</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2022-05-24</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c102598/202205/535172ec89a14b4d99ca757100091f22.shtml</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['5月20日至21日，县委书记韩相云，县委副书记、县政府县长曾志平率领我县党政考察团前往全南、定南两县考察，学习借鉴招大引强、工业倍增升级、乡村振兴、全域旅游等方面的先进经验和做法。 20日下午，韩相云等大余县党政考察团一行在全南县委书记曾平等的陪同下，先后来到江西络鑫科技有限公司、江西佳信捷科技有限公司、江西华派科技有限公司，看成品展示、进企业车间，详细了解全南县加速壮大电子信息工业首位产业，加快推进工业倍增升级，加快建设承接粤港澳大湾区电子信息产业转移基地等工作成效。 据了解，江西络鑫科技有限公司是电子信息音视频转换细分领域龙头企业，项目总投资30亿元，分三期建设，首期项目落户当年即实现营收3.5亿元，出口创汇1.6亿元，税收2100万元。 江西佳信捷科技有限公司是一家智能视频产品和物联网云平台研发、制造、销售及技术服务的新三板挂牌企业，拥有数字孪生技术、人工智能（AI）技术等多项核心技术，是国家工信部首批物联网发展计划23家企业之一。 江西华派光电科技有限公司由华派集团投资25亿元分三期建设，项目达产达标后，年产各类真空镀膜相关产品2亿PCS，年产值20亿元以上，投资规模和产能居同行业全国第二。 考察团一行还来到中国（全南）攀岩小镇、雅溪古村等地参观考察，了解该县全域旅游、宅基地制度改革探索等项目发展情况。 韩相云对全南县招大引强、工业倍增升级取得的成绩给予了高度评价。他强调，全南县在产业发展、乡村旅游等方面的经验做法非常值得我们学习借鉴，各乡镇各部门单位要立足大余实际，解放思想、对标先进、找准差距，认真学习借鉴先进经验和方法，学以致用、用以促学，不断推动我县各项工作取得新突破。 21日上午，韩相云、曾志平等县党政考察团一行在定南县委书记龙小东，县委副书记、县政府县长陈钰滢等的陪同下，实地参观考察了江西赣悦新材料有限公司、赣州龙邦材料科技有限公司、大华新材料有限公司、定南足球融合发展项目。每到一处，考察团成员认真听取先进经验介绍，详细了解项目引进落地、规划建设、发展运行等情况。 据介绍，江西赣悦新材料有限公司是江西省唯一一家光伏玻璃生产企业，先后获得30多项授权国家专利，现拥有国际最先进的生产设备和技术，可生产1.6-2.5mm规格超白光伏玻璃，镀膜玻璃透光率＞94%，高于同行业平均水平93.5 %。 赣州龙邦材料科技有限公司项目总投资10亿元，项目达产达标后，预计年产芳纶复合材料7500吨，实现年产值20亿元，成为亚洲最大的芳纶复合材料生产基地。 大华新材料有限公司年分离产能4400吨南方离子型稀土矿，产品质量在同行业中居于前位，并拥有多项专利和专有技术。 定南足球融合发展项目结合全域旅游康养风景区建设，配套建设足球民宿、足球酒店、足球村，是国家、省、市青少年足球重要赛事基地。 韩相云表示，在考察中，充分感受到了定南县注重招才引智、以商招商的发展理念。希望以此次考察为契机，进一步加强学习交流、沟通合作，在发展理念、发展思路、发展措施等各方面互学互鉴、协作共赢。 韩相云强调，此次学习考察开阔了视野、拓展了思路、学到了经验，全体考察团成员要结合工作实际，切实用好并深化这次考察学习的成果，在今后的工作中知行合一、真抓实干，以更加开放创新的思维，更加求真务实的作风，更加扎实有力的举措，进一步推动我县经济社会各项事业发展再上新台阶，为建设更高层次实力活力美丽幸福大余贡献更大的智慧和力量。 县人大常委会主任邓金健，县委常委、县纪委书记、县监委主任王加卿，县委常委、政法委书记叶永恒等县领导，以及各乡镇（城市社区）党委（党工委）书记和相关部门、单位负责人参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>124</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>大余县学前教育考察团赴上犹县学习考察</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2023-03-07</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c101062/202303/3e3c6a3c8ff6460b946e0a9b18121ad6.shtml</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['为推动县域学前教育普及普惠发展，县委教科体工委委员谢先将，县委教科体工委委员、总督学林珏率我县学前教育普及普惠考察团赴上犹县学习考察。相关股室负责人、幼儿园园长参加考察活动。', '考察团一行先后来到上犹县城区第二幼儿园、城区第四幼儿园、社溪镇公立幼儿园、社溪镇石崇幼儿园、沿湖中心幼儿园，通过查看资料、座谈会与实地观摩相结合的方式，认真学习了上犹县创建学前教育普及普惠县的先进经验，详细了解了几所幼儿园的办园理念、环境创设、师资配备、课程建设等情况，并与相关业务领导和职能股室交流探讨，对工作中存在的共性难题深入交流，共同探索工作新思路、新举措。', '此次考察学习活动，为我县开展县域学前教育普及普惠创建工作拓展思路提供了重要借鉴，我县将以此次学习考察为契机，增强创建工作的责任感和紧迫感，不断健全保障机制，进一步推进学前教育普及普惠优质发展。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>124</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>李卫国带队前往深圳学习考察</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2021-12-15</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://rsj.ganzhou.gov.cn/gzsrsj/bsyw/202203/73664725724549d08ae1c5a7de93eb99.shtml</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['国务院批复同意在沈阳等6个城市暂时调整实施有关行政法规和经国务院批准的部门规章规定2024-07-11', '中办国办印发《关于做好全国民族团结进步模范推荐评选工作的通知》2024-06-18']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>124</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>九江市德安县党政考察团到我县学习考察</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2023-01-13</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.yudu.gov.cn/ydxxxgk/c100263gter/202301/bb10968338094d6598bcbc9f5d40cbd9.shtml</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['1月10日，九江市德安县县委书记周三连率领党政考察团到我县学习考察。县委副书记郭书珑，县委常委钟财亮陪同。', '考察团一行先后来到县体育中心、赢家时装（赣州）有限公司、翡俪文德时尚服饰发展有限公司、江西卫棉纺织集团有限公司、于都-FDC时尚产业综合体等地参观考察。考察团对于我县深入推进体育融合、纺织服装产业发展所取得的成果给予了高度赞扬。', '在随召开交流座谈会上，郭书珑向考察团一行介绍了我县纺织服装产业发展的状况，观看了于都招商宣传片。考察团认为我县纺织服装产业发展迅猛，这次考察收获颇丰，有许多好经验、好做法值得学习借鉴，希望两地能够进一步加强合作交流，推动两县共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>124</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>新余市局来我局学习考察平安电梯创建工作</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2018-04-03</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449se/201804/f734fdcbbe30478885c67815303f2c77.shtml</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['3月22日,新余市市监局总工程师李晓丰一行,来我局考察学习“平安电梯”创建工作。市局党组成员、副局长刘平陪同并介绍相关情况。', '座谈会上,刘平简要介绍了我市创建全省“平安电梯”安全监管示范区主要经验和做法。会后,陪同考察组一行前往兴国县局实地观摩电梯物联网建设情况。考察组认为赣州市局“平安电梯”创建工作走在全省前列,此次学习考察为新余市局创建“平安电梯”有很大的启发和帮助。', '双方均表示,今后将继续加强两局的经验交流,共同探索在新形势下创建“平安电梯”的新思路和新方法,为今后双方在特种设备安全领域加强合作夯实基础。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>124</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>赣州市供销联社赴粤港澳大湾区学习考察</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2020-10-05</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.yudu.gov.cn/ydxxxgk/c100264k/202010/1953a5e44d0d4a6189e692c4fd977ca3.shtml</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['9月26日至28日，为学习借鉴粤港澳大湾区供销合作社发展经验，在打造对接融入粤港澳大湾区桥头堡进程中贡献供销力量，赣州市供销联社党组书记、主任罗红梅带队赴广州、珠海、惠州三地供销合作社开展对接粤港澳大湾区学习考察，党组成员、监事会主任刘', '成，三级调研员廖德军、王文杰，机关相关科室负责人，章贡区、大余县、定南县、信丰县供销社主任参加了学习考察活动。', '26日，考察组到珠海市供销合作社，参观考察了珠海市供销社百分百商业有限公司、珠海市供销社社员资金互助中心、三灶镇供销社助农服务中心,学习日用消费品经营、合作金融和助农服务中心建设经验。', '27日，考察组到广州市供销合作社，参观考察了广州市农产品公司小鲜驿站门店、如意果品批发市场，学习农产品批发市场运营和农产品流通经验。', '28日，考察组到惠州市，参观考察了粤港澳大湾区（广东·惠州）绿色农产品生产供应基地、博罗县供销社助农服务综合平台、博罗县为民光华农产品专业合作社，学习农产品基地建设、助农服务综合平台和农产品生产加工经验。', '考察组每到一处，都认真学习，深入思考，并积极主动与对方进行沟通，增进了解，争取支持，促进合作。广州、珠海、惠州供销合作社对考察组一行予以了热情接待，周到安排。考察组与广州、珠海、惠州供销合作社分别进行了座谈，一致认为，赣州与广东山水相连、人文相通，合作空间很大，大湾区是赣州优质农产品的理想销售目的地，赣州是大湾区的休闲度假旅游后花园，双方应进一步密切沟通交流，并初步就大米供销和专业合作社产品销售达成了合作意向。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>124</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>市水利局组织前往福建浙江学习考察水利工作</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2021-03-17</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449fn/202103/480140ddd4e14d2e8bd831045f4918e7.shtml</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['为进一步解放思想、开拓视野，学习先进地区水利工程谋划、资金项目争取、河流治理保护等方面的成功做法和典型经验，加快推动赣州市水利事业高质量跨越式发展。', '局党组书记、局长何世林率学习考察组前往福建省泉州市、三明市和浙江省衢州市学习考察，同当地市、县（区）水利局座谈交流了水利工作。', '在泉州市，学习考察组详细了解白濑水利枢纽谋划储备、向上申报、落地开工的全过程及主要经验做法，听取了虎邱镇安全生态水系统筹水系整治、生态农业、文化旅游建设的情况介绍。', '在三明市，学习考察组参观了沙县双溪水库、东溪安全生态水系工程、河长指挥调度中心，深入了解工程建设管理、综合治水、河湖长制等方面的先进理念和工作方法，现场观看了“智慧河长”处置事例视频。', '在衢州市，学习考察组实地考察了衢江治理二期（百家塘段）、柯城区石梁溪治理工程，全面了解衢州市“美丽河湖”建设及“退堤还河”的创新做法，就浙赣粤运河建设等内容进行了深入交流探讨。', '通过学习考察和座谈交流，学习考察组结合赣州实际，带着问题学习，全方位、多层次了解到先进地区水利改革发展情况，深切感受到自身的差距和不足，找准了工作目标和方向，为推进赣州水利建设三年行动计划、加快谋划建设一批重大水利项目拓宽了思路。下一步，市、县水利部门将以学促干，用实际行动为赣州建设革命老区高质量发展示范区提供水利支撑。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>124</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>于都县住保中心学习考察物业管理工作</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2023-03-14</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.yudu.gov.cn/ydxxxgk/c100264b/202303/018bba3e3a274159aac1c10ee4c6d8b9.shtml</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['、业主委员会指导和监督、物业服务等级标准和收费标准等工作进行了介绍。随后，双方就物业服务事中事后监管、维修资金使用和管理、物业矛盾纠纷处理等做法经验进行了深入的交流。', '在物业管理工作中的经验和做法给予高度肯定。物业管理工作是涉及广大城市居民的民生工程，得到各级政府的高度重视。这次来到']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>124</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>九江经开区考察组一行到赣州综保区学习考察</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2018-10-30</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://gzjkq.ganzhou.gov.cn/jkqxxgk/c109998/201810/ff3c0878c2fe49fb88f9ea38c08b45db.shtml</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['派考察组一行到赣州综合保税区学习考察。区领导毛瑞林、叶爱英、陈华洪先后陪同考察或参加座谈会。', '考察组一行先后参观了经开区城展馆、美橙进出口商品交易展示中心，并召开座谈会，详细了解赣州综保区机构设置、规划建设、运营管理、招商引资、管理体制等情况。考察组一行充分肯定了赣州综保区融入经开区联动发展的体制机制创新做法，赞许综保区开发建设取得的成效，希望今后双方在园区开发、建设管理、信息互通等方面进一步加强交流，深化合作，实现互惠互利。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>124</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>吴忠琼率团在广州学习考察</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2021-05-28</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.dingnan.gov.cn/dnxxxgk/dn352/202105/02fb734be45a4a51a9e42d75617e9c40.shtml</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['5月26日至27日，赣州市党政代表团在广州学习考察，学习广州的好理念、好思路和好经验、好做法，进一步深化合作交流。26日下午，广东省委书记李希，广东省委副书记、省长马兴瑞在广州与江西省委常委、赣州市委书记吴忠琼一行座谈交流。广东省委常委、广州市委书记张硕辅，广东省委常委、省委秘书长张福海，广东省政府秘书长、办公厅主任叶牛平，广州市委副书记罗冀京，赣州市委副书记、市长许南吉等出席相关活动。广东省政府副秘书长张春新，广东省发改委一级巡视员钟明，市领导高世文、徐兵、邱建军、严水石、胡聚文、胡晓平、柯岩松等参加。', '李希代表广东省委、省政府对赣州市党政代表团的到来表示欢迎，对江西和赣州长期以来给予广东工作的支持表示感谢。', '广东和江西是近邻，是兄弟省份。赣州是全国著名的革命老区，是江西省域副中心城市，支持革命老区高质量发展是我们义不容辞的责任。当前，广东正深入学习贯彻习近平总书记对广东重要讲话、重要指示批示精神，扎实抓好“1+1+9”工作部署落实，全力打造新发展格局战略支点，奋力在全面建设社会主义现代化国家新征程中走在全国前列、创造新的辉煌。我们坚决贯彻落实以习近平同志为核心的党中央的决策部署，进一步加强与革命老区交流合作，全力支持赣州高质量跨越式发展，推动新发展阶段粤赣合作再上新水平。', '吴忠琼转达了省委、省政府主要领导的问候，对广东长期以来给予江西和赣州的帮助和支持表示感谢。', '习近平总书记一直关心赣南的发展，2019年5月视察江西和赣州时，提出了“在加快革命老区高质量发展上作示范”的重要要求。《国务院关于新时代支持革命老区振兴发展的意见》明确提出研究建立发达省市与革命老区重点城市对口合作机制，支持赣南等原中央苏区深度参与粤港澳大湾区建设，支持赣州与大湾区共建产业合作试验区。加快对接融入粤港澳大湾区，是赣州全力推动的重大战略，是高质量跨越式发展的重要路径。希望广东省一如既往关心支持江西和赣州发展，支持赣州市深度参与粤港澳大湾区建设，在科技创新、产业发展、基础设施、双向开放、干部培养等领域深化合作，助推赣州打造对接融入粤港澳大湾区的桥头堡。', '在广州明珞汽车装备有限公司，代表团一行参观了明珞装备创新体验中心，详细了解明珞研发、技术、产品、服务以及数字化、智能化等发展情况，大家表示要把智能制造解决方案运用到赣州的工业领域，推动我市工业倍增升级，实现高质量发展。', '来到广州科学城初心使命馆，大家通过观看图片、文字、视频、模型、互动展示等，深入了解黄埔区、广州开发区以高质量党建推进高质量发展的建设成果。', '登上广州东塔（周大福金融中心），大家俯瞰珠江两岸，察看城市规划建设和生态保护情况，认真听取广州城市规划建设概要介绍，表示要认真学习借鉴广州的先进理念，促进城乡规划建设水平不断提升。', '金域医学检验集团有限公司是中国500强企业，连续17年领先行业，代表团一行来到这里，实地参观金域医学展厅，详细了解金域医学创业发展历程、服务网络、科技创新等情况及未来发展规划。吴忠琼说，希望金域医学将区域中心布局赣州，助力赣州提升公共卫生服务能力，更好满足群众健康需求，造福老区人民。', '吴忠琼说，希望金域医学将区域中心布局赣州，助力赣州提升公共卫生服务能力，更好满足群众健康需求，造福老区人民。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>124</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>市党政代表团赴广东学习考察借得南风弄大潮</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2021-06-01</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.jxxf.gov.cn/xfxxxgk/c101174/202106/f842d3f4aa344b048784130f0129777c.shtml</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['对接大湾区，共谋大发展。5月24日至27日，赣州市党政代表团赴广东学习考察。短短三天，奔波深圳、东莞、广州三地，置身改革开放前沿，感受高质量发展律动，共商合作发展大计。', '“赣州是全国著名的革命老区，是江西省域副中心城市，支持革命老区高质量发展是我们义不容辞的责任。” 对于赣州市党政代表团的到来，广东方面高度重视。广东省委书记李希，广东省委副书记、省长马兴瑞百忙之中，专门抽出时间与江西省委常委、赣州市委书记吴忠琼，市委副书记、市长许南吉等座谈交流。', '采岭南之石，琢南赣之玉。这是市委、市政府主要领导到任后组织的首次外出学习考察活动，这是一个由有关市领导及县（市、区）、市直部门主要负责同志组成的高规格、大规模代表团。这既是一次解放思想之旅，也是一次学习取经之旅，还是一次交流合作之旅。', '代表团一路看、一路议、一路思考、一路交流，所到之处，扑面而来的是珠江暖风和南海热潮，还有生机勃发的科研园区、实力雄厚的产业集群、美轮美奂的城市建设。广东经济社会发展取得的巨大成就，广东人民敢为人先、勇闯新路的进取精神，求真务实、雷厉风行的工作作风，在代表团中掀起一轮解放思想、更新观念的冲击波。', '借得南风弄大潮。大家纷纷表示，通过学习考察，开阔了思路，找准了差距，搅动了思想，进一步增强了高质量跨越式发展的紧迫感和责任感，更加坚定了全面对接融入粤港澳大湾区的信心和决心。', '解放思想是总开关。此次学习考察的粤港澳大湾区三市是中国改革开放前沿，一路走来，给代表团一行以极大震撼。', '深圳是改革开放的先行地，也是思想解放的最前沿。作为改革开放的“排头兵”与“试验田”，深圳凭着一种“闯”的精神、“创”的劲头、“干”的作风，以思想破冰引领改革突围，实现了由一座落后的边陲小镇到具有全球影响力的国际化大都市的历史性跨越，成为广东改革开放进程中独领风骚的缩影。', '新时代走在前列，新征程勇当尖兵。代表团首先来到南山区前海国际会议中心，参观“从先行先试到先行示范——庆祝深圳经济特区建立40周年展览”。40多年来，深圳始终高举改革大旗，领创新风气之先，解放思想永无止境在这里得到生动诠释。', '“一码管理、一门集中、一窗受理、一网通办、一号连通、一证申办、一库共享、一体运行”，深圳探索建立“大政务服务”工作机制，就是解放思想的生动实践。在深圳、东莞、广州等地，代表团接触到的政府官员、企业家和基层民众，都从不同层面和角度体现了强烈的市场观念、现代意识和开放理念，都体现出了对加快发展的责任感和干事创业的激情。', '处处感受改革，时时谋求学习。在展厅、在工厂，在查看图片资料、在观看视频影音……甚至在用餐席间，学改革前沿发展理念的激情始终澎湃不已。正如代表团成员所说：“这些辉煌成就极大振奋了我们的发展信心，广东的昨天，就是我们的今天；通过努力，广东的今天，就会是我们的明天！”', '思路决定出路，观念决定行动。“在营商环境上，感觉我们的思想观念更新不足，部门间信息共享机制不健全，灵活度还不够。”市行政审批局局长刘洪梅表示，要简化审批环节，提升审批效率，尤其要在数据融合、集成审批等方面改革走在全省前列。', '思想解放，才能看得远、谋得深。大家纷纷表示，要进一步转变思想观念，学习他们眼睛亮、见事早、行动快，看准了就干，干就干到底，引领全市不断掀起解放思想的热潮。', '作为我国改革开放的急先锋，2020年广东地区生产总值超过11万亿元，连续32年位居全国第一。近年来，广东持之以恒实施“1+1+9”工作部署，加快推动粤港澳大湾区和深圳先行示范区建设，经济社会发展取得了明显成效。', '此次学习考察，既是为了增进友谊，又是为了学习先进的发展理念思路、工作作风、方式方法。取经，是代表团此行主要目的之一。', '发展是第一要务，人才是第一资源，创新是第一动力。实施创新驱动发展战略，以创新引领经济转型升级、提质增效，是深穗莞三座城市的显著特色。', '科技是国之利器，国家赖之以强，企业赖之以赢，人民生活赖之以好。聚焦科技创新及成果转化、开放平台建设等工作，代表团来到深圳福田区河套深港科技创新合作区、东莞松山湖材料实验室、广州科学城、广州实验室等地考察。在这些地方，发展浪潮滚滚、人才基础雄厚、企业创新活力迸发，“创新创业”成为发展之魂。他们谋划发展的世界眼光和战略思维，推进工作的市场理念和现代意识，锐意创新的力度之大和机制之活，让代表团一行深感震撼。“聚焦‘科技创新’去考察，是一次学习取经之旅。” 市科技局党组书记谢定强表示，通过实地感受改革前沿的先进理念，达到了解放思想、转变观念的目的。赣州科技创新要实现突破，必须在融入中接轨，在改革中优化，努力建设区域性创新高地。', '在深化改革开放过程中，当地依托科技实力实施创新驱动，丰富成果转化运用，让电子信息、生物医药、新能源汽车等产业成为优势与骄傲。代表团深入创维集团有限公司、华为终端总部、广州明珞汽车装备有限公司、金域医学检验集团有限公司等企业，细细探寻企业的成功理念。市工信局局长梁丁盛认为，政府服务意识强，创新环境就好；企业创新能力强，竞争力就强。要坚持创新驱动引领产业转型升级，推进人才链、产业链、创新链、资金链、政策链“五链融合”，加快形成具有创新引领力的产业引爆点。', '一路观览，一路风景。登上广州东塔（周大福金融中心），大家俯瞰珠江两岸，察看城市规划建设和生态保护情况，认真听取广州城市规划建设概要介绍。花城广场、海心沙亚运公园……塑造了大气雍容的城市会客厅。在广州，代表团看到城市处处是整洁的街道，道路绿化层次丰富， 绿地公园令人神往，都为广州发展的大手笔、大战略、大气魄感到兴奋。经济实力、城市规模不可复制，但“以人为本、宜居优先、城乡一体”的城市规划理念，加快转型升级、强化科技创新能力的科学发展之道，对于每个城市甚至县城乡镇都是必须的。大家表示，要认真学习借鉴广州的先进理念，促进城乡规划建设水平不断提升。', '白天看创新成果，晚上座谈交流。代表团还在广州召开座谈会，畅谈体会，相互启迪。启示多、收获大、不虚此行，成为代表团一行的共同感受。瑞金市委书记吴建平建议，要做到“情感融入，缩短心理距离；理念融入，缩短思想距离；交通融入，缩短时空距离；产业融入，缩短产研距离”，扎实做好全面对接融入文章，加快推动新时代赣南苏区振兴发展。', '连日来，代表团先后与广东省及深圳、东莞、广州三市领导进行了务实的交流座谈，并签署了深化战略合作及政务服务“跨省通办”、智慧城市建设、知识产权合作、人才合作等系列合作协议。加强交流合作，成为大家的共同心声。', '“希望广东省一如既往关心支持江西和赣州发展，支持赣州市深度参与粤港澳大湾区建设，在科技创新、产业发展、基础设施、双向开放、干部培养等领域深化合作，助推赣州打造对接融入粤港澳大湾区的桥头堡。”', '“进一步加强与革命老区交流合作，全力支持赣州高质量跨越式发展，推动新发展阶段粤赣合作再上新水平。”', '“对广东来说，你们要大大方方地来；对广州、深圳、东莞来讲，你们要大胆进行全面合作。”广东省委主要领导的一席话，无疑成为代表团此行的最大收获和惊喜。', '机遇千载难逢，机遇稍纵即逝。大家一致认为，要闻鸡起舞、只争朝夕，一天当两天用、两步并一步走，持续跟踪对接落实，把学习考察明确的事项项目化、清单化，争取早日落实到位。要紧盯不放意向投资项目，争取早日签约落地。', '市发改委主任卢述银表示，作为市打造对接融入粤港澳大湾区桥头堡领导小组办公室，市发改委将切实学习好、吸收好、转化好考察成果，抓住战略机遇，抓实三地合作，抓好营商环境，以更大频度、更大力度、更快速度主动融入大湾区，以交流合作推动打造对接融入粤港澳大湾区桥头堡取得更多实实在在的成效。', '考察期间，代表团还会见了宝能集团、北航投资集团、广东鸿艺集团等企业负责人，以及广州、深圳、东莞赣州商会代表，就有关合作事宜进行深入交谈。企业家们表示，今年赣深高铁将要开通，赣州区位、政策、资源等优势更加明显，有着广阔的发展空间和潜力。将进一步发挥自身优势，积极布局赣州，加大投资力度，同时把更多优秀人才、优秀企业引荐到赣州，为推动赣州高质量跨越式发展贡献智慧力量。', '市商务局局长吴忠浩认为，赣州与粤港澳大湾区的产业互补性强，具有承接产业转移的巨大优势。要按照市委、市政府部署要求，抓实抓细招商引资工作，认真谋划“粤企入赣”等活动，力争在电子信息、纺织服装、生物医药等产业领域引进一批好项目大项目。', '学习重在运用，贵在效果。“多出来走一走、看一看，对于拓宽视野、开阔思路、加强交流合作很有帮助。”兴国县委书记赖晓军告诉记者，将认真总结学习考察的成果，把所学所思运用到实践中去，变“老区”思维为“湾区”思维，更好地指导推动各项工作。', '世界上的事情都是干出来的，不干，半点马克思主义都没有。“干，才是最好的学习。”代表团成员纷纷表示，取真经、学真功，关键要学以致用。要干出解放思想的深度、转型升级的速度、优化环境的热度、狠抓落实的力度，奋力打造对接融入粤港澳大湾区桥头堡，推动赣州高质量跨越式发展。（记者 张宗兴）']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>124</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>赣州市党政考察团在福州学习考察</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2022-05-28</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/gzszf/c100024/202205/44e9a7fca21248c88a8cb85fdac12f4c.shtml</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['5月27日是我市党政考察团在福建省学习考察的第三天，吴忠琼率团来到此行的最后一站福州。', '5月27日，我市党政考察团在福州学习考察，现场感悟习近平在福州的创新理念与生动实践，学习借鉴福州市在城市建设管理、生态环境保护、历史文化街区保护与开发等方面的先进经验。其间，福建省委书记、省人大常委会主任尹力亲切会见了江西省委副书记、赣州市委书记吴忠琼率领的党政考察团一行。尹力对我市提出的加快推进两地高铁项目建设、推动“闽赣异步联网”工程等基础设施互联互通，以及产业发展互补互助、科技人才互动交流等合作事项表示支持。他指出，闽赣两地山水相连、文脉相通、人缘相亲，是情谊深厚的好邻居、优势互补的好伙伴，两地加强交流合作空间很大、前景广阔。希望两地常来常往，进一步推动两地交流合作，实现共赢发展。', '福建省委常委、福州市委书记林宝金，福州市委副书记、市长吴贤德，福州市领导张定锋、朱训志分别陪同。赣州市领导何琦、孙敏、陈水连参加活动。', '福州是习近平新时代中国特色社会主义思想的重要孕育地和先行实践地。走进福州城市规划展示馆，考察团一行参观了《习近平在福州的创新理念与生动实践》主题展，现场回顾了习近平同志为福州擘画的“3820”战略工程、闽江口金三角经济圈、海上福州、现代化国际城市等四大发展蓝图，重温了习近平同志在福州工作期间推进改革开放和现代化建设的重要理念和创新实践。', '吴忠琼说，习近平总书记在福州工作期间进行的一系列具有前瞻性、开创性、战略性的创新理念和重大实践，充分体现了人民领袖的高瞻远瞩、为民情怀、历史担当和务实作风，为我们留下了宝贵的思想财富、精神财富和实践成果。我们要自觉做习近平新时代中国特色社会主义思想的忠实践行者，传承红色基因、强化使命担当，乘势而上加快建设革命老区高质量发展示范区。步入福州城市规划建设展厅，考察团一行深入了解福州文化与福州规划，大家表示要学习借鉴福州市的好经验好做法，不断提升城乡规划建设水平。', '福州福道贯穿五大公园，实现了市中心景观与山野闲趣相融合，让市民在家门口尽享绿色福利。考察团一行来到福山郊野公园，登上福道实地了解城市绿道规划建设运营等情况。满眼景色秀美如画，人性化设计随处可见，大家边走边看，赞叹沿线设置的亲子游园、森林书吧、充电站等设施充分体现了“生态、便民、健身、休闲、共建、共享”的理念。大家切身感受到福州城市规划建设的大格局、大手笔、大力度，表示要认真学习借鉴福州的先进经验，规划建设山体郊野公园，让市民生活更精彩，让城市品质再提升，不断增强人民群众的获得感幸福感。', '三坊七巷历史文化街区是国内现存规模较大、保护较为完整的历史文化街区之一，基本保留着唐宋时期的坊巷格局，被誉为“里坊制度的活化石”。考察团一行走进街区，实地察看历史建筑、名人故居、特色展馆等，深入了解历史文化街区的保护与开发情况。行走在三坊七巷，穿越古今，大家深切感受习近平同志在福州任职期间力主保护文物古建的战略考量，为三坊七巷引入各类非遗及创新文化经济业态，实现“活化利用”点赞。大家表示，要认真学习借鉴福州高起点规划建设、高标准保护修复、高水平招商运营的好做法，立足自身文化禀赋，加快赣州宋城文化旅游核心区的打造，扎实推进我市历史文化街区保护开发各项工作，让千年宋城赣州彰显古城风貌，焕发时代新活力。', '考察团一行边考察边交流，边学习边思考，两天半的行程紧凑高效、感触很多、收获满满。大家认为，此次行程不仅是一次合作交流、招商引资之行，更是一次现场学习、切身感受习近平新时代中国特色社会主义思想在福建生动实践的修心之旅。大家纷纷表示，要更加深刻领悟习近平在福州的创新理念与生动实践所蕴含的思想精髓，深入学习贯彻习近平总书记视察江西和赣州重要讲话精神，认真学习福建干部群众爱拼敢赢精神，借鉴福建省改革发展的好经验好做法，以等不起的紧迫感、慢不得的危机感、坐不住的责任感，聚焦“作示范、勇争先”目标定位，深入实施“三大战略、八大行动”,努力把学习考察成果转化为加快推进革命老区高质量发展示范区建设的实际成效，以优异成绩迎接党的二十大胜利召开。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>124</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>会昌党政考察团到大余县学习考察</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2010-07-16</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c100902/201007/d0afed0f44da445c952575fa51d843e6.shtml</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['会昌党政考察团到大余县学习考察 7月15日，会昌县党政考察团在会昌县四套班子的带领下一行60余人，到大余县县调研该县开展违法用地和违规建房清理整治工作。 为严格保护和合理利用有限土地，狠刹违法用地，违法违规建房的歪风，会昌县组织了国土、城乡规划建设、公检法、监察、司法、房管、城管和文武坝镇主要领导、村支书、小组长，就有关用地、城建方面整治工作，进行参观考察。 考察团一行一到大余就马不停蹄地参观了该县南安镇新珠村、梅山村县城规划区内的两处依法强制拆除点。新珠村强拆点是该县人民政府牵头，组织国土、城乡规划、公安、镇政府对五户的违法违章建筑依法实施强制拆除，拆除面积960平方米；梅山村强拆点，是由县国土局在完成违法案件的调查取证后，依法申请县人民法院对非法占地的两层框架结构6间店面实施强制拆除，拆除面积500余平方米。 考察团参观现场后，进行了座谈，就当前两县的违法用地、违规建房方面突出问题的依法清理整治工作进行了深入探讨。考察团一致认为，本次考察对严厉打击会昌县违法用地和违规建房行为，有力促进县城经济社会又好又快发展，将取到很好的借鉴作用。 （大余县国土资源局 李东鸿）', '月15日，会昌县党政考察团在会昌县四套班子的带领下一行60余人，到大余县县调研该县开展违法用地和违规建房清理整治工作。', '为严格保护和合理利用有限土地，狠刹违法用地，违法违规建房的歪风，会昌县组织了国土、城乡规划建设、公检法、监察、司法、房管、城管和文武坝镇主要领导、村支书、小组长，就有关用地、城建方面整治工作，进行参观考察。', '考察团一行一到大余就马不停蹄地参观了该县南安镇新珠村、梅山村县城规划区内的两处依法强制拆除点。新珠村强拆点是该县人民政府牵头，组织国土、城乡规划、公安、镇政府对五户的违法违章建筑依法实施强制拆除，拆除面积960平方米；梅山村强拆点，是由县国土局在完成违法案件的调查取证后，依法申请县人民法院对非法占地的两层框架结构6间店面实施强制拆除，拆除面积500余平方米。', '考察团参观现场后，进行了座谈，就当前两县的违法用地、违规建房方面突出问题的依法清理整治工作进行了深入探讨。考察团一致认为，本次考察对严厉打击会昌县违法用地和违规建房行为，有力促进县城经济社会又好又快发展，将取到很好的借鉴作用。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>124</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>李炳军率赣州市党政代表团在杭州学习考察</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2019-08-29</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c102630/201908/ae4d3e3d3865478880680482ac87b0f5.shtml</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['8月19日下午，省委副书记、市委书记李炳军率赣州市党政代表团在杭州市行政服务中心考察。 特派记者刘凯 摄', '结束在宁波的学习考察后，8月19日上午，省委副书记、市委书记李炳军，市委副书记、市长曾文明率我市党政代表团奔赴杭州考察，学习杭州在推动产业发展、城市建设管理、深化改革等方面的经验做法，加强两地交流，推进赣杭合作发展迈出新步伐。浙江省委书记车俊会见代表团一行。浙江省委常委、省委秘书长陈金彪，副省长朱从玖参加会见。浙江省委常委、杭州市委书记周江勇，省委副秘书长李波，杭州市领导张仲灿、许明、戴建平陪同考察或座谈交流。江西省委办公厅正厅级督查专员李绪先，市领导李明生、高世文、邱建军、严水石、胡聚文、徐兵、蓝赟等参加考察。', '车俊对赣州市党政代表团来浙考察表示欢迎。他说，近年来，赣州市坚决贯彻落实习近平总书记对江西和赣州工作的重要指示精神，感恩奋进、攻坚克难，经济保持了快速发展的强劲势头，赣南大地发生了巨大的历史性变化。我们为赣南的发展感到非常高兴，江西和赣州有许多经验做法值得浙江学习。浙江是中国革命红船的起航地、改革开放的先行地，也是习近平新时代中国特色社会主义思想的重要萌发地。浙江与江西山相依、水相逢、人相亲，合作交流十分紧密。赣州是全国著名的革命老区，为中国革命作出了重大贡献和巨大牺牲。支持赣南革命老区高质量发展，是我们的责任和义务。浙江将充分发挥浙商多、市场活等优势，积极响应赣州提出的有关事项。希望两地加强合作交流，共同推动浙江和江西特别是赣州产业合作、经贸往来、文化交流，努力实现共赢发展。', '李炳军对浙江和杭州长期以来给予江西和赣州的大力支持帮助表示感谢。他说，近年来，浙江省深入落实习近平总书记对浙江工作的重要指示，围绕“八八战略”再深化、改革开放再出发，全面推动经济高质量发展，各项事业发展取得令人瞩目的成就。习近平总书记一直关心赣南的发展，总书记关于“在加快革命老区高质量发展上作示范”的重要要求，为赣州发展标定了新的历史方位，赣州发展迎来了关键转折。浙江和杭州一直是改革开放的排头兵，创造了很多好的经验做法。我们前来虚心求教、学习取经，希望浙江、杭州在产业发展、科技平台建设、数字经济发展、人才培养等方面给予更多帮助和支持。诚挚邀请浙江和杭州的各位领导来赣州考察指导、传经送宝。', '周江勇介绍了杭州经济社会发展情况。他说，杭州是历史文化名城、生态文明之都、创新活力之城、东方品质之城。作为省会城市，当前，杭州正高举习近平新时代中国特色社会主义思想伟大旗帜，加快建设独特韵味别样精彩世界名城，打造展示新时代中国特色社会主义的重要窗口，努力当好“八八战略”再深化、改革开放再出发的排头兵。近年来，赣州在习近平新时代中国特色社会主义思想指引下，大力传承红色基因，扎实推进老区建设，经济发展态势非常好，社会和谐稳定，许多好经验好做法值得杭州学习借鉴。赣州和杭州人文相通，合作前景广阔，希望两地相互学习借鉴，加强合作交流，实现互利共赢。', '当日下午，代表团一行还来到杭州市民中心，考察集市民之家、行政服务中心、公共资源交易中心“三位一体”的综合性政府公共服务平台，详细了解浙江“最多跑一次”改革等情况，饶有兴致地观摩了“掌上办”“网上办”相关演示。杭州不少审批事项“一次都不用跑”，用“数据跑路”代替“群众企业跑腿”，深受群众和企业欢迎，大家由衷点赞。大家表示，要进一步解放思想、更新观念，认真学习借鉴杭州的经验做法，加大“放管服”改革力度，努力打造“四最”营商环境，更好促进民营经济发展。在杭州国际博览中心，代表团一行参观了2016年G20峰会主会场，了解场馆运营和会展经济发展情况。阿里巴巴已成为杭州的标志，走进滨江园区，代表团一行听取了电商发展、数字经济、智慧城市管理等情况介绍，了解企业在赣州开展业务情况，并与相关负责人座谈，希望在推进产业发展、数字经济人才培养等方面加强合作，助力赣州加快建设革命老区高质量发展示范区。', '当晚，代表团一行来到钱江新城城市阳台，考察城市亮化工程，详细了解城市扩容、市区一体化融合发展等方面的成效。李炳军等还与杭州赣州商会企业、乡贤及人才代表座谈交流，听取大家对赣州高质量发展的意见建议。20日，代表团一行将前往湖州市学习考察。（特派记者 张宗兴）']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>124</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>市国资系统赴深圳学习考察智慧党建工作</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2019-05-10</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449gq/201905/758a5a1bd9ab4b03bb361c17963c1c7a.shtml</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['5月6日至8日，市国资系统赴深圳学习考察“智慧党建”工作。市国资委党委委员、副主任黄晓东，市国投集团党委副书记罗红发，以及市国投集团党群工作部负责同志、市国锦房地产开发公司党支部书记黄琴等参加学习考察。', '通过学习，大家深切感受到了“智慧党建”平台给深圳党建工作带来的便利和增添的靓丽色彩，为我市国资系统推进党建工作及“智慧党建”平台建设开阔了视野']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>124</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>县住建局到上犹县自来水公司学习考察用水营商环境工作</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2023-11-08</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c100358/202311/0c0a51dd7f87413f8cc59e829208afa4.shtml</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['为做好我县用水营商环境工作，学习其他县好的经验和做法，近日，由县住建局带队，会同县章江供水公司相关业务人员到上犹县自来水公司学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>124</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>赣州市党政考察团今起赴闽学习考察吴忠琼率团</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2022-05-26</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c102438/202205/3f0695f3bc304353914b56b2fe203b4a.shtml</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['5月25日，省委副书记、市委书记吴忠琼率领赣州市党政考察团，启程赴福建省厦门、泉州、福州三市开展为期3天的学习考察。', '此次考察团赴闽，将重点参观考察厦门、泉州、福州三市的工业项目、城市建设和管理项目等，实地感受福建各地高质量跨越式发展的蓬勃态势，学习借鉴福建省经济社会发展特别是在改革开放、产业发展等方面的先进理念、经验和做法，加强赣闽两地交流合作，并开展招商引资。（记者张宗兴）']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>124</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>龙南市文广新旅局开展外出学习考察工作</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2021-03-31</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.jxln.gov.cn/lnzf/ldxx/202103/fe1582ea8cf248908b1e66095cdc5543.shtml</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['旨在结合工作实际与当地干部面对面交流，吸取兄弟县市文化旅游发展工作经验，对标先进、开阔眼界、寻找差距，提升工作能力。', '考察结束后，学习考察团成员纷纷表示，此次参观学习对旅游产业、文化产业、文化事业等工作有了更深入的了解，也看到了“差距”，明晰了“路径”，增强了“动力”，并表示将认真学习借鉴兄弟县市的先进经验，取长补短，提升文旅工作水平。', '考察结束后，学习考察团成员纷纷表示，此次参观学习对旅游产业、文化产业、文化事业等工作有了更深入的了解，也看到了']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>124</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>曹爱珍率党政考察团赴上饶等地学习考察</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2018-03-01</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c100168/201803/a4cbd8ef627d4139bae23c4939e1e997.shtml</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['习近平在中共中央政治局第十五次集体学习时强调：贯彻落实新时代党的建设总要求 进一步健全全面从严治党体系', '全国科技大会 国家科学技术奖励大会 两院院士大会在京召开 习近平为国家最高科学技术奖获得者等颁奖并发表重要讲话', '中共中央政治局召开会议 审议《新时代推动中部地区加快崛起的若干政策措施》《防范化解金融风险问责规定（试行）》 中共中央总书记习近平主持会议', '余府办字〔2024〕3字大余县人民政府办公室关于印发大余县“5+2就业之家“建设方案的通知', '余府办字〔2023〕29字大余县人民政府办公室关于印发大余县推动油茶产业商质量发展三年行动方案的通知', '余府发〔2021〕3号关于印发大余县国民经济和社会发展第十四个五年规划和二〇三五年远景目标纲要的通知', '赣州市南康区环宇招标代理有限公司关于江西省大余县卫生健康委员会大余县中医院建设项目强电设备项目（项目编号：NKHY2024-DY-C003）的电子化竞争性磋商公告', '江西省银兴项目咨询管理有限公司关于江西省大余县城市管理局大余县城区部分绿地升级改造项目（项目编号：JXYX2024-DY-C007）竞争性磋商的成交结果公告', '江西杰雲咨询有限公司关于江西省赣州大余县卫生健康委员会大余县中医院建设项目设备采购（康复科设备项目）（项目编号：JXJY2024-DY-G001）的电子化公开招标公告', '九鼎赣饶国际项目管理有限公司关于大余县民政局采购政府购买基层社会工作服务项目（项目编号：JDGR2024-DY-C007）的竞争性磋商结果公告']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>124</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>龙南赴湖南省汝城等地学习考察</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2012-03-23</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://dag.ganzhou.gov.cn/gzdaj/c102004/201203/e0f672dd506a4219a297e0bbc506b77f.shtml</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['3月7日—8日，龙南县档案局局长涂上湖一行3人，到湖南省汝城县档案局（馆）、我市崇义县、定南县档案局（馆）学习考察。考察组一行重点考察了各档案馆标准化建设以及档案规范化管理、档案信息数字化利用等方面的做法。通过这次考察达到开阔眼界、增进友谊、互相学习和交流经验的目的，同时为我县档案馆新馆的建设提供可参考的经验。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>124</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>重庆市农产品集团陈永俊一行到我市学习考察</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2021-04-09</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.yudu.gov.cn/ydxxxgk/c100264k/202104/395dc436fea74bc788b4ea968b197a83.shtml</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['近日，重庆市农产品集团董事长、总经理陈永俊一行到我市学习考察赣南脐橙种植、加工、检测、流通、仓储、品牌建设和农民合作社发展等经验，赣州市供销联社二级调研员廖德军，赣州市果业局四级调研员、市场信息科科长廖春平参加座谈会。', '陈永俊一行实地考察了信丰县江西农夫山泉工厂和安远县橙中城项目等，表示赣南脐橙政府高度重视、精心打造，产业链完备，品牌效益大，一路学习考察收获很多，并希望与我市相关部门加强沟通联系，强化合作力度。', '廖德军分别从赣南脐橙的种植历史、发展过程、品牌建设、流通体系建设、合作社发展等五个方面介绍了工作做法和成效。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>124</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>收获满满章贡区考察团赴兄弟县区学习考察</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2022-01-28</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>https://www.zgq.gov.cn/zgqzf/jryd/202201/3c2c593639144d839d34dc1062cc4719.shtml</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['为借鉴兄弟县（区）工业倍增升级、招大引强、科技创新赋能等工作的先进经验、做法，1月25日-26日，区委副书记刘诗河率队前往南康区、赣州经开区、赣县区、信丰县、全南县学习考察。区领导邱瑛参加考察。', '在南康区，考察团一行先后考察了美克数创（赣州）家居智造基地项目、格力电器（赣州）有限公司智能制造基地项目。', '在信丰县，考察了江西省瑞烜新材料有限公司项目，信丰金信诺安泰诺高新技术有限公司项目。', '一天半时间，马不停蹄、争分夺秒。考察团一行带着问题学、带着思考学，在对比中找准差距，在交流中探讨新思路。', '每到一处，考察团一行都认真听取项目负责人介绍情况，与兄弟县（区）领导和企业负责人进行沟通交流，详细了解项目的规划、建设、生产等情况，认真学习兄弟县市区招大引强、项目建设、企业培育、产业发展、园区管理等方面的先进经验、做法。', '考察团认为，兄弟县（区）经济社会发展的目标定位准、发展速度快，令人耳目一新，颇受启发。通过学习考察，进一步解放了思想，开阔了视野，找到了差距，凝聚了力量，激发了干劲，增强了干事创业的信心和决心。大家纷纷表示，要以此次学习考察为动力，认真吸收转化学习成果，找准差距、主动加压，坚定信心、鼓足干劲，围绕既定任务目标，不折不扣地抓提速、抓推进、抓落实，奋力推动章贡区经济社会高发展再上台阶。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>124</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>寻乌县考察团一行来我县学习考察</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2017-10-19</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c102598/201710/dd04f87764234b16b20e0f3c2b74e708.shtml</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['10月10-11日，寻乌县委常委、统战部部长张翠梅带领现代农业攻坚战考察团深入我县学习考察。考察团一行在我县现代农业攻坚战领导小组领导及相关单位、乡镇主要负责人陪同下，先后实地参观了黄龙镇大龙山乡村旅游扶贫点、美丽乡村青龙镇元龙畲族村建设点、新城镇鹭溪农场蔬菜基地等，通过考察学习，促进了两县的交流合作。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>124</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>市发改委前往瑞金市学习考察争资争项有关工作</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2020-07-31</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.jxln.gov.cn/lnzf/c104541/202007/574650be907243e19a584833122f687e.shtml</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['月25日龙南市正式挂牌成立，为进一步做好龙南撤县设市的争资争项有关工作，市发改委积极组织业务人员前往瑞金市学习考察争资争项有关工作。通过此次学习考察，学习了兄弟县市的争资争项工作经验，详细了解了撤县设市后争资争项工作的变化，进一步提高了我委争资争项能力。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>124</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>江西省党政代表团在上海安徽学习考察</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2021-04-14</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.yudu.gov.cn/ydxxxgk/c100264csdt/202104/abb62c64f86e439e88cdc7566bb23193.shtml</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['4月12日至13日，江西省党政代表团在上海、安徽学习考察，深入学习两地发展的成功经验，共商高质量合作发展大计。 省领导刘奇、易炼红、叶建春、施小琳、吴忠琼、胡世忠、吴浩、陈俊卿参加学习考察。 怀着无比崇敬的心情，刘奇、易炼红等来到中共“一大”会址纪念馆瞻仰，在文物展陈前驻足，认真倾听历史讲解，大家又一次深切感悟党的初心和使命。刘奇指出，上海是我们党的“产床”，江西是中国革命、人民军队和人民共和国的“摇篮”。我们来到上海追根溯源，就是要扎实开展党史学习教育，始终牢记党的初心和使命，学好百年党史、传承红色基因、凝聚奋进力量，切实做到学史明理、学史增信、学史崇德、学史力行，努力推动党史学习教育务求实效、走在前列，在全面建设社会主义现代化新征程上披坚执锐、勇立新功。 聚焦聚力国际经济、金融、贸易、航运、科技创新“五个中心”建设，上海发展呈现出勃勃生机。中国商飞上海飞机制造公司以5G+智能制造打造全球首个5G工业园区，不但实现了生产流程的创新，还重构了产业思维、创新生态。刘奇、易炼红等体验了商飞大脑的强大功能，来到生产车间，现场观摩数字化生产线的精准高效。他们指出，5G时代带来的是技术革命、产业革命，更是思维革命，我们要紧紧抓住5G发展的机遇，强化基站建设，创新场景应用，形成智力成果，不断提升数字经济发展水平，推进传统产业智能改造。拼多多作为电商的黑马，依靠模式创新，从巨头中杀出重围，走出一条富有特色自主发展之路。商汤科技公司、上药信谊药厂公司围绕产业链部署创新链，围绕创新链布局产业链，推动产业不断发展升级，来到这两家公司，刘奇、易炼红等详细了解创新模式，询问创新成效，他们强调，要持续推动产业链、供应链、创新链、价值链的深度融合，持续以创新之力推动优势产业发展。 安徽着眼于建设科技创新策源地，积极打造系列创新平台，区域创新能力连续8年居全国第一方阵。在安徽创新馆，刘奇、易炼红等现场观摩了一件件创新成果，了解科技创新背后的体制机制创新。他们指出，要紧紧抓住体制机制这个关键，打通政府、金融、产业、市场、科研机构等产学研用各个环节的转化通道，充分调动各方积极性，迸发创新的动力和活力。随后，代表团成员参观了江淮蔚来先进制造基地、荃银高科种业股份公司、科大讯飞股份公司等企业，深入学习安徽创新的好经验好做法，他们说，长三角创新发展的经验启示我们，必须切实增强实施科技强省战略的责任感使命感，进一步解放思想，持续在体制机制创新、科技平台打造、人才培养引进等方面取得新突破，更好地发挥创新在发展中的引领作用。要强化与长三角地区科研合作平台建设，联合争取国家重大专项、实施科技攻关，深化产学研用协同创新，通过靠大联强提升江西创新能力。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>124</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>赣州市统计局组织赴广东福建等地学习考察</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2012-12-10</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449d/201212/f809e8ed82574553af7d793d651f00dd.shtml</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['进一步提高全市统计服务水平，11月14日至19日，赣州市统计局温德友副局长带队组织赴广东韶关、河源、汕头、梅州和福建三明等五市进行了学习考察。', '通过与韶关、河源、汕头、梅州、三明等市统计局综合科及分管领导的座谈交流，考察组认真学习了当地综合统计工作经验，国民经济核算的主要做法，服务当地党政的主要措施，并就定期为赣州交流提供主要经济指标数据达成了共识，与相关市的数据交流制度进一步得到了完善。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>124</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>虎年第一课沙石镇人大组织外出学习考察</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2022-02-13</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>https://www.zgq.gov.cn/zgqzf/c116654/202202/0f087f56cc4f402bb3af98387e464169.shtml</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['为进一步提升人大代表的履职能力，更好的助力乡村振兴，2月11日，沙石镇人大组织镇域范围内区、镇两级人大代表40余人赴南外街道、水东镇、沙河镇、章江高新区等地开展学习考察。', '期间，代表们结合实际，聚焦基层党建、乡村治理、村集体经济发展、乡村旅游等方面，先后来到南外街道红杉里街区、水东镇马祖岩人文公园和七鲤古镇、沙河镇流坑村、章江高新区佳腾电业开展实地调研。每到一处，代表们都与当地干部、群众进行深入交流，仔细看、认真听、详细问。', '学习考察结束后，代表们纷纷表示，通过此次学习，进一步明晰了发展思路，开阔了工作视野，增强了跨越赶超的思想意识，下一步沙石镇人大将充分借鉴别人的成功经验，发挥好基层人大代表的模范带头作用，为我镇经济社会发展贡献人大代表的力量。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>124</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>蒋斌赴广东学习考察技工教育工作</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2023-12-19</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.ganxian.gov.cn/gxqxxgk/c111257/202312/211858bfe36d41f6919908c4a3d1eea6.shtml</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['11月22日至23日，省人社厅党组书记、厅长蒋斌在广东省考察技工教育工作，学习技工院校建设、办学模式、教学方式等先进理念和办学经验，进一步解放思想、拓宽视野，推动江西技工教育高质量发展。', '技术（中国）国际学院、世赛数控铣中国集训基地等，与广东省人社厅、广东省机械技师学院等负责同志进行了座谈交流，详细了解广东省技工院校管理体制、院校资源整合等情况，并与世赛冠军、国务院特殊津贴获得者、全国人大代表杨登辉亲切交流。', '在深圳技师学院，参观了新能源与智能网联实训基地、电子设计联合实验室、中德智造学院西门子国际机电工程师认证中心、工业控制工坊等，详细了解学校发展历程、校园建设、办学模式、经费投入、专业设置、毕业生就业等情况。', '在佛山市技师学院，参观了智能制造实训工厂、厨艺学院、南粤家政护理学院等，深入了解学校产教融合、校企合作、教学工厂、职业技能培训等情况。', '蒋斌在考察中表示，广东省既是经济大省，也是技工教育强省，要充分学习广东省技工教育工作先进经验，聚焦“走在前、勇争先、善作为”目标要求，紧紧围绕江西省委十五届四次全会提出的打造“三大高地”、实施“五大战略”，加快推动江西技工教育改革发展，为奋力谱写中国式现代化江西篇章提供强大技能人才支撑。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>124</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>赣州市供销联社赴粤港澳大湾区学习考察</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2018-09-30</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449np/202011/60527bd7aafc46378b876864a78ee95e.shtml</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['9月26日至28日，为学习借鉴粤港澳大湾区供销合作社发展经验，在打造对接融入粤港澳大湾区桥头堡进程中贡献供销力量，赣州市供销联社党组书记、主任罗红梅带队赴广州、珠海、惠州三地供销合作社开展对接粤港澳大湾区学习考察，党组成员、监事会主任刘芃成，三级调研员廖德军、王文杰，机关相关科室负责人，章贡区、大余县、定南县、信丰县供销社主任参加了学习考察活动。', '26日，考察组到珠海市供销合作社，参观考察了珠海市供销社百分百商业有限公司、珠海市供销社社员资金互助中心、三灶镇供销社助农服务中心,学习日用消费品经营、合作金融和助农服务中心建设经验。', '27日，考察组到广州市供销合作社，参观考察了广州市农产品公司小鲜驿站门店、如意果品批发市场，学习农产品批发市场运营和农产品流通经验。', '28日，考察组到惠州市，参观考察了粤港澳大湾区（广东·惠州）绿色农产品生产供应基地、博罗县供销社助农服务综合平台、博罗县为民光华农产品专业合作社，学习农产品基地建设、助农服务综合平台和农产品生产加工经验。', '考察组每到一处，都认真学习，深入思考，并积极主动与对方进行沟通，增进了解，争取支持，促进合作。广州、珠海、惠州供销合作社对考察组一行予以了热情接待，周到安排。考察组与广州、珠海、惠州供销合作社分别进行了座谈，一致认为，赣州与广东山水相连、人文相通，合作空间很大，大湾区是赣州优质农产品的理想销售目的地，赣州是大湾区的休闲度假旅游后花园，双方应进一步密切沟通交流，并初步就大米供销和专业合作社产品销售达成了合作意向。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>124</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>龙南二中赴实验中学学习考察</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2010-10-14</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.jxln.gov.cn/lnxxxgk/c100291/201010/bf0696bbd48746198a4b44d8c690dd0e.shtml</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['10月10日，龙南二中全体行政人员和部分教师在二中廖月胜校长的带领下到实验中学学习考察。考察组首先观摩了校园环境、教学设备。接着与实验中学的领导和教师代表座谈，在座谈中，双方对学校运作、管理、教学等进行了经验交流。最后按学科对口听课、评课，并与实验中学教师交流了教学经验。（廖家芳 王向贤）', '。考察组首先观摩了校园环境、教学设备。接着与实验中学的领导和教师代表座谈，在座谈中，双方对学校运作、管理、教学等进行了经验交流。最后按学科对口听课、评课，并与实验中学教师交流了教学经验。（廖家芳 王向贤）']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>124</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>我县赴信丰定南学习考察高标准农田建设</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2018-03-01</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c100168/201803/6e5964f4d4714fe99f877320b4c8a75d.shtml</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['为学习借鉴兄弟县市高标准农田建设好的经验和做法，认真做好我县2018年高标准农田建设项目启动工作，2月27日，我县前往信丰、定南学习考察高标准农田建设。考察组一行认真听取了信丰、定南两县高标准农田建设工作有关情况介绍，就各自运作模式和遇到的一些突出问题进行了深入交流探讨，并实地观摩了信丰县、定南县6个标段项目建设情况。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>124</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>华晓斌一行赴广州市开展养老产业招商并学习考察广州民政工作</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://mzw.ganzhou.gov.cn/gzsmzjy/tzgg/202302/cb3497fd596145a0b9145ede81852adf.shtml</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['为加快对接融入粤港澳大湾区，2月16日至18日，由市民政局党组书记、局长华晓斌带队，市民政局党组成员、副局长康仁禄，章贡区、信丰县、于都县民政局主要负责同志等一行赴广州市开展养老产业招商并学习考察广州民政工作。', '考察组一行与广州市民政局相关领导就民政工作进行座谈交流，并先后来到广州市越秀区北京街社工服务站、北京街综合养老服务中心（颐康中心）、广州市社区居家养老服务综合示范平台、天河区天河南街颐康中心、越秀康养集团等服务机构、企业进行实地学习考察。', '华晓斌强调，要强化融湾思维，认真学习借鉴广州市在社会工作、养老服务、福利彩票销售等方面好的经验做法，特别是在养老服务信息化建设、支持政策、社会工作资源整合、福利彩票销售方式等方面，要打破固有模式，进一步解放思想，结合我市实际，不断开拓创新。要加大在养老服务等民生领域等方面的投入，进一步优化营商环境，引进国内知名专业养老服务企业落地赣州，加快推进我市养老服务高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>124</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>我县党政考察团在龙南信丰两地学习考察</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c101638/202302/adb533ec4f5c4e1e9a50159e9334be6a.shtml</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['上午，党政考察团一行来到龙南福鑫钢铁有限公司项目参观考察，该项目总投资12亿元人民币，占地面积400多亩，现有职工650多人，是赣南地区唯一一家集炼钢、轧钢为一体的钢铁企业。企业现有50吨电弧炉和50吨LF炉各两套，引进民营钢铁企业最先进生产线。2021年度主营业务收入73.93亿元，纳税6亿元。', '详细了解了公司的成长、发展、壮大史后，考察团一行纷纷表示，福鑫钢铁公司解放思想，抢抓机遇，敢闯敢干，在多次重要转折中取得胜利，其经历和发展理念值得借鉴。', '随后，在信丰县委书记袁炎，县委副书记、县政府县长张琳等陪同下，曾志平等考察团一行参观考察了信丰县大族数控科技股份有限公司年产研发制造6000套数控装备制造项目、中科微至科技股份有限公司（华南）制造中心年产5万台智能装备项目。', '大家走进产品展厅、生产车间，听取企业文化、发展历程介绍，了解公司在发展期遇到的难题及破题解题方法，与企业负责人就提升产品竞争力、培育核心技术、培养专业人才等进行深入交流，与政务人员探讨助力企业破解难题、高质量发展的经验做法。', '两天半的时间，我县党政考察团马不停蹄奔赴7个县（区），学习考察了16个项目，涉及城市能级提升、工业倍增升级、乡村全面振兴等各方面工作。每到一处，考察团成员都认真看、深入问，汲取吸收兄弟县（市、区）“项目大会战”重点工程项目建设、推进等方面的先进经验。大家纷纷表示，要积极发扬“走出去、带回来、用起来”的理念，把外出学习看到学到的新经验新方法加以梳理、总结、创新，在工作实践中化为己用，为建设更高层次实力活力美丽幸福大余、加快全面建设社会主义现代化大余而努力奋斗。', '县委副书记彭钢，县领导王加卿、黄中华、叶永恒、陈亮等，以及各乡镇（城市社区）党（工）委书记和相关部门单位主要负责人参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>124</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>新疆阿克陶县爱国宗教人士到我市学习考察</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2015-09-18</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://mzj.ganzhou.gov.cn/gzsmzzj/c103089/201509/c28e3ee777ed401a8949fde25b3ee422.shtml</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['-14日，新疆阿克陶县爱国宗教人士学习考察班一行共16人（含省民宗局陪同人员）到赣州市中心城区及于都县学习考察。学习考察班一行在我市中心城区先后参观了市博物馆、郁孤台、宋城墙、八境台、清真寺等，增加了对我市历史文化、发展现状、宗教场所的了解；在于都县参观了工业园区赢家服饰公司、格特拉克公司、贡江新区城展馆、体育中心、长征第一渡纪念园、岭背金溪农业产业化基地等，见证体会了千年古县于都的红色历史、发展成果。', '学习考察班一行此次在我市接受爱国主义和革命传统教育，参观考察我市振兴发展成果，加强了我市与新疆阿克陶县宗教界人士的友好交流，有利于增进民族团结，维护社会稳定，加快社会发展。', '省民宗局副巡视员宋亚平，市政府办公厅（市民宗局）副主任（副局长）尹林春以及章贡区、于都县有关领导陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>124</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>宜春市人大考察团到我县学习考察</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2017-12-04</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.shicheng.gov.cn/scxzf/c104798/201712/2d7b687eea154dc9a042074a5ab0bbb8.shtml</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['近日，宜春市人大常委会副主任刘平率宜春市人大考察团到我县学习考察。县委书记鲍峰庭，县人大常委会主任陪同。', '考察团一行先后来到花海温泉、通天寨景区、颐高电商产业园、琴江镇长乐大数据农旅一体化扶贫产业园等地，实地了解我县旅游产业发展情况。', '考察团认为，我县推进旅游强县建设措施有力、成效明显，非常值得学习借鉴。考察团表示，要学习石城对旅游包装策划的思路，抓好旅游业态打造，对外积极宣传旅游，力争通过对景点打造提升宜春旅游知名度。要借鉴石城全域旅游发展理念，借助当前江西推进旅游产业发展的良好机遇，重点打造知名旅游景点，乘势而上推动宜春旅游业发展。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>124</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>赣州市林业局赴抚州市学习考察林业工作</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2021-11-15</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.yudu.gov.cn/ydxxxgk/c100263db/202111/4d96308d53024646a6f2356705da85e1.shtml</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['11月2日至3日，赣州市林业局考察组前往抚州市学习考察“两山”银行建设、林业碳汇交易、林长制、竹产业发展等林业工作。', '考察组与抚州市林业局座谈交流。抚州市林业局主要负责人就林业碳汇交易、“两山”银行建设、林长制等工作做了交流介绍。抚州市积极推进林业改革创新，出台了《抚州市远期林业碳汇备案登记暂行办法》，由抚州市农发投公司开展碳汇收储及交易，并于10月21日完成林业碳汇交易首单签约，为实现森林生态产品价值市场变现探索了一条重要路径。', '在抚州市数字融媒体中心，考察组参观抚州市林长制大数据综合展示平台。抚州市通过打造林长制大数据综合展示平台，加强了专职护林员队伍的履职智慧管理，细化了专职护林员的履职监管，对护林员履职到位情况精准查询，建立了每季度专职护林员履职考核通报工作机制，进一步强化了专职护林员巡护考核奖惩。', '在资溪县“两山”银行服务中心，考察组详细了解“两山”银行运行机制和模式。资溪县先行先试，创新推进“两山”银行建设，创立了“两山”银行运行机制和模式，开展林权代偿收储担保，设立集体林权收储管理平台，将毛竹林林地、松材线虫病害林地收储，并与林业经营和造林项目结合起来，推动了营造林、竹产业、松材线虫病防控等林业工作。同时盘活森林资源，推动了森林资产流动，打通了“两山”转换的通道。', '考察组参观资溪现代竹产业科技园，了解资溪县竹产业发展和竹制品加工生产情况。资溪县立足自身资源，大力发展竹产业，引进国家级竹加工龙头企业，结合“两山”银行，盘活竹产业资源，竹产业已成为资溪县三大支柱产业之一。', '考察组在乐安县牛田镇参观新造油茶种植基地。乐安县结合国有林场场外造林，采用“国有林场+造林大户”模式发展油茶产业，激发了发展油茶的积极性。', '考察组认为，要认真学习抚州市林业创新的先进经验，结合赣州林业实际，加大、加快赣州市林业改革创新步伐，做好林业碳汇交易工作试点，破好林业碳汇交易题目；借鉴资溪“两山”银行运行机制，盘活赣州市森林资源，推动“两山”银行建设；将松材线虫病除治与林业造林项目有机结合，走出低质低效林改造的新路子；完善赣州市林业局林长制智慧平台，加大对护林队伍的考核管理；引进国家级龙头竹加工企业，加强竹产业科技创新，激活竹产业发展活力。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>124</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>韩相云率大余县考察团一行在我县学习考察</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2021-10-19</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/gzszf/c100025/202110/c3241b4271ae4ad1883e1632b31a0ac5.shtml</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['赣州市林业发展服务中心召开2024年中央财政林业科技推广示范项目启动暨“三华”油茶栽培技术培训会', '习近平在中共中央政治局第十五次集体学习时强调：贯彻落实新时代党的建设总要求 进一步健全全面从严治党体系', '全国科技大会 国家科学技术奖励大会 两院院士大会在京召开 习近平为国家最高科学技术奖获得者等颁奖并发表重要讲话', '习近平在青海考察时强调：持续推进青藏高原生态保护和高质量发展 奋力谱写中国式现代化青海篇章', '习近平主持召开中央全面深化改革委员会第五次会议强调 完善中国特色现代企业制度 建设具有全球竞争力的科技创新开放环境', '中共中央政治局召开会议 审议《新时代推动中部地区加快崛起的若干政策措施》《防范化解金融风险问责规定（试行）》 中共中央总书记习近平主持会议']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>124</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>江西省党政代表团在上海安徽学习考察</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2021-04-16</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.xingguo.gov.cn/xgxxxgk/xg9529/202104/95aa918623aa4e819b99cfbea911c871.shtml</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['4月12日至13日，江西省党政代表团在上海、安徽学习考察，深入学习两地发展的成功经验，共商高质量合作发展大计。', '怀着无比崇敬的心情，刘奇、易炼红等来到中共“一大”会址纪念馆瞻仰，在文物展陈前驻足，认真倾听历史讲解，大家又一次深切感悟党的初心和使命。刘奇指出，上海是我们党的“产床”，江西是中国革命、人民军队和人民共和国的“摇篮”。我们来到上海追根溯源，就是要扎实开展党史学习教育，始终牢记党的初心和使命，学好百年党史、传承红色基因、凝聚奋进力量，切实做到学史明理、学史增信、学史崇德、学史力行，努力推动党史学习教育务求实效、走在前列，在全面建设社会主义现代化新征程上披坚执锐、勇立新功。', '聚焦聚力国际经济、金融、贸易、航运、科技创新“五个中心”建设，上海发展呈现出勃勃生机。中国商飞上海飞机制造公司以5G+智能制造打造全球首个5G工业园区，不但实现了生产流程的创新，还重构了产业思维、创新生态。刘奇、易炼红等体验了商飞大脑的强大功能，来到生产车间，现场观摩数字化生产线的精准高效。他们指出，5G时代带来的是技术革命、产业革命，更是思维革命，我们要紧紧抓住5G发展的机遇，强化基站建设，创新场景应用，形成智力成果，不断提升数字经济发展水平，推进传统产业智能改造。拼多多作为电商的黑马，依靠模式创新，从巨头中杀出重围，走出一条富于特色自主发展之路。商汤科技公司、上药信谊药厂公司围绕产业链部署创新链，围绕创新链布局产业链，推动产业不断发展升级，来到这两家公司，刘奇、易炼红等详细了解创新模式，询问创新成效，他们强调，要持续推动产业链、供应链、创新链、价值链的深度融合，持续以创新之力推动优势产业发展。', '安徽着眼于建设科技创新策源地，积极打造系列创新平台，区域创新能力连续8年居全国第一方阵。在安徽创新馆，刘奇、易炼红等现场观摩了一件件创新成果，了解科技创新背后的体制机制创新。他们指出，要紧紧抓住体制机制这个关键，打通政府、金融、产业、市场、科研机构等产学研用各个环节的转化通道，充分调动各方积极性，迸发创新的动力和活力。随后，代表团成员参观了江淮蔚来先进制造基地、荃银高科种业股份公司、科大讯飞股份公司等企业，深入学习安徽创新的好经验好做法，他们说，长三角创新发展的经验启示我们，必须切实增强实施科技强省战略的责任感使命感，进一步解放思想，持续在体制机制创新、科技平台打造、人才培养引进等方面取得新突破，更好地发挥创新在发展中的引领作用。要强化与长三角地区科研合作平台建设，联合争取国家重大专项、实施科技攻关，深化产学研用协同创新，通过靠大联强提升江西创新能力。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>124</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>学习借鉴先进经验大力推进农业产业化梁桂率队赴河南江苏学习考察</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2023-03-16</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.ganxian.gov.cn/gxqxxgk/c110980/202303/1b71ab01c38345e8bda400be8006bd0e.shtml</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['学习借鉴先进经验 大力推进农业产业化梁桂率队赴河南江苏学习考察 | 赣县区信息公开', '3月10日至14日，省委常委梁桂、副省长卢小青率队赴河南、江苏学习考察农业产业化工作。', '河南省领导周霁、杨青玖、刘尚进，江苏省领导邓修明、韩立明、张宝娟、王晖陪同考察或出席相关活动。', '考察组一行在河南、江苏考察了农业产业科创机构和农产品精深加工企业，并召开学习考察情况交流座谈会。梁桂指出，推进农业产业化发展，前景广阔、时不我待。要认真贯彻落实省委农村工作会议精神和省委一号文件要求，充分学习借鉴河南、江苏等地农业产业化发展经验，增强坐不住的责任感、等不起的紧迫感，把学习成果转化为推动农业农村现代化、加快建设农业强省的发展思路、工作举措和实际成效，确保农业产业化“头雁引航 雏鹰振飞”行动取得扎实成效。要坚持以市场为导向，以企业为主体，树立全产业链的观念，推动由卖原料转向卖产品。要抓紧梳理重点产业，在企业引入、人才培养、品牌建设等方面精准开展对接合作。要着力提高农产品复购指数，创新粮经轮作模式，推动农业高质高效发展。', '卢小青指出，要聚焦行动再深化，把好的模式用起来，实的举措学过来。要聚焦“引航”再落实，全方位做好招商引资“后半篇文章”，全程化做好安商工作。聚焦“振飞”再培育，搭建各类农业创业平台，建立农业风险投资机构联盟，打造“雏鹰”龙头企业创业园，成立创业投资基金，加快培养农业产业化未来之星。', '考察期间，我省在南京市举办了江西省农业产业化“头雁引航 雏鹰振飞”行动春季招商项目签约仪式，签约项目29个，签约金额121.79亿元。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>124</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>市财政局赴南昌市学习考察预算管理一体化系统</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2021-08-16</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449s/202108/88e319b670a443cea4ffaed08706d80a.shtml</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['南昌市财政局相关人员详细介绍了该市预算管理一体化系统建设的总体情况，从加强组织领导、有序推进准备工作；融合业务和技术、再造财政管理流程；密切配合沟通、压实单位、银行和财政各科室的工作责任等方面介绍了经验和做法。经过此次的学习考察，使我们对新的预算管理一体化系统上线前的工作重点、上线后的操作要求和后期的工作打算等有了一个较全面的了解，为做好我市预算管理一体化系统全面上线工作涉及的国库集中支付业务方面的有关工作奠定了坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>124</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>定南县政协副主席李柳琴一行莅临全南县学习考察林业工作</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2023-08-04</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.quannan.gov.cn/qnxxxgk/qn9022/202308/bc1739c9ec014e2f80ec376b00dfa467.shtml</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['月26日，定南县政协副主席李柳琴一行莅临全南县学习考察提升县城周边及高速（国省道）沿线可视范围林相改造品质和国家园林城市创建工作。县政协副主席曾慧华全程陪同，县林业局教授级高级工程师江军全程进行讲解，考察组一行先后在高峰公司国土绿化更替改造试点示范基地、小叶岽林场水尾坑山场，城厢镇镇仔村形湾山场以及梅子山森林公园等地实地查看项目成效。', '李柳琴深入了解了我县林业部门在林地清理、树种选择、抚育管理、绿化美化等工作方面采取的积极措施，对我县在提升县城周边及高速（国省道）沿线的林相改造品质方面所做的工作成绩表示赞赏。', '此外，李柳琴对我县在国家园林城市创建工作方面也表示了高度评价，她认为，我县注重将自然生态与城市建设相结合，积极推进园林城市的创建工作，不仅提升了城市形象，也为居民提供了更好的生活环境和休闲空间。', '考察结束后，李柳琴表示，我县在林相改造品质和国家园林城市创建方面的工作给她们留下了深刻的印象，希望两县能够加强合作与交流，为两县的发展注入新的活力，共同推动林业事业和城市建设的发展。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>124</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>赣州市市场监管局赴佛山开展学习考察活动</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2022-06-09</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://sjj.ganzhou.gov.cn/gzszljsjdj/c101082/202206/b02551a40faa4d8bb574915199689a60.shtml</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['为认真贯彻落实国家、省关于深化“放管服”改革决策部署，积极推进营商环境优化升级“一号工程”，6月6日至7日，赣州市市场监督管理局党组书记、局长黄蕙率队，赴广东佛山学习考察市场监管工作。这次学习考察活动，以优化营商环境为主题，以“双随机、一公开”监管为重点，同时学习借鉴其它经验做法，是一次主动“融湾”之行，也是一次实实在在的取经之行。', '活动中，佛山市市场监管局相关负责人介绍了“证照联办”“市场监管系统一照通”“一照通行”等系列改革举措及“人工智能+双随机”监管模式经验做法，学习考察人员就如何创新监管方式，推进“双随机、一公开”监管和部门联合“双随机”抽查等现场请教取经。双方还就优化营商环境、商事制度改革、小个专党建等具体工作进行了深入交流与探讨。', '考察期间，黄蕙一行实地调研了佛山市知识产权保护中心，就如何高效运营开展业务，打通知识产权创造、运用、保护、管理、服务全链条进行了深入了解。随后，还走访了佛山市顺康达医疗科技有限公司及石湾酒厂，学习其小个专党建工作的特色做法及企业高质量发展工作。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>124</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>曹爱珍率我县党政考察团赴瑞金市学习考察</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2018-05-16</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c102086/201805/42fe65332c2f44888023ece201fb768f.shtml</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['5月12日，县委书记曹爱珍率党政考察团赴瑞金市叶坪乡山歧村、朱坊村等地，学习考察两地精准扶贫、村庄环境卫生整治和乡村旅游等工作。 在瑞金市委副书记曾平，市委常委、常务副市长曾宪柏的陪同下，县委书记曹爱珍，县委副书记、县长钟旭辉，县委副书记邓增顺，县委常委、组织部长包礼斌，县委常委曹森等考察团一行先后来到叶坪乡山歧村、朱坊村和九丰极地世界海洋馆等地，通过参观考察现场、听取汇报、互动交流等多种形式，详细了解了瑞金市在精准扶贫、基础设施建设、村庄环境卫生整治、乡村旅游发展等工作中的好经验、好做法。 据介绍，在精准扶贫工作中，瑞金市叶坪乡以问题为导向，对照贫困村退出的九大指标以及贫困户退出的“一收入、两不愁、三保障”，有针对性地开展工作，结合地域优势，引进龙头企业，利用现有资源，多途径壮大村级集体经济，发展特色扶贫产业。同时通过开展乡风文明行动，激发贫困户的内生动力，转变思想观念，调动贫困户的积极性，让广大群众主动参与，实现脱贫致富和村庄环境卫生整治可持续发展。 曹爱珍对叶坪乡打好脱贫攻坚战的经验方法和取得的脱贫成效表示赞赏，认为瑞金市的精准扶贫工作准确把握了扶贫重点，最大限度挖掘、运用了各方面的资源和力量，脱贫攻坚蹄疾步稳，特别是在产业带动、环境整治、工作机制建设等方面亮点纷呈，今后要进一步加强交流学习，借鉴成功经验，全力推进大余精准扶贫工作。 曹爱珍在考察时要求，要把瑞金市脱贫攻坚工作的好经验、好做法认真学习、梳理、总结、消化吸收，进一步转变思路理念、拓宽方法路径，针对当前存在的突出问题，找准突破口，迎难而上、艰苦奋斗、创新机制、扎实工作，以时不我待的劲头、决战必胜的勇气、务实管用的措施，切实把脱贫攻坚作为一项硬任务、硬要求，抓紧抓实抓到位，让贫困群众早日实现脱贫致富。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>124</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>石城县行政审批局赴福建省宁化县学习考察</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2023-01-27</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.shicheng.gov.cn/scxxxgk/sc90248/202301/2e404d0563a84fa1b610843b91c3be05.shtml</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['1月26日上午，石城县行政审批局党组书记、局长熊运发带组赴福建省宁化县行管委学习考察。', '考察学习组实地参观了宁化县行管委人社服务专区、公安服务专区、办税服务厅等特色亮点服务区，认真听取相关介绍，详细了解各办事专区功能布局、窗口设置、事项进驻、运行机制等情况。', '熊运发在交流中谈到，要学习借鉴宁化县行政审批和政务服务精细化、大厅运行管理等方面的先进经验，推动我县行政审批和政务服务工作在新的一年迈上新台阶。', '下一步，我局将借鉴宁化县行管委经验，贯彻落实好各项工作任务，加强市民服务中心大厅建设和管理，提升政务服务能力，为进一步优化营商环境、推动我县经济社会持续健康发展做出新贡献。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>124</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>龙南党政考察团赴贵州重庆四川学习考察</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2018-03-27</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.jxln.gov.cn/lnzf/c104539/201803/eb664d934da047ea8f684ef7afca6c71.shtml</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['3月21日—25日，龙南党政考察团赴贵州、重庆、四川学习考察。县政协主席王慧君，以及李森彪、何敏、何中育等区县领导参加学习考察。', '考察团先后参观考察了贵州省、重庆市、四川成都市三省市的工业项目、平台建设项目、旅游项目、城市建设和管理项目等，实地感受了三省市各地科学发展的蓬勃态势，进一步加强了龙南与三省市各地的交流和合作。', '一路走、一路看、一路问。5天紧锣密鼓的学习考察中，考察团成员开阔了眼界，启发了思路。大家表示，要认真借鉴贵州、重庆、四川等地经济社会发展特别是在培育发展工业产业集群、新经济新业态、全域旅游、城市建设管理、综合平台建设等方面的先进理念、经验和做法，要认真学习各地创先争优、爱拼敢赢的精神，将此次学习考察所见、所闻、所感，转化落实到具体工作落实中，充分发挥龙南在区位、政策、资源等方面的优势，深化区域经济、文化等交流合作，推动龙南转型升级、跨越发展，加快建设“强旺美富”的明珠县。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>124</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>阎钢军率调研组到黑龙江省学习考察林业工作</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2016-08-03</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c101254/201608/c41ca32c488c4070b46c43fa61687dd4.shtml</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['7月17日至19日，省林业厅党组书记、厅长阎钢军率省林业厅巡视员魏运华和产业局、航空护林局主要负责人赴黑龙江学习考察林业工作。', '调研组先后实地考察了黑龙江省五营林业局、光明集团股份有限公司、黑龙江幸福航空护林站,参加了2016中国（东北亚）森林博览会，并与黑龙江省林业厅、伊春市及相关企业负责人进行座谈交流，就加快林业产业发展及航空护林站建设等方面深入交换了意见。调研组认为，黑龙江省在林业产业和航空护林站建设等方面的一些好做法、好经验，值得江西林业学习和借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>124</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>市党政代表团赴广东学习考察借得南风弄大潮</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2021-06-09</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.jxxf.gov.cn/xfxxxgk/c101204/202106/292e1dbfad2445398c1553d9c3a74f27.shtml</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['5月24日至27日，赣州市党政代表团赴广东学习考察。短短三天，奔波深圳、东莞、广州三地，置身改革开放前沿，感受高质量发展律动，共商合作发展大计。', '“赣州是全国著名的革命老区，是江西省域副中心城市，支持革命老区高质量发展是我们义不容辞的责任。” 对于赣州市党政代表团的到来，广东方面高度重视。广东省委书记李希，广东省委副书记、省长马兴瑞百忙之中，专门抽出时间与江西省委常委、赣州市委书记吴忠琼，市委副书记、市长许南吉等座谈交流。', '采岭南之石，琢南赣之玉。这是市委、市政府主要领导到任后组织的首次外出学习考察活动，这是一个由有关市领导及县（市、区）、市直部门主要负责同志组成的高规格、大规模代表团。这既是一次解放思想之旅，也是一次学习取经之旅，还是一次交流合作之旅。', '代表团一路看、一路议、一路思考、一路交流，所到之处，扑面而来的是珠江暖风和南海热潮，还有生机勃发的科研园区、实力雄厚的产业集群、美轮美奂的城市建设。广东经济社会发展取得的巨大成就，广东人民敢为人先、勇闯新路的进取精神，求真务实、雷厉风行的工作作风，在代表团中掀起一轮解放思想、更新观念的冲击波。', '借得南风弄大潮。大家纷纷表示，通过学习考察，开阔了思路，找准了差距，搅动了思想，进一步增强了高质量跨越式发展的紧迫感和责任感，更加坚定了全面对接融入粤港澳大湾区的信心和决心。', '解放思想是总开关。此次学习考察的粤港澳大湾区三市是中国改革开放前沿，一路走来，给代表团一行以极大震撼。', '“排头兵”与“试验田”，深圳凭着一种“闯”的精神、“创”的劲头、“干”的作风，以思想破冰引领改革突围，实现了由一座落后的边陲小镇到具有全球影响力的国际化大都市的历史性跨越，成为广东改革开放进程中独领风骚的缩影。', '“从先行先试到先行示范——庆祝深圳经济特区建立40周年展览”。40多年来，深圳始终高举改革大旗，领创新风气之先，解放思想永无止境在这里得到生动诠释。', '“一码管理、一门集中、一窗受理、一网通办、一号连通、一证申办、一库共享、一体运行”，深圳探索建立“大政务服务”工作机制，就是解放思想的生动实践。在深圳、东莞、广州等地，代表团接触到的政府官员、企业家和基层民众，都从不同层面和角度体现了强烈的市场观念、现代意识和开放理念，都体现出了对加快发展的责任感和干事创业的激情。', '……甚至在用餐席间，学改革前沿发展理念的激情始终澎湃不已。正如代表团成员所说：“这些辉煌成就极大振奋了我们的发展信心，广东的昨天，就是我们的今天；通过努力，广东的今天，就会是我们的明天！”', '“在营商环境上，感觉我们的思想观念更新不足，部门间信息共享机制不健全，灵活度还不够。”市行政审批局局长刘洪梅表示，要简化审批环节，提升审批效率，尤其要在数据融合、集成审批等方面改革走在全省前列。', '思想解放，才能看得远、谋得深。大家纷纷表示，要进一步转变思想观念，学习他们眼睛亮、见事早、行动快，看准了就干，干就干到底，引领全市不断掀起解放思想的热潮。', '2020年广东地区生产总值超过11万亿元，连续32年位居全国第一。近年来，广东持之以恒实施“1+1+9”工作部署，加快推动粤港澳大湾区和深圳先行示范区建设，经济社会发展取得了明显成效。', '此次学习考察，既是为了增进友谊，又是为了学习先进的发展理念思路、工作作风、方式方法。取经，是代表团此行主要目的之一。', '发展是第一要务，人才是第一资源，创新是第一动力。实施创新驱动发展战略，以创新引领经济转型升级、提质增效，是深穗莞三座城市的显著特色。', '科技是国之利器，国家赖之以强，企业赖之以赢，人民生活赖之以好。聚焦科技创新及成果转化、开放平台建设等工作，代表团来到深圳福田区河套深港科技创新合作区、东莞松山湖材料实验室、广州科学城、广州实验室等地考察。在这些地方，发展浪潮滚滚、人才基础雄厚、企业创新活力迸发，', '“创新创业”成为发展之魂。他们谋划发展的世界眼光和战略思维，推进工作的市场理念和现代意识，锐意创新的力度之大和机制之活，让代表团一行深感震撼。“聚焦‘科技创新’去考察，是一次学习取经之旅。” 市科技局党组书记谢定强表示，通过实地感受改革前沿的先进理念，达到了解放思想、转变观念的目的。赣州科技创新要实现突破，必须在融入中接轨，在改革中优化，努力建设区域性创新高地。', '在深化改革开放过程中，当地依托科技实力实施创新驱动，丰富成果转化运用，让电子信息、生物医药、新能源汽车等产业成为优势与骄傲。代表团深入创维集团有限公司、华为终端总部、广州明珞汽车装备有限公司、金域医学检验集团有限公司等企业，细细探寻企业的成功理念。市工信局局长梁丁盛认为，政府服务意识强，创新环境就好；企业创新能力强，竞争力就强。要坚持创新驱动引领产业转型升级，推进人才链、产业链、创新链、资金链、政策链', '一路观览，一路风景。登上广州东塔（周大福金融中心），大家俯瞰珠江两岸，察看城市规划建设和生态保护情况，认真听取广州城市规划建设概要介绍。花城广场、海心沙亚运公园', '……塑造了大气雍容的城市会客厅。在广州，代表团看到城市处处是整洁的街道，道路绿化层次丰富， 绿地公园令人神往，都为广州发展的大手笔、大战略、大气魄感到兴奋。经济实力、城市规模不可复制，但“以人为本、宜居优先、城乡一体”的城市规划理念，加快转型升级、强化科技创新能力的科学发展之道，对于每个城市甚至县城乡镇都是必须的。大家表示，要认真学习借鉴广州的先进理念，促进城乡规划建设水平不断提升。', '白天看创新成果，晚上座谈交流。代表团还在广州召开座谈会，畅谈体会，相互启迪。启示多、收获大、不虚此行，成为代表团一行的共同感受。瑞金市委书记吴建平建议，要做到', '“情感融入，缩短心理距离；理念融入，缩短思想距离；交通融入，缩短时空距离；产业融入，缩短产研距离”，扎实做好全面对接融入文章，加快推动新时代赣南苏区振兴发展。', '连日来，代表团先后与广东省及深圳、东莞、广州三市领导进行了务实的交流座谈，并签署了深化战略合作及政务服务', '“跨省通办”、智慧城市建设、知识产权合作、人才合作等系列合作协议。加强交流合作，成为大家的共同心声。', '“希望广东省一如既往关心支持江西和赣州发展，支持赣州市深度参与粤港澳大湾区建设，在科技创新、产业发展、基础设施、双向开放、干部培养等领域深化合作，助推赣州打造对接融入粤港澳大湾区的桥头堡。”', '“进一步加强与革命老区交流合作，全力支持赣州高质量跨越式发展，推动新发展阶段粤赣合作再上新水平。”', '“对广东来说，你们要大大方方地来；对广州、深圳、东莞来讲，你们要大胆进行全面合作。”广东省委主要领导的一席话，无疑成为代表团此行的最大收获和惊喜。', '机遇千载难逢，机遇稍纵即逝。大家一致认为，要闻鸡起舞、只争朝夕，一天当两天用、两步并一步走，持续跟踪对接落实，把学习考察明确的事项项目化、清单化，争取早日落实到位。要紧盯不放意向投资项目，争取早日签约落地。', '市发改委主任卢述银表示，作为市打造对接融入粤港澳大湾区桥头堡领导小组办公室，市发改委将切实学习好、吸收好、转化好考察成果，抓住战略机遇，抓实三地合作，抓好营商环境，以更大频度、更大力度、更快速度主动融入大湾区，以交流合作推动打造对接融入粤港澳大湾区桥头堡取得更多实实在在的成效。', '考察期间，代表团还会见了宝能集团、北航投资集团、广东鸿艺集团等企业负责人，以及广州、深圳、东莞赣州商会代表，就有关合作事宜进行深入交谈。企业家们表示，今年赣深高铁将要开通，赣州区位、政策、资源等优势更加明显，有着广阔的发展空间和潜力。将进一步发挥自身优势，积极布局赣州，加大投资力度，同时把更多优秀人才、优秀企业引荐到赣州，为推动赣州高质量跨越式发展贡献智慧力量。', '市商务局局长吴忠浩认为，赣州与粤港澳大湾区的产业互补性强，具有承接产业转移的巨大优势。要按照市委、市政府部署要求，抓实抓细招商引资工作，认真谋划', '“粤企入赣”等活动，力争在电子信息、纺织服装、生物医药等产业领域引进一批好项目大项目。', '“多出来走一走、看一看，对于拓宽视野、开阔思路、加强交流合作很有帮助。”兴国县委书记赖晓军告诉记者，将认真总结学习考察的成果，把所学所思运用到实践中去，变“老区”思维为“湾区”思维，更好地指导推动各项工作。', '“干，才是最好的学习。”代表团成员纷纷表示，取真经、学真功，关键要学以致用。要干出解放思想的深度、转型升级的速度、优化环境的热度、狠抓落实的力度，奋力打造对接融入粤港澳大湾区桥头堡，推动赣州高质量跨越式发展。（记者 张宗兴）']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>124</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>吉安市政府副秘书长梁平芳带队来我县学习考察</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2023-01-16</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.huichang.gov.cn/hcxxxgk/hc333/202301/4b985fa1b651404494b749329098a1bf.shtml</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['近日，吉安市政府副秘书长梁平芳带队赴会昌县学习考察，学习借鉴会昌县土地整治、矿山生态修复实施土地开发方面的先进经验做法。市自然资源局党组成员、副局长魏清胜，县政府副县长陈民参加调研。', '考察组一行先后实地察看了筠门岭镇竹村村、周田镇连丰村、西江镇背坑村三个矿山生态修复点及筠门岭镇石久村旱改水项目点，详细了解会昌县土地整治、矿山生态修复等方面工作情况，并就工作中存在的难点问题进行了详细交流。', '此次学习考察受益匪浅、深受启发，既开阔了视野，又拓展了思路。下一步将学习借鉴会昌县经验做法，健全组织领导，细化工作职责，形成政府主导、部门联动、分级负责的土地整治、矿山生态修复工作推进大格局，进一步创新工作举措，以解决土地整治、生态修复资金、后期管护难题，实现政府、企业双赢，社会效益、经济效益、生态效益有机统一。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>124</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>县工信局牵头组织多单位及企业赴广州学习考察</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2020-12-14</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.yudu.gov.cn/ydxxxgk/c100263ur/202012/ffd377dcd2064c04bf4c7a8400e067e4.shtml</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['11月20日至22日,11月20日至22日,我局组织县发改委、县商务局、县工业园、县财政局等10家纺织服装产业研究院成员单位以及20多家我县创新能力提升计划项目成员企业赴广州学习考察。考察团实地走访了广州罗斯软件、广州汇美集团总部,并参观了广州面辅料市场及广州大学城智创中心,多方面、多维度的学习了纺织服装行业的时尚前沿资讯和创新创业新业态。 。', '11月20日至22日,11月20日至22日,我局组织县发改委、县商务局、县工业园、县财政局等10家纺织服装产业研究院成员单位以及20多家我县创新能力提升计划项目成员企业赴广州学习考察。考察团实地走访了广州罗斯软件、广州汇美集团总部,并参观了广州面辅料市场及广州大学城智创中心,多方面、多维度的学习了纺织服装行业的时尚前沿资讯和创新创业新业态。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>124</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>肖年生带队赴惠州市学习考察林业放管服改革</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2022-10-27</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://lyj.ganzhou.gov.cn/gnlyw/c102331/202210/da89faa58c7549798d72a48d1a65225d.shtml</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['10月26日，市林业局党组书记肖年生带队赴广东省惠州市学习考察林业“放管服”改革、森林资源保护管理、林业系统党建与业务融合发展等工作。 同惠州市林业局负责同志座谈交流 肖年生一行考察参观了惠州市植物园，并围绕深化林业“放管服”改革、优化营商环境，森林资源保护管理，林业行政执法，林业系统党建与业务工作融合发展等方面，同惠州市林业局主要负责同志及有关负责同志进行深入座谈交流。 在惠州市植物园考察参观 肖年生高度评价惠州市林业局推动森林资源保护发展各项工作取得的显著成效。他指出，惠州市作为粤港澳大湾区的林业大市，在林业生态建设各方面思想解放、视野开阔、思路创新、措施有力，创造了很多好经验、好做法。要结合贯彻落实党的二十大精神，认真践行“绿水青山就是金山银山”理念，按照市委、市政府“三大战略、八大行动”决策部署，向先进看齐、对标提升，创新思路举措，强力推进全市林业高质量发展迈上新台阶，为建设革命老区高质量发展示范区贡献新的更大力量。 在惠州市植物园考察参观 肖年生强调，要建立完善工作沟通联系渠道，加强同粤港澳大湾区城市林业主管部门尤其是惠州市林业局的常态化联络，建成结对友好单位关系，进一步深入学习粤港澳大湾区优化林业服务、助力区域经济社会发展的思路、理念和措施，结合全市林业工作实际加以借鉴吸收，加强学习成果转化运用，切实提高全市林业改革发展尤其是深化林业“放管服”改革、优化营商环境的能力和水平。要认真学习惠州市林业局推动党的建设和林业业务工作融合发展的经验做法，拿出有力有效举措，进一步深化基层党组织“三化”建设，着力打造“让党放心、人民满意”模范机关，在森林资源保护发展、助力乡村全面振兴、统筹推进新冠肺炎疫情防控、服务全市经济社会发展等工作中充分发挥党支部战斗堡垒和党员先锋模范带头作用，努力创造全市林业系统“党建促林建”、“党建助力‘三大战略’”党建特色品牌。（黎林华）']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>124</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>我县党政考察团赴福建省厦门龙岩等地学习考察</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2017-03-28</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c102406/201703/b9c4f2ef23a24ff39db199b5263031dd.shtml</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['3月19日至21日，县委书记曹爱珍率我县党政考察团赴福建省厦门、龙岩等地，学习考察两地在城市古街打造、红色文化旅游、循环经济利用与发展等方面工作的好经验、好做法。', '县委书记曹爱珍，县委副书记、县长钟旭辉，以及李细妹、邓金健、黄刚、刘裕裕、刘晓明、罗少贵、邹隆春、周凤来等领导出席考察活动，各乡镇党委书记及有关部门单位负责人随团参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>124</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>我市党政代表团赴闽学习考察系列评论之四</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2016-12-23</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c102472/201612/6b6acda1ef0942b589765b5ed26b9399.shtml</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['创新，是一个民族进步的灵魂，是国家兴旺发达的不竭动力，也是一个地方经济社会发展的强力引擎。正如习近平总书记所说：“抓创新就是抓发展，谋创新就是谋未来。” 取经龙泉厦，问道快发展，无处不在、无时不有的创新，是留给我市党政代表团的至深印象之一。无论发展理念、发展方式，还是体制机制、干部作风建设等，福建三市都是坚持在创新中谋发展，在创新中求突破。 近年来，我市深入实施创新驱动发展战略，在优环境、强载体、谋合作、促转化等方面持续发力，创新型赣州建设取得了新进展、新成效。但是，对标龙泉厦，我们的创新工作还存在理念滞后、人才短缺、重点不突出、机制不完善、发展不均衡、整体氛围还不够浓郁等诸多短板。 党的十八届五中全会提出五大发展理念，“创新发展”居于首位，足见其重、足见其要。 思想的解放、理念的更新，是一切创新的源头活水。思想固化，发展则受制；理念不新，一切都难新。泉州把大众创业、万众创新作为助推经济增长的新引擎和新动力，积极搭建创新创业平台；厦门千方百计推进创新驱动，不遗余力打造高端产业高地、自主创新高地；和赣州同属山区市的龙岩，也在“无中生有、变废为宝”方面探索出新路径、创造出新经验……这些，都启示我们，创新，理念上的差距是最大的差距，思维上的落后是最大的落后。赣州发展基础差、底子薄，要加快振兴发展、实现同步小康，首先就必须创新理念，我们可以此次学习考察的福建三市为参照系，全面审视，逐一对标，着力破除阻碍理念创新的思想障碍。 发展活力在科技，科技源泉在创新。福建三市的实践证明，推动科技创新，不能“眉毛胡子一把抓”，要把握主攻方向，精准发力。既要突出企业的创新主体地位，让企业“唱主角”“挑大梁”，又要发挥创新平台的骨干作用，建设一批创新公共服务平台，还要围绕重点产业推动创新，以创新链支撑产业链。纵观龙泉厦，正是科技创新给他们带来了勃勃生机，特别是泉州市的“智能制造”“数控一代”示范工程、石墨烯新技术等，都是当地着力推动传统优势产业和产品向价值链中高端跃升的创新结晶 。从产业发展看，赣州的落后，主要在于工业的落后。市委、市政府吹响打好六大攻坚战和“主攻工业，三年翻番”的进军号，没有科技创新无以破题，更遑论交卷。我们必须紧紧抓住科技创新这个“牛鼻子”，充分利用互联网、大数据、区块链等新技术，推动新能源汽车、稀土钨新材料、生物制药、电子信息、家具等优势产业转型升级，进一步培育和释放经济发展新动能。 培育和释放经济发展新动能，破除体制机制桎梏、优化创新环境至关重要。福建三市的创新环境为什么这么好，创新成果转化率为什么那么高？一个重要的原因，就是他们重视发挥体制机制改革对推动科技创新、统筹要素资源配置、促进创新成果转化运用的激励和催化作用 。学习龙泉厦，我们要在传统优势产业、新兴战略产业等重点领域和关键环节，改革科技创新评价机制、转化运用机制，激活科技创新和运用的“一池春水”，建立以科技创新质量、贡献、绩效为导向的分类评价体系，为科研人员潜心研究、安心创新创业创造良好条件。还要有计划、有重点地建设一批科技成果转化中试基地，着力解决好科技成果转化“最后一公里”问题。 创新驱动，实质上是人才驱动，谁拥有一流的科技人才、创新人才，谁就拥有了科技创新的优势和主导权。目前，人才稀缺、人才结构不合理、优秀人才难以留住等问题，是制约赣州创新驱动发展的重大瓶颈。我们要把培养、引进、留住、用好人才，放在推进科技创新最优先的位置，大兴识才爱才敬才用才之风，打破地域、身份、人事关系等刚性制约，开辟“绿色通道”，实现人尽其才、才尽其用、用当其时。 创新是一项系统工程，实施创新驱动发展战略，必须建设好“创新生态”，要凝聚全社会的智慧和力量，充分调动一切创新资源，让创新创业热情充分迸发、源泉充分涌流、活力充分展现。为此，要强化组织保障，通力合作、上下联动，形成推动科技创新的巨大合力；要发挥好财政资金的“乘数效应”，足额安排科技创新的财政预算，完善创新投融资体系，实施最严格的知识产权保护制度；要鼓励创新、宽容失败，让人人崇尚创新、人人希望创新、人人皆可创新。 创新才有出路，创新才有未来。刚刚召开的全市科技创新大会暨科技奖励大会，为我们深入实施创新驱动发展战略、全面加快创新型赣州建设作出了新的动员和部署，也为我市加速转化此次赴闽学习考察的成果作出了新的思考、汇聚起强大的推力。创新激发潜能，潜能带动创新。我们已经感觉到，创新的细胞正在赣州不断生长，创新的血液正在赣州加速涌流。（赣南日报评论员）', '取经龙泉厦，问道快发展，无处不在、无时不有的创新，是留给我市党政代表团的至深印象之一。无论发展理念、发展方式，还是体制机制、干部作风建设等，福建三市都是坚持在创新中谋发展，在创新中求突破。', '近年来，我市深入实施创新驱动发展战略，在优环境、强载体、谋合作、促转化等方面持续发力，创新型赣州建设取得了新进展、新成效。但是，对标龙泉厦，我们的创新工作还存在理念滞后、人才短缺、重点不突出、机制不完善、发展不均衡、整体氛围还不够浓郁等诸多短板。', '思想的解放、理念的更新，是一切创新的源头活水。思想固化，发展则受制；理念不新，一切都难新。泉州把大众创业、万众创新作为助推经济增长的新引擎和新动力，积极搭建创新创业平台；厦门千方百计推进创新驱动，不遗余力打造高端产业高地、自主创新高地；和赣州同属山区市的龙岩，也在“无中生有、变废为宝”方面探索出新路径、创造出新经验……这些，都启示我们，创新，理念上的差距是最大的差距，思维上的落后是最大的落后。赣州发展基础差、底子薄，要加快振兴发展、实现同步小康，首先就必须创新理念，我们可以此次学习考察的福建三市为参照系，全面审视，逐一对标，着力破除阻碍理念创新的思想障碍。', '发展活力在科技，科技源泉在创新。福建三市的实践证明，推动科技创新，不能“眉毛胡子一把抓”，要把握主攻方向，精准发力。既要突出企业的创新主体地位，让企业“唱主角”“挑大梁”，又要发挥创新平台的骨干作用，建设一批创新公共服务平台，还要围绕重点产业推动创新，以创新链支撑产业链。纵观龙泉厦，正是科技创新给他们带来了勃勃生机，特别是泉州市的“智能制造”“数控一代”示范工程、石墨烯新技术等，都是当地着力推动传统优势产业和产品向价值链中高端跃升的创新结晶 。从产业发展看，赣州的落后，主要在于工业的落后。市委、市政府吹响打好六大攻坚战和“主攻工业，三年翻番”的进军号，没有科技创新无以破题，更遑论交卷。我们必须紧紧抓住科技创新这个“牛鼻子”，充分利用互联网、大数据、区块链等新技术，推动新能源汽车、稀土钨新材料、生物制药、电子信息、家具等优势产业转型升级，进一步培育和释放经济发展新动能。', '培育和释放经济发展新动能，破除体制机制桎梏、优化创新环境至关重要。福建三市的创新环境为什么这么好，创新成果转化率为什么那么高？一个重要的原因，就是他们重视发挥体制机制改革对推动科技创新、统筹要素资源配置、促进创新成果转化运用的激励和催化作用 。学习龙泉厦，我们要在传统优势产业、新兴战略产业等重点领域和关键环节，改革科技创新评价机制、转化运用机制，激活科技创新和运用的“一池春水”，建立以科技创新质量、贡献、绩效为导向的分类评价体系，为科研人员潜心研究、安心创新创业创造良好条件。还要有计划、有重点地建设一批科技成果转化中试基地，着力解决好科技成果转化“最后一公里”问题。', '创新驱动，实质上是人才驱动，谁拥有一流的科技人才、创新人才，谁就拥有了科技创新的优势和主导权。目前，人才稀缺、人才结构不合理、优秀人才难以留住等问题，是制约赣州创新驱动发展的重大瓶颈。我们要把培养、引进、留住、用好人才，放在推进科技创新最优先的位置，大兴识才爱才敬才用才之风，打破地域、身份、人事关系等刚性制约，开辟“绿色通道”，实现人尽其才、才尽其用、用当其时。', '创新是一项系统工程，实施创新驱动发展战略，必须建设好“创新生态”，要凝聚全社会的智慧和力量，充分调动一切创新资源，让创新创业热情充分迸发、源泉充分涌流、活力充分展现。为此，要强化组织保障，通力合作、上下联动，形成推动科技创新的巨大合力；要发挥好财政资金的“乘数效应”，足额安排科技创新的财政预算，完善创新投融资体系，实施最严格的知识产权保护制度；要鼓励创新、宽容失败，让人人崇尚创新、人人希望创新、人人皆可创新。', '创新才有出路，创新才有未来。刚刚召开的全市科技创新大会暨科技奖励大会，为我们深入实施创新驱动发展战略、全面加快创新型赣州建设作出了新的动员和部署，也为我市加速转化此次赴闽学习考察的成果作出了新的思考、汇聚起强大的推力。创新激发潜能，潜能带动创新。我们已经感觉到，创新的细胞正在赣州不断生长，创新的血液正在赣州加速涌流。（赣南日报评论员）']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>124</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>江西省代表团赴新疆学习考察对接对口支援工作</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.ganxian.gov.cn/gxqxxgk/c110828/202309/999c16d4a583419e9669dcf15d639bec.shtml</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['8月28日至30日，江西省代表团在新疆维吾尔自治区学习考察，深入学习贯彻习近平总书记关于新疆工作的重要讲话精神，推动江西和新疆对口支援、交流协作迈上新台阶。新疆维吾尔自治区党委书记、新疆生产建设兵团党委第一书记、第一政委马兴瑞出席有关活动，江西省委书记、省人大常委会主任尹弘率团学习考察。', '·吐尼亚孜，自治区人大常委会党组书记、主任祖木热提·吾布力，自治区领导张春林、陈伟俊、哈丹·卡宾，江西省领导李红军、任珠峰参加。', '26年来对口援疆工作的成效。三天时间，尹弘率团深入克州、阿克陶县等地，走产业园区、看学校医院、听文化润心、访农户家庭，全方位了解江西对口援疆各项工作情况。', '在克孜勒苏职业技术学院，江西理工大学与克州人民政府合作共建了战略资源开发与利用研究院。马兴瑞、尹弘等详细了解项目成果和产业化应用，鼓励用好江西智力支持和人才资源，扎实推进克州有色金属和新能源等优势资源开发与利用，加快产业项目落地转化。走进柯尔克孜族刺绣研发中心，做工精美的各种刺绣和工艺品琳琅满目。马兴瑞、尹弘等与传承人亲切交谈，并饶有兴致观看民族史诗《玛纳斯》展演。他们指出，中华文明博大精深、源远流长。要加强非物质文化遗产保护传承，把各民族优秀传统文化发扬光大。', '克孜勒苏中医医院新院是我省重点援疆项目。马兴瑞、尹弘等察看项目现场，了解新院规划设计、功能布局，希望充分发挥江西中医药优良传统和技术优势，有力推动南疆地区中医药事业发展，促进中医药与各族传统医学融合发展。阿克陶县人民医院是我省对口支援医院，尹弘走访了中医康复等科室，通过视频问候正在远程会诊的江西医生，看望慰问江西援疆医务工作者。尹弘说，要扎实开展医疗援助，助力医疗学科建设，完善医疗人才', '“组团式”帮扶有效推动了克州阿克陶教育质量逐年攀升。在克州江西实验中学，尹弘听取学校情况介绍，察看“红杜鹃”社团活动，为师生们作品和表演点赞，鼓励大家唱响“红杜鹃”品牌，传承红色基因，赓续红色血脉，让中华民族共同体意识根植心灵深处。尹弘衷心感谢各位援疆教师的真情付出和无私奉献，希望大家珍惜援疆的每一天时光，毫无保留地把教育理念和智慧知识传授给当地广大师生，办好人民满意的教育。阿克陶瑞金幼儿园拥有一流的硬件设施。在孩子们的小手拉大手下，尹弘走进幼儿园察看教学设施，对幼儿园突出特色、寓教于乐的做法给予肯定，要求培根铸魂、启智润心，帮助孩子系好“第一粒扣子”，促进各族孩子在中华民族大家庭中健康茁壮成长。', '“石头屋”，到如今宽敞明亮、设施齐全的现代家园……我省援建的昆仑佳苑安置了1665户易地扶贫搬迁牧民，尹弘走进社区了解搬迁前后群众生产生活发生的翻天覆地变化。小区广场连廊里，居民纷纷表达搬迁后的喜悦之情。尹弘说，全面建成小康社会、全面推进现代化建设，一个民族也不能少。我们要铸牢中华民族共同体意识，共画民族团结同心圆，共同创造更加美好生活。尹弘来到柯尔克孜族群众萨热·库尔班家中，与他们全家人围坐在一起拉家常，鼓励他们用勤劳和智慧把日子越过越好。', '在昆仑佳苑对面，我省发挥农业技术优势，支持帮助易地扶贫搬迁牧民建立了现代设施农业示范园区。', '2000多座温室大棚里，西红柿、辣椒、蜜瓜等茁壮成长，尹弘走进大棚，察看瓜果长势，要求加强技术指导，以“企业＋农户”模式，线上线下拓宽市场销售，不断激发易地搬迁群众发展内生动力。来到诺库其艾日克村的蘑菇小镇，尹弘详细询问了解蘑菇种植和收益，察看乡村观光休闲等多元产业发展，走进维吾尔族群众尼斯来提汗·斯地克家中，与他们家人在葡萄架下共享乡村美好、共话民族团结一家亲。尹弘指出，要把巩固拓展脱贫攻坚成果、推进乡村振兴作为发展的重要抓手，积极助力发展特色产业，帮助各族群众稳定提高收入、改善生活。', '在疆期间，尹弘看望了我省援疆干部人才和在疆赣商代表。他希望广大援疆干部人才珍惜难得援疆机遇，强化使命担当，增进民族团结，提升能力水平，树立良好形象，真正把岗位当阵地守、把工作当事业干、把奉献当本分看，扑下身、沉下心、扎下根，与各族干部群众同甘共苦、并肩奋斗，努力交上具有江西情怀的援疆新答卷。希望广大赣商进一步发扬新时代赣商精神，扎根新疆、建设新疆，助力新疆经济社会发展；更好发挥桥梁和纽带作用，为现代化江西建设添砖加瓦、贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>124</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>孙常务副市长带队赴瑞金市于都县学习考察</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2020-08-10</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.jxln.gov.cn/lnxxxgk/c100564/202008/0ea9d8ad3367447fa359f7c0d422be1b.shtml</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['日，由孙传忠常务副市长带队组成学习考察团，赴瑞金市、于都县学习瑞兴于快速交通走廓项目前期、融资、建设工作经验。通过这次学习考察，学习好的经验做法，助力龙南市开创经济发展新辉煌。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>124</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>进贤县党政考察团来我区学习考察</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2012-02-24</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://gzjkq.ganzhou.gov.cn/jkqxxgk/c110101/201202/e982d427ab964e08af38c8f287eaf769.shtml</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['2月21日，进贤县党政考察团一行来我区学习考察。考察团一行先后参观了开发区第一期标准厂房及香港工业园标准厂房。参观后就我区标准厂房的建设、运营情况等举行了座谈会。区党委委员、管委会副主任郑世飘出席会议，区招商局、区企业服务局、区项目办、国土分局、规划分局、香港工业园开发公司、锦城开发公司、区建设投资有限公司等单位代表参加座谈会。考察团一行认为，我区在标准厂房建设、招商政策、管理等方面都运作的很成熟，这种成功的经验做法非常值得学习和借鉴。', '，进贤县党政考察团一行来我区学习考察。考察团一行先后参观了开发区第一期标准厂房及香港工业园标准厂房。参观后就我区标准厂房的建设、运营情况等举行了座谈会。区党委委员、管委会副主任郑世飘出席会议，区招商局、区企业服务局、区项目办、国土分局、规划分局、香港工业园开发公司、锦城开发公司、区建设投资有限公司等单位代表参加座谈会。考察团一行认为，我区在标准厂房建设、招商政策、管理等方面都运作的很成熟，这种成功的经验做法非常值得学习和借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>124</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>史方现带队学习考察儿童福利工作</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2024-04-25</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449p/202404/c68f40d713264a86ae197f7c70cdf08b.shtml</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['留守儿童和困境儿童摸底排查、未成年人救助保护中心关爱服务留守儿童和困境儿童、儿童福利院关爱服务困境儿童等', '儿童福利工作。局儿童福利和慈善事业促进科、市儿童福利院、市未成年人保护中心负责同志和南康区、于都县分管负责同志一同参加学习考察。', '史方现一行先后来到吉安市未成年人保护中心、吉州区社会福利院、万安县罗塘村和十八口塘“一老一小幸福院”、鹰潭市未成年人保护中心、鹰潭市社会福利院、余江区未成年人保护中心、抚州市社会福利中心、抚州市未成年人保护中心等地学习考察，详细了解儿童福利院“养治教康社”一体化服务开展，未成年人保护中心关心关爱服务留守儿童和困境儿童具体活动情况，以及“一老一小幸福院”的选点布局、常态长效运营管理和政策宣传等工作。', '史方现强调，要进一步捋清工作职责，明晰工作任务，注重分工配合，促进未成年人救助保护工作上新台阶；要进一步全面查缺补漏，注重扬长补短，补齐类家庭养育、儿童中医康复方面的不足，在提升儿童福利院精准化管理、精细化服务上达到新高度；要进一步统筹资金调度，强化绩效管理，充分发挥困难群众救助补助资金在基本生活保障、政府购买服务、未成年人关爱保护等方面的积极作用，助力儿童福利工作高质量发展上取得新成效。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>124</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>湖南省资兴市关工委学习考察团到我县学习参观</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2020-08-31</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.yudu.gov.cn/ydxxxgk/c100179/202008/b36c3f5834974cffa4aa91f7c07cde4b.shtml</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['8月20日,湖南省资兴市关工委学习参观团来我县参观学习。县委常委、组织部部长梁敏辉陪同。', '参观团一行实地参观了中央红军长征出发地纪念园、中央红军长征出发纪念馆、长征前夕毛泽东同志旧居、赣南省苏维埃政府旧址、段屋乡红一军团军团部旧址和寒信古村、寒信村“初心讲堂”等景点,听取了我县关心下一代工作情况汇报,察看了我县关心下一代工作有关资料。参观团表示,通过来我县学习参观,对自身深入推进“传承红色基因、争做时代新人”主题教育活动和利用党史国史教育基地,激发青少年爱党爱国爱社会主义热情以及做好新时代关心下一代工作有很大的帮助作用。(曾长生)']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>124</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>尹弘叶建春率我省党政代表团赴安徽学习考察郑栅洁王清宪陪同</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.ganxian.gov.cn/gxqxxgk/c111379/202302/a6117155d7b74e25ac1e6ac8d14d3b92.shtml</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['2月18日至19日，省委书记尹弘、省长叶建春率江西省党政代表团赴安徽学习考察。一路看一路学一路思，代表团先后来到芜湖、合肥等地，入企业、进展馆、看平台，深入学习安徽成功经验，共商高质量合作发展大计。', '安徽省委书记郑栅洁、省长王清宪陪同考察。省领导李红军、任珠峰、史文斌、王少玄、夏文勇参加，安徽省省领导虞爱华、张韵声、单向前分别陪同。', '近年来，安徽深入贯彻新发展理念，加快推进创新发展，能级之变、位势之变、创新之变，前所未有。来到芜湖“中国视谷”，展厅内各种视觉智能应用产品让代表团成员对未来充满无限遐想。“中国视谷”已经集聚20多家视觉智能头部企业，计划用三年时间新增上下游产业链重点企业100家以上、产业规模超1000亿元。尹弘、叶建春等代表团成员听介绍、看产品，现场了解产业发展情况。他们指出，“中国视谷”加快促进人工智能技术和产业全域落地，坚持“场景引领、龙头带动、骨干支撑、平台赋能”的建设思路，迅速壮大产业规模，打造了新的增长极。我们要积极学习借鉴成功经验，选准细分赛道，丰富产品开发，拓宽应用场景，全力打造具有核心竞争力的未来产业。尹弘、叶建春要求南昌与“中国视谷”加强优势互补、资源共享，推动VR产业提质提速发展。', '聚焦人工智能产业发展，与芜湖“中国视谷”遥相呼应的产业地标是合肥“中国声谷”。在科大讯飞等头部企业引领带动下，安徽智能语音入选国家先进制造业集群，国家新一代人工智能创新试验区获批……走进科大讯飞产品体验馆，虚拟主播、AI+办公、AI+医疗、AI+教育等模块令人感慨，人工智能已深刻影响着人们的生活。代表团一行现场了解人工智能技术最新进展及场景应用。尹弘、叶建春指出，人工智能是新一轮科技革命和产业变革的重要驱动力量。要着眼未来发展趋势，下好先手棋、抢占制高点，加快产业数字化、数字产业化，不断做优做强做大人工智能等战略性新兴产业链。希望科大讯飞发挥技术及应用领域核心优势，深化战略合作，助力江西打造人工智能、虚拟现实的产业生态体系。', '奇瑞汽车智能网联超级一工厂厂房里，600多台机器人不停挥舞着机械臂，完全自动化实现了车身焊接……代表团成员对奇瑞汽车智能制造留下了深刻印象。大家饶有兴致参观智能汽车产品，体验代表车型。尹弘、叶建春表示，两省要在新能源汽车、智能网联汽车等领域开展全方位合作，以实体经济为本，坚持制造业当家，大力推动制造业高端化、智能化、绿色化发展，以数字赋能“鼎新”带动传统产业“革故”，加快构建现代化产业体系，切实挺起高质量发展的“产业脊梁”。', '区域科技创新能力跃升至全国第7位……在支撑安徽高质量发展的序列中，科技创新稳占“C位”。来到安徽创新馆，尹弘、叶建春等现场观摩一件件创新成果，现场感受科技创新策源地的生机活力。尹弘、叶建春指出，我们要学习借鉴安徽前沿科技研发“沿途下蛋”等好经验好做法，深入推动“政产学研用金”融合，以需求为导向优化科技创新路径，围绕创新链布局产业链，以关键核心技术突破推动产业向中高端攀升。', '在中科院合肥物质科学研究院，代表团成员参观全超导托卡马克核聚变实验装置、稳态强磁场实验装置，对科研人员树立雄心壮志、勇攀科技高峰的创新精神深表钦佩。大家认为，科技是第一生产力、人才是第一资源、创新是第一动力，要瞄准前沿科学和关键技术，主动对接国家级科研院所，加强与安徽协同创新，全力打造创新共同体，立足国家所需、发展所向、江西所能，促进更多科技成果转化为现实生产力，为奋力谱写全面建设社会主义现代化江西增添强大动能。', '19日下午，我省代表团结束安徽学习考察回到南昌，并举行了学习考察小结会。大家结合所见所悟、正视差距不足、理性分析思考。代表团成员表示，要以此次学习考察活动为契机，好好领悟、好好谋划，着眼未来、解放思想，见贤思齐、鼓足干劲，努力把安徽的经验做法学好用好，切实转化为加快我省高质量发展的实际成效。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>124</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>部门动态大余县住建局党组成员到我局学习考察项目材料定价有关工作</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.jxln.gov.cn/lnzf/c104541/202401/3e47569b98494f0285d7ee6b36176015.shtml</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['【部门动态】大余县住建局党组成员到我局学习考察PPP项目材料定价有关工作 | 龙南市人民政府', '1月9日，大余县住建局党组成员赖弥标一行12人到我局学习考察PPP项目材料定价有关工作。我局邀请了市财政局、市城管局、市农业农村局、城控集团参加座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>124</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>市林业局赴福建省三明市南平市学习考察国有林场改革发展工作</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2022-08-11</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/gzszf/c100024/202208/98f2fc7b44ce4cc88044bdfc770eeb3b.shtml</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['学习考察组同福建省沙县官庄国有林场座谈交流 学习考察组同福建省邵武市卫闽国有林场座谈交流 8月9日至10日，市林业局由局长叶日山带队组成学习考察组，赴福建省三明市、南平市学习考察国有林场改革发展工作。 学习考察组深入福建省沙县官庄国有林场、邵武卫闽国有林场，实地考察杉木增效技术集成与示范、现代林业科技示范园区建设、林木良种培育、森林培育、国家战略储备林建设等情况，并围绕国有林场经营管理机制、队伍建设、资源培育与保护、盘活森林资源资产、科技示范与推广等方面，同三明市、南平市林业局和有关国有林场负责同志开展深入交流，认真学习两市林业工作和国有林场改革发展的先进经验。 学习考察组指出，要认真学习借鉴三明市、南平市的管理机制和经验做法，进一步解放思想，创新工作思路和机制，着力推动全市国有林场改革发展实现新突破。要继续抓好国有林场森林经营方案编制运用，强化国有林场经营管理，探索创新激励机制，充分调动国有林场干部职工积极性，持续推动国有林场做大规模、做优质量，实现国有林场发展效益和森林资源培育管理“双赢”。要加大对各县（市、区）的指导监督力度，创新国有林场管理机制，建立灵活高效的国有林场人才队伍建设管理机制，切实激发国有林场发展活力和动力，推动国有林场改革发展取得新成效。 市林业局四级调研员刘立波，国有林场和种苗管理科、森林资源管理科、科技合作科、自然保护地管理科、政策法规和林业改革科负责同志以及赣县区、信丰县林业局和部分国有林场负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>124</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>张霖率队赴上海长宁区学习考察</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2022-03-07</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>https://www.zgq.gov.cn/zgqzf/c116907/202203/1f23670dfe9a4637bfad90801f991968.shtml</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['—6日，区人大常委会副主任张霖率队赴上海长宁区学习考察就基层人大工作室（站）建设、基层立法联系点工作进行了学习考察。考察期间，调研组实地走访上海市长宁区天山街道白领', '驿站、虹桥街道基层立法联系点（虹桥街道古北市民中心）；学习考察组通过察看现场、聆听介绍、质疑问询、个人思考、相互交流等方式进行学习，并与长宁区相关人大工作人员就基层立法联系点等工作进行了深入交流探讨。通过在一线城市的座谈交流和实地考察，调研组成员深受启发、颇有收获，达到了开阔眼界、增进了解、学习经验的目的。', '就基层立法联系点等工作进行了深入交流探讨。通过在一线城市的座谈交流和实地考察，调研组成员深受启发、颇有收获，达到了开阔眼界、增进了解、学习经验的目的。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>124</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>安远县乡村振兴工作领导小组赴兄弟县学习考察</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2023-05-26</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.ay.gov.cn/ayxxxgk/ay1431/202305/0abc671275ec4f01a2bbf855a9ccdd81.shtml</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['5月23日，县乡村振兴工作领导小组赴兄弟县学习考察重点项目推进工作，探寻乡村振兴实践路径。县领导尧章龙、辛梦飞、廖莉莉参加考察。', '考察组一行先后来到宁都县竹笮乡钓洲岛乡村振兴示范点项目和蔬菜基地、松湖村乡村振兴示范点项目、法沙村蔬菜基地、会昌县筠门岭镇营坊村乡村振兴示范点、洞头乡畲族村乡村振兴示范点等地，通过实地参观、听取介绍等方式，对宁都、会昌两地在乡村经济、产业发展、农村环境整治等方面的特色亮点进行观摩学习，深入交流探讨在乡村振兴及重点项目推进工作中的经验做法，为下一步工作开展打开思路。', '考察期间，大家表示，通过考察学习感受到了压力，也鼓舞了干劲，将认真借鉴兄弟县在乡村振兴和农业产业发展等方面的成功经验和做法，立足我县实际，努力补齐短板，持续推动我县乡村振兴工作取得新成效。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>124</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>对接大湾区触摸最前沿大余县教科体局组团赴深圳学习考察</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2023-05-23</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c101062/202305/b10f2d8e3518466f9b76e108ab6f7fdb.shtml</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['首夏犹清和，芳草亦未歇。为进一步学习贯彻党的二十大精神，落实习近平总书记关于深化东西部协作和定点帮扶工作重要指示批示精神，更好地提升学校管理水平、完善教师培养机制、开拓教师眼界，2023年5月7日至11日，大余县教科体局组织部分校长、教师前往深圳市学习考察。', '学习考察团一行先后来到深圳市南山区中国科学院深圳先进技术研究院实验学校、深圳大学丽湖校区、深圳市南山外国语学校（集团）第二实验学校、深圳市前海学校参观学习。每到一所学校，学习考察团认真聆听，仔细观看，详细了解办学特色、教师管理、学校教研、学生管理等方面的典型经验和先进做法。', '采他山之石以攻玉，纳百家之长以厚己。学习考察团成员结合自己的所见、所得、所感，将学习收获记录下来。大家纷纷表示，将会学以致用，不断激发潜能，将学到的新理念与感受内化并科学运用到实践中，在教育教学中不断探寻前行的乐趣和意义。', '登高望远天地宽，风物长宜放眼量。每一次“走出去”都是为了更好地“带回来”，通过本次学习考察活动，大家开阔了眼界，触摸了教育前沿，有力地促进了管理水平提升和教师专业成长。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>124</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>熊小青带队赴北京等地学习考察油茶国检中心建设</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2016-07-26</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449se/201607/073df6702a614f4faa58d0a610972b71.shtml</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['为落实省局《关于同意筹建江西省油茶产品质量监督检验中心的批复》文件精神，经市局研究同意，7月12日至15日，市质监局党组成员、副局长熊小青带队，先后赴国家粮油质量监督检验中心（北京）、中国检验检疫科学研究院、南昌大学食品科学国家重点实验室、江西省粮油监督检验中心考察学习。市质检所负责同志等陪同考察。', '在国家粮油质量监督检验中心（北京），熊小青介绍了此行来意，并重点介绍了赣州市情、区位优势和油茶产业发展现状等。国家粮油中心主任黄燕对熊小青一行表示欢迎，全面介绍了中心建设情况、检验检测资质及项目、市场运营情况等，全程陪同考察各相关重点实验室。之后，双方就赣州建设油茶产品国检中心一事进行了探讨和交流。', '在中国检验检疫科学研究院，熊小青一行参观了检科院荣誉展厅、检验检疫标本馆，实地考察了食品研究所、工业和消费品研究所等，食品所、工业品所相关负责人陪同讲解。在座谈会上，该院副总工程师、食品首席研究员储晓刚、科技管理部主任韩瑞对熊小青一行表示欢迎，并重点介绍了中国检科院科研能力、人才构成以及承担国家重点科技项目情况。熊小青介绍了赣州区位优势、资源优势、政策优势等，希望检科院在油茶国检中心建设和有关科研合作上给予指导支持，并邀请检科院领导方便的时候到赣考察指导。检科院专家对赣州加强主导产业的技术支撑平台建设表示赞赏，并明确表示将组织专家到赣州考察，建立沟通合作机制。之后，熊小青一行还考察了中国检科院综合检测中心（分院区），实地参观了业务受理大厅、检验样品处置室和各类实验室。', '在南昌大学食品科学国家重点实验室、江西省粮油监督检验中心，熊小青一行重点学习考察了各食品实验室先进管理经验，并就油茶产品深加工检验项目，仪器设备选型，实验室环境条件，实验室规划设计、人才结构、项目科研等方面内容，与南大食科实验室、省粮油检验中心负责同志进行座谈交流，双方就建立和发掘更多合作机会达成了一致意见。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>124</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>南安镇领导班子到各乡镇学习考察</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2021-07-19</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/gzszf/c100025/202107/676e58838c664f3e98b97f35521d763f.shtml</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['7月17日，镇党委书记廖俊生，镇党委副书记、镇长提名人选宁琳带领新一届党政班子成员及9个村书记，前往各乡镇考察学习，取真经、明思路、谋发展、开新局。 一是学经验，他山之石可以攻玉。学习团一行先后来到黄龙镇旱田村、池江镇兰溪村、新城镇鱼仙村、樟斗镇双伏村等地进行实地考察，学习宅基地改革试点工作、红色名村建设及人居环境整治的特色亮点，了解学习各乡镇科学规划、就地取材、先行先试、长效管理等方面的经验做法。 二是悟精神，让党员干部敢担当。黄龙镇旱田村充分发挥村级党组织战斗堡垒作用和党员干部先锋模范作用，以党建引领文明实践和乡村治理，发展“庭院经济”打造“智慧宅改”。樟斗双伏村克服基础薄弱的不利条件，硬是靠战天斗地、敢闯敢干的劲头，结合实施乡村振兴战略，转化闲置资源，还原“乡愁”记忆，打造清爽秀美乡村等自力更生、大胆创新、敢闯敢干精神推动大家透过现场看本质，对照自我促提升。 三是明思路，解放思想谋发展。提高认识，进一步解放思想，认真学习借鉴各乡镇的经验做法，工作思路；结合实际，抓紧谋划宅基地改革、红色名村建设等各项工作，将镇党代会精神落地落实；锤炼党性、解放思想、实干担当，用实际行动奋力开启南安工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>124</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>我县组团赴信丰定南学习考察高标准农田建设</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2018-03-01</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c101414/201803/b3364bc53d794c49bcd896454e8eccc7.shtml</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['为学习借鉴兄弟县高标准农田建设好的经验和做法，认真做好我县2018年高标准农田建设项目启动工作，2月27日，县农业开发办主任、县高标办常务副主任领队，一行七人前往信丰、定南学习考察高标准农田建设。考察组一行认真听取了信丰、定南两县高标准农田建设工作有关情况介绍，就各自运作模式和遇到的一些突出问题进行了深入交流探讨，并实地观摩了信丰县、定南县6个标段项目建设情况。考察组对此次考察感悟颇深，回去后将进一步研究，起草适合我县2018年高标准农田建设实施方案，为2018年建设项目尽早启动夯实基础。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>124</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>江西省物流与采购联合会组织赴重庆学习考察</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2016-07-29</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.jxln.gov.cn/lnxxxgk/c100759/201607/4348dd56c4a44346a3bda67159c62f88.shtml</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['6月1-3日，由江西省物流与采购联合会牵头，组织了部分设区市商务主管部门、物流协会、物流企业负责人共31人赴重庆市学习考察。 在重庆考察期间，考察组一行先后参观了重庆西部物流园、重庆永辉物流有限公司、中国西部农产品冷链物流中心、“Q货的”城市物流专属SaaS平台&amp;城市智慧物流资源匹配平台公司、重庆跨境电子商务台湾产业园内的“台湾直购”平台及重庆港务物流集团有限公司寸滩集装箱码头等重点物流企业，与重庆铁路运输、仓配物流、冷链物流、城市配送智慧物流平台、港口口岸运输、跨境电商平台等类型物流企业进行交流对接。通过考察学习，考察组全体成员对重庆市物流企业发展经验和经营模式有了深入的了解。', '在重庆考察期间，考察组一行先后参观了重庆西部物流园、重庆永辉物流有限公司、中国西部农产品冷链物流中心、“Q货的”城市物流专属SaaS平台&amp;城市智慧物流资源匹配平台公司、重庆跨境电子商务台湾产业园内的“台湾直购”平台及重庆港务物流集团有限公司寸滩集装箱码头等重点物流企业，与重庆铁路运输、仓配物流、冷链物流、城市配送智慧物流平台、港口口岸运输、跨境电商平台等类型物流企业进行交流对接。通过考察学习，考察组全体成员对重庆市物流企业发展经验和经营模式有了深入的了解。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>124</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>赣州市人防办主任廖志斌一行赴合肥人防办学习考察</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2014-10-10</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449us/201410/9366a567ae4e4f87ab6423b59fb3f35e.shtml</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['，赣州市人防办主任廖志斌一行赴合肥人防办学习考察。合肥市人防办主任程耀广等领导先后陪同参加相关活动。廖志斌主任一行先后参观考察了合肥火车站地下通道、滨海新区人口疏散基地和合肥市人防指挥所的建设、管理、运行情况。并针对人防指挥通信、工程、地下开发、宣传等工作进行了的交流与探讨。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>124</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>尹弘叶建春率队在广东学习考察</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.ningdu.gov.cn/ndxxxgk/c100730/202304/747c697676c742209c2864e36b249617.shtml</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['4月19日，省委书记尹弘、省长叶建春率队在广东省广州市学习考察，共谋推进高质量发展大计。', '广东省领导王伟中、林克庆、张虎、王曦陪同考察。省领导李红军、史文斌、王少玄、夏文勇参加。', '广东是改革开放的排头兵、先行地、实验区，创造了改革发展许多鲜活经验。尹弘、叶建春率队来到广州佳都科技集团。作为我国专业的人工智能技术产品与服务提供商，佳都科技提供了从基础理论到全场景应用的全栈式人工智能技术产品与解决方案。在企业人工智能展厅，尹弘、叶建春等参观AI赋能城市现代化建设与治理的各个场景实践应用，了解企业发展布局和产品市场。他们希望佳都科技以领先的人工智能技术深化赣粤两地产业与科技协同，围绕智能轨道交通、智慧城市治理等多领域、多业态项目及新兴产业展开全面合作，进一步提升江西城市精细化智能化治理水平。', '进入乐金显示广州制造基地的显示屏展示厅，不同规格、特点的显示屏正展示着它们的特色，常规曲面屏、超宽带鱼屏、自发声显示屏吸引了众人的目光。尹弘、叶建春等认真听取介绍、纷纷驻足观看，详细了解产品性能。他们表示，我们要学习广东坚持制造业当家，聚力发展、聚焦高端，更加注重实体经济发展，推动高水平科技自立自强，打造先进制造业集群，不断塑造发展新动能新优势。作为广州市最大的外商投资项目之一，乐金显示平均每6年投建一座新工厂，其投资进程见证了中国的开放大门越开越大。尹弘、叶建春表示，我们要学习借鉴广东改革开放的好做法好经验，充分发挥江西区位优势，持续推进高水平开放，积极对接粤港澳大湾区建设，主动承接产业转移，大力吸引和利用外资，以改革开放助推高质量发展。', '学习考察期间，尹弘、叶建春等省领导还亲切看望了在粤赣商代表，感谢大家通过各种形式支持家乡建设。尹弘说，大家远离家乡，来到广东打拼，用自己的智慧和汗水，在异地他乡闯出了一番天地，非常了不起。希望在粤广大赣商扎根粤港澳大湾区，彰显新时代赣商的责任担当和境界情怀，发扬光大赣商精神，再现赣商历史荣光；积极投身家乡发展，把更多项目落在江西，把更多资源投向家乡；充分发挥桥梁纽带作用，大力宣传推介江西，为赣粤合作牵线搭桥。尹弘表示，家乡永远是广大赣商的坚强后方。我们将坚定不移支持广大赣商和赣商企业发展，持续优化营商环境，着力构建亲清政商关系，为大家提供更加优质高效的服务，让大家安心创业、创新发展。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>124</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>抚州市考察团在我市学习考察</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2024-04-02</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/wnUzPAHC6uCUjasgh9rJAg</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['3月30日至31日，抚州市委副书记、市长高世文率队在我市学习考察文化产业、科技创新、化工园区建设等方面工作的经验做法。市委副书记、市长李克坚，市领导胡剑飞、何琦分别陪同。', '在会昌县，考察团一行先后来到汉仙温泉项目、江西氟盐新材料产业基地数字大脑、会昌戏剧小镇、和君教育小镇等地学习考察；在于都县，观看了大型文旅史诗《长征第一渡》；在赣县区考察了赣县稀金新材料产业园化工集中区智慧平台、赣州腾远钴业新材料股份有限公司等项目和企业；在章贡区考察了七鲤古镇国际旅游度假区、赣州方特东方欲晓主题公园、重大疾病新药创制全国重点实验室、江西驴充充充电技术有限公司等项目和企业。每到一处，考察团都认真听、认真看，与相关负责人深入交谈，详细了解我市在发展文化产业、推进科技创新、建设化工园区等方面的先进做法和经验，切身感受我市上下一心拼经济拼发展的拼劲、干劲和闯劲。', '考察团对我市全力推进“三大战略、八大行动”，加快建设革命老区高质量发展示范区所取得的成效给予充分肯定，纷纷表示要深入贯彻落实习近平总书记考察江西重要讲话精神和省委、省政府部署要求，进一步解放思想、创新举措、改进作风，学习借鉴好赣州的先进经验做法，奋力推动抚州高质量发展。同时希望两市加强协同发展、联动发展，深化产业发展、文化旅游、科技创新等领域交流合作，携手谱写共赢发展新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>124</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>韩相云曾志平率党政考察团赴六地学习考察</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2021-10-18</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c102342/202110/cf73ef76867748dc99e7d60cd07aa9b7.shtml</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['10月13日至15日，县委书记韩相云，县委副书记、县政府县长曾志平率领我县党政考察团赴上犹、赣县、瑞金、安远、龙南、信丰等六县（市、区）学习考察，学习借鉴招大引强、项目建设、乡村振兴等方面的先进经验做法。', '邓金健、沈宝春、刘耿、刘日辉、张小兰、叶永恒等县四套班子领导，以及各乡（镇）党委书记和相关部门、单位负责人参加学习考察。', '韩相云、曾志平等党政考察团一行在兄弟县（市、区）党政主要领导的陪同下，实地参观考察了上犹县溢联科技有限公司、阳明·国际垂钓基地、阳明湖民宿小镇；赣县区腾远钴业新材料公司、中科拓又达智能装备科技公司、中科院赣江创新研究院、燕南小区老旧小区改造示范区；瑞金市金拉铜箔有限公司、金瑞湾棚户区改造项目、叶坪革命旧址群；安远县夏日风情园、西街坝民俗古街、鹤子镇阳佳村、三百山房车露营基地；龙南经开区展示馆、江西志浩电子科技有限公司、赣州5G智能科技园项目、三南片区“新圳组团”、江西新涛亚克力科技有限公司、里仁正桂民宿村；信丰县大塘埠镇示范点、江西捷配电子科技有限公司、5G科技产业园、粤港澳大湾区“菜篮子”配送中心暨冷链物流园。', '此次学习考察开阔了视野、拓展了思路、学到了经验，各乡镇和相关部门单位要清醒认识到形势的严峻性和紧迫性，立足我县实际，对标先进，找准差距，学习借鉴先进县（市、区）的发展理念、发展思路、发展措施，结合各自工作，理清工作思路，明确攻坚重点，全力推进我县各项社会民生事业再上新水平。', '要充分利用这次难得的学习机会，积极寻找兄弟县（市、区）和我县的契合点，学以致用、用以促学，不断推动我县各项工作取得新突破。要解放思想，创新思维，加强与先进县（市、区）的沟通交流，在实践中不断探索新思想、新方法、新举措，以担当作为、勇立潮头的工作境界和标准，真正把考察学习的成果转化为干事创业的强大动力。', '兄弟县（市、区）创新的发展理念、一流的发展速度、优质的发展成果、赶超进位的精神状态和创先争优的高昂斗志，让考察团成员深深震撼、深受启发、深感压力。', '纷纷表示，在下一步工作中，将认真学习借鉴兄弟县（市、区）的成功经验，以更加开放创新的思维，更加求真务实的作风，更加扎实有力的举措，进一步推动我县经济社会各项事业发展再上新台阶，为建设更高层次实力活力美丽幸福大余而努力奋斗，共同描绘新时代大余改革发展新画卷。', '本公众号推送的原创文章、图片和音视频等，未经允许，其他微信公众号、网站、微博等媒体一律不得转载，否则将追究法律责任。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>124</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>陈群华带队赴上海市松江区学习考察生活垃圾分类工作</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2023-06-21</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449usm/202306/3f6f100ad9144dd0a1982432b83c4048.shtml</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['为深入贯彻党的二十大精神和习近平总书记关于生活垃圾分类工作重要批示指示精神，根据《住房和城乡建设部办公厅关于生活垃圾分类工作“1对1”交流协作机制实施方案的通知》要求，6月19日-20日，市城管局园林环卫管理中心主任陈群华带领市垃分办和中心城区、定南县、崇义县垃分办人员赴上海市松江区学习考察生活垃圾分类工作，上海市松江区绿化市容局党组成员、副局长陆军，松江区垃分办相关同志参加活动。', '在工作交流座谈会上，松江区垃分办主任楼立婧介绍了松江区生活垃圾分类工作开展情况。近年来，松江区从“一个领导小组、两种分类投放模式、三个生活垃圾末端处置厂、社区“四位一体”的联动机制、五大硬件分类设施提升改造、六大运行体系”等方面多措并举，有的放矢，形成了生活垃圾全程分类体系“123456”的成功做法，先后被评为“全国生活垃圾分类示范城市”“全国首批百个农村生活垃圾分类示范区”，全区17个街镇全部获评“上海市生活垃圾分类示范街镇”。在交流互动环节，与会人员从体制机制建设、日常管理考核、设施设备建设运维等方面进行了深入交流探讨，一方乐学好问，一方倾囊相授，思想交流碰撞出智慧火花，“1对1”交流协作结出硕果。', '考察组一行先后来到松江区九亭镇中转站、九里亭街道百丽苑社区、九里亭街道办事处等地，实地学习考察“两网融合”体系建设、低值可回收物有效回收和再生利用、街道（社区）基层组织建设和社区治理等经验做法，还参观了松江区绿化市容一网统管综合管理平台和九里亭街道“一图N景”数字化信息化的管理系统。每到一处，考察组都认真地听取相关负责人的情况介绍，详细交流垃圾分类工作难点问题的破解办法和经验做法，亲身体验到生活垃圾分类大数据平台的方便快捷、全面高效，真实感受到松江区上下联动、齐抓共管、整体推进的工作氛围。', '考察组成员纷纷表示，这次学习考察收获很大，受益匪浅，松江区很多先进做法值得学习借鉴。陈群华主任代表考察组一行，衷心感谢松江区绿化市容局热心招待、精心安排、用心传授，希望以后两地不断加强联络和往来，增进友谊和了解，继续深化“1对1”交流协作机制，共享交流智慧成果，我市将进一步提高思想认识，深入学习贯彻习近平总书记给上海市虹口区嘉兴街道垃圾分类志愿者重要回信精神，学习借鉴好松江区成功经验做法，进一步聚焦问题根源，认清任务目标，强化设施建设，统筹宣传引导，合力推进我市生活垃圾分类工作迈上新台阶，在全国、全省工作排名中实现进位赶超。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>124</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>学经验拓思路促发展上犹考察组赴南康区学习考察</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2022-03-02</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.shangyou.gov.cn/syxrmzfw/c103851/202203/989319d2f1954ff9a66e6d15cc339d72.shtml</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['为学习兄弟县（市、区）在推进发展和改革双“一号工程”，推动数字经济大发展、营商环境大提升等工作的先进经验和典型做法，', '日，县委书记余业伟率考察组深入南康区学习考察。县委副书记、县长钟晓斌，县领导罗晶参加考察。南康区委副书记、区长李赣兴，区政协主席钟恢森陪同。', '在南康区市民服务中心，考察组一行实地察看了大厅布局、各相关业务区域、办事流程、人员配备、软硬环境建设等情况，认真听取南康区在政务服务工作的改革创新和便民服务举措等方面的经验介绍，详细了解了全面深化“放管服”改革、优化营商环境、打造双向开放创新服务平台的相关做法，并重点了解了南康区现代家具全产业链审批改革工作开展情况，现场感受了政务服务标准化建设成果和优秀做法。', '在南康区赣州数字科技产业园，考察组参观了部分园区科技企业，听取企业在数字家居平台整合运营、家居产业智联网建设运营等方面的业务开展情况，认真了解他们在推动数字经济产业发展、技术创新和产品应用等方面取得的成果。', '看示范、问发展、聊变化、谈创新，每到一处，考察组一行都认真听、仔细看，不时与工作人员互相交流，认真学习南康区在平台建设、产业规划、运营管理、招商引资、服务企业、人才引进、产业链打造等方面的先进经验和做法，切身感受南康区经济社会发展的强劲动力。', '余业伟表示，南康区立足产业基础和区位优势，通过不断优化营商环境、推进数字经济发展，全力推动以家具为主导的产业集群壮大规模、延链补链，经济结构不断优化、优势产业加速聚集、质量效益稳步提升，先进经验和做法值得上犹各相关部门单位充分学习借鉴。', '余业伟指出，此次学习考察，进一步开阔了眼界、更新了观念、解放了思想，我们要对标先进，把兄弟县（市、区）的好做法、好经验和上犹实际紧密结合，要找准比较优势，深入推进双“一号工程”，不断提升上犹经济发展质效。要在优化营商环境上持续发力，推进政务服务改革工作，创新审批服务模式、提高审批效率；要在推进数字经济上不遗余力，认真谋划研究上犹今后的发展，强化数字平台建设和关键技术支撑，以数字化精准赋能产业链发展；要在招大引强上主动出击，高位推进、长远谋划一批项目，认真做好规划，推动上犹经济社会高质量跨越式发展。', '返犹后，考察组一行还来到豪角宗地和上犹中学南湖校区附近相关地块，余业伟现场调度了相关项目规划建设工作。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>124</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>赣州市党政考察团在福州学习考察</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2022-06-08</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.chongyi.gov.cn/cyxxxgk/cy78175/202206/1b3dca7a744a4dafbcb4392ae2a55354.shtml</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['月27日是我市党政考察团在福建省学习考察的第三天，吴忠琼率团来到此行的最后一站福州。', '月27日，我市党政考察团在福州学习考察，现场感悟习近平在福州的创新理念与生动实践，学习借鉴福州市在城市建设管理、生态环境保护、历史文化街区保护与开发等方面的先进经验。其间，福建省委书记、省人大常委会主任尹力亲切会见了江西省委副书记、赣州市委书记吴忠琼率领的党政考察团一行。尹力对我市提出的加快推进两地高铁项目建设、推动“闽赣异步联网”工程等基础设施互联互通，以及产业发展互补互助、科技人才互动交流等合作事项表示支持。他指出，闽赣两地山水相连、文脉相通、人缘相亲，是情谊深厚的好邻居、优势互补的好伙伴，两地加强交流合作空间很大、前景广阔。希望两地常来常往，进一步推动两地交流合作，实现共赢发展。', '福建省委常委、福州市委书记林宝金，福州市委副书记、市长吴贤德，福州市领导张定锋、朱训志分别陪同。赣州市领导何琦、孙敏、陈水连参加活动。', '福州是习近平新时代中国特色社会主义思想的重要孕育地和先行实践地。走进福州城市规划展示馆，考察团一行参观了《习近平在福州的创新理念与生动实践》主题展，现场回顾了习近平同志为福州擘画的“3820”战略工程、闽江口金三角经济圈、海上福州、现代化国际城市等四大发展蓝图，重温了习近平同志在福州工作期间推进改革开放和现代化建设的重要理念和创新实践。', '吴忠琼说，习近平总书记在福州工作期间进行的一系列具有前瞻性、开创性、战略性的创新理念和重大实践，充分体现了人民领袖的高瞻远瞩、为民情怀、历史担当和务实作风，为我们留下了宝贵的思想财富、精神财富和实践成果。我们要自觉做习近平新时代中国特色社会主义思想的忠实践行者，传承红色基因、强化使命担当，乘势而上加快建设革命老区高质量发展示范区。步入福州城市规划建设展厅，考察团一行深入了解福州文化与福州规划，大家表示要学习借鉴福州市的好经验好做法，不断提升城乡规划建设水平。', '福州福道贯穿五大公园，实现了市中心景观与山野闲趣相融合，让市民在家门口尽享绿色福利。考察团一行来到福山郊野公园，登上福道实地了解城市绿道规划建设运营等情况。满眼景色秀美如画，人性化设计随处可见，大家边走边看，赞叹沿线设置的亲子游园、森林书吧、充电站等设施充分体现了“生态、便民、健身、休闲、共建、共享”的理念。大家切身感受到福州城市规划建设的大格局、大手笔、大力度，表示要认真学习借鉴福州的先进经验，规划建设山体郊野公园，让市民生活更精彩，让城市品质再提升，不断增强人民群众的获得感幸福感。', '三坊七巷历史文化街区是国内现存规模较大、保护较为完整的历史文化街区之一，基本保留着唐宋时期的坊巷格局，被誉为“里坊制度的活化石”。考察团一行走进街区，实地察看历史建筑、名人故居、特色展馆等，深入了解历史文化街区的保护与开发情况。行走在三坊七巷，穿越古今，大家深切感受习近平同志在福州任职期间力主保护文物古建的战略考量，为三坊七巷引入各类非遗及创新文化经济业态，实现“活化利用”点赞。大家表示，要认真学习借鉴福州高起点规划建设、高标准保护修复、高水平招商运营的好做法，立足自身文化禀赋，加快赣州宋城文化旅游核心区的打造，扎实推进我市历史文化街区保护开发各项工作，让千年宋城赣州彰显古城风貌，焕发时代新活力。', '考察团一行边考察边交流，边学习边思考，两天半的行程紧凑高效、感触很多、收获满满。大家认为，此次行程不仅是一次合作交流、招商引资之行，更是一次现场学习、切身感受习近平新时代中国特色社会主义思想在福建生动实践的修心之旅。大家纷纷表示，要更加深刻领悟习近平在福州的创新理念与生动实践所蕴含的思想精髓，深入学习贯彻习近平总书记视察江西和赣州重要讲话精神，认真学习福建干部群众爱拼敢赢精神，借鉴福建省改革发展的好经验好做法，以等不起的紧迫感、慢不得的危机感、坐不住的责任感，聚焦“作示范、勇争先”目标定位，深入实施“三大战略、八大行动”,努力把学习考察成果转化为加快推进革命老区高质量发展示范区建设的实际成效，以优异成绩迎接党的二十大胜利召开。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>市政府发展研究中心调研组在合肥襄阳学习考察</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2023-12-18</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449b/202312/92f9b44ae35d4650b73837bd07564520.shtml</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['为学习城市建设、工业发展和智库建设等方面的经验做法，12月13日至15日，市政府发展研究中心调研组在安徽省合肥市、湖北省襄阳市学习考察，各县（市、区）发展研究中心负责同志参加。', '在合肥市，调研组一行实地参观城市建设情况，听取相关部门情况介绍。调研组认为，合肥市近年来经济社会发展取得显著成效，在城市建设等方面有许多好经验、好做法，值得赣州学习借鉴，要发挥发展研究部门工作职责，助推赣州发展取得新进步。其间，调研组还参观了渡江战役纪念馆，现场感受革命先辈为人民打江山、谋解放的坚定意志和无畏精神。', '在襄阳市，调研组深入比亚迪襄阳产业园、东风汽车纳米科技有限公司考察，详细了解企业生产经营、产业配套等方面情况，听取襄阳市推进项目建设、招商引资等做法介绍。调研组认为，襄阳市工业基础好、势头足，服务企业措施有力、效果很好，作为赣州的对标学习城市，我们要加强向襄阳市学习，将襄阳好做法、好经验学习应用于全市实施产业链现代化“7510”行动计划中，努力服务全市工业倍增升级行动。同时，调研组还参观考察了中国唐城、襄阳古城等文旅项目建设，了解当地因地制宜、发挥优势推动文旅融合发展的相关做法。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>124</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>新余市环境卫生管理处来我市学习考察建筑垃圾管理工作</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2022-06-10</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://cgj.ganzhou.gov.cn/gzscsgl/c102862/202206/838da959576f44ae9eafbfc77d1151bc.shtml</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['6月9日，新余市环境卫生管理处一行7人来我市学习考察建筑垃圾管理工作，市城管局园林环卫管理中心主任陈群华、副主任聂敏、副主任王仪俊及相关人员陪同考察。', '6月9日下午，我中心与学习考察组一行在赣州市中心城区建筑垃圾资源化利用处理场及水西弃土场工程PPP项目建设工地办公室召开交流座谈，中心领导详细介绍了目前我市中心城区建筑垃圾的运输处置现状，渣土、建筑垃圾收费管理及政府补贴政策，具体介绍了我市中心城区建筑垃圾资源化利用处理场及水西弃土场工程PPP项目的建设情况及建成后的工作运行机制，并从顶层设计、政策扶持、宣传教育等角度就推进建筑垃圾资源化利用工作提出了见解。同为建筑垃圾管理主管部门，双方还就如何加强对建筑垃圾的管理工作进行了深入交流与探讨。', '通过考察学习和互动交流，新余市环境卫生管理处学习考察人员表示，赣州市建筑垃圾管理的工作经验和做法值得我们借鉴和学习，希望今后两地能进一步加强建筑垃圾管理的交流合作，实现信息共享，促进两地建筑垃圾管理工作实现新发展、取得新成效。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>124</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>江西统一战线考察团在重庆四川学习考察</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2019-10-24</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.jiangxi.gov.cn/art/2019/10/24/art_393_810238.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['10月21日至23日，省委常委、省委统战部部长陈兴超率江西统一战线考察团在重庆、四川学习考察。孙菊生、李华栋、谢茹、汤建人、刘晓庄参加考察。', '10月22日下午，重庆市委副书记任学锋在重庆会见了考察团一行。重庆市委常委、市委统战部部长李静，四川省委常委、省委统战部部长田向利分别陪同。', '考察期间，陈兴超与各位党外代表人士围绕“不忘合作初心，继续携手前进”主题开展了谈心活动，并率考察团成员参观了重庆红岩村、周公馆和中国民主党派历史陈列馆等，感悟初心使命，接受精神洗礼，重温中国共产党与各民主党派、无党派人士肝胆相照、砥砺前行的光辉历程和伟大成就。在四川省广安市，参观了邓小平故居，并向邓小平铜像敬献花篮、鞠躬致敬。', '重庆是统一战线的重要发祥地之一，见证了中国共产党与各民主党派同舟共济，共建抗日民族统一战线的历史。陈兴超指出，在全省上下深入学习贯彻习近平总书记视察江西重要讲话精神和各民主党派、无党派人士深入开展“不忘合作初心，继续携手前进”主题教育活动之际，我们这次来到重庆和四川，就是要把两地的好经验好做法带回去，把统一战线独特作用和宝贵经验传承好、学到家，进一步弘扬红色精神、汲取前行力量，树牢“四个意识”、坚定“四个自信”、坚决做到“两个维护”，充分发挥统一战线法宝作用，最大限度凝聚广泛共识、汇聚智慧力量，为描绘好新时代江西改革发展新画卷作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>124</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>赣州市医疗保障局赴徐州苏州学习考察</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2021-05-11</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/zCdRCplkCuFDOadJwoE9bg</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['为深入贯彻习近平总书记关于“守好百姓救命钱、看病钱”的指示精神，认真落实省医疗保障局关于加强信息化建设、提升基金监管水平工作要求以及市委市政府“三大战略”、“六大主攻方向”，全力推动我市医疗保障事业高质量发展。', '4月26日至29日，赣州市医疗保障局党组书记、局长薛斌率相关科室及分局负责人赴江苏省徐州市、苏州市学习交流，通过现场走访经办大厅、两定机构、观摩数据中心以及座谈等形式，交流了信息化建设、基金监管和经办服务等工作，并就赴赣州开展党史学习教育、红色文化教育达成了共识。', '在徐州市，薛斌一行实地参观了经办大厅、数据检测中心、数据挖掘中心以及业务结算中心，详细了解了医保智能信息化建设、大数据、视频监控和指纹识别在打击欺诈骗保上的应用，并先后考察了徐州医科大学第一附属医院、徐州仁慈医院和部分定点零售药店。', '徐州市医疗保障局党组书记、局长纪杰，党组成员、副局长余玲分别介绍了徐州市医疗保障局自组建以来机构人员职能以及信息化建设、基金监管等方面情况，与会人员就如何推动大数据信息化建设及信息化建设向纵深发展和深度应用、进一步提升执法办案质量进行了深入探讨交流。', '薛斌表示，徐州市医疗保障局很多理念非常值得我们学习，要多学习徐州的信息化、数据可视化和规范化先进经验，不断加强我市医保基金运行风险防范，切实提高医保基金监管能力和服务能力。', '在苏州市，薛斌一行参观了经办大厅，详细了解了医保业务经办服务流程，来到相关定点医药机构了解了分级管理情况，听取了有关介绍，并与苏州市医疗保障局主要领导及有关负责同志进行了座谈。', '座谈期间，苏州市医疗保障局党组书记、局长陈建民对赣州市医疗保障局一行来苏表示欢迎，并详细介绍了苏州市医疗保障局近年来的工作情况和特色亮点，以及长三角医保区域一体化、基金监管、经办管理等工作开展情况。', '薛斌表示，苏州市医疗保障局在信息化建设和创新方面有很多先进的经验，我们这次来学习交流，为以后进一步做好我市医疗保障工作找差距、补短板、促提升，我们要认真学习借鉴苏州市在基金监管等方面先进经验，加强事前、事中监管，进一步把各项工作提高到一个新水平，推进国家和省各项试点在赣州顺利实现。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>124</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>九江市柴桑区学习考察团在我县考察学习</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2018-02-02</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>https://www.yudu.gov.cn/yudu/jryd/201802/2e1a0c0e910d4881bfde6c8b4a3d432f.shtml</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['日，九江市柴桑区区委常委、农工部部长孙卫东带领该区考察团一行，到我县考察学习现代农业示范园投融资、园区管理和产业扶贫工作的先进经验和有效做法。县人大常委会副主任邓晓斌陪同考察。', '考察团来到梓山镇万亩富硒蔬菜产业基地，通过看现场、听介绍、详细了解了我县现代农业规划建设情况，并进行了现场交流。', '考察团成员对我县现代农业工作取得的成绩给予高度评价，一致认为，我县聚焦蔬菜农业首位产业，围绕1+2+N产业定位，工作思路清晰，定位准确，产业规划科学合理，值得推广学习。回去以后将以此次参观学习为契机，把这种精神和好的做法带回去，制定出符合柴桑区现代农业发展的有效措施，提高科技创新能力，加快推进新产品产业化，使现代农业成为柴桑区的特色产业。(丁加辉)', '考察团成员对我县现代农业工作取得的成绩给予高度评价，一致认为，我县聚焦蔬菜农业首位产业，围绕', '产业定位，工作思路清晰，定位准确，产业规划科学合理，值得推广学习。回去以后将以此次参观学习为契机，把这种精神和好的做法带回去，制定出符合柴桑区现代农业发展的有效措施，提高科技创新能力，加快推进新产品产业化，使现代农业成为柴桑区的特色产业。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>124</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>吉安市峡江环卫所到大余学习考察</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2018-11-06</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c100326/201811/46fec194997d4740bfa2ce021ead53d1.shtml</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['11月2日上午吉安市峡江县一行8人到大余县考察，主要是考察生活垃圾卫生填埋场的处理技术并到填埋场进行实地考察参观。第二是学习卫生外包工作的事项。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>124</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>他山之石可以攻玉崇仙乡领导干部赴全南县学习考察</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2022-01-14</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.jxxf.gov.cn/xfxxxgk/c101198/202201/fa933ba492884eed8c092fe74b163047.shtml</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['1月7日，崇仙乡组织在家的班子成员、全体村书记一行20余人外出学习考察，先后到全南县城厢镇镇仔村、城厢镇黄埠村、天龙山景区等地，学习考察基层党建、乡村振兴、产业发展、乡村旅游开发等方面的经验做法，增进交流互鉴。', '首先抵达全南县城厢镇镇仔村，学习考察基层党建、乡村振兴、产业发展等工作，参观村部、攀岩小镇、“国学堂”示范点、江禾田园综合体。', '紧接着来到城厢镇黄埠村，通过听取介绍、互动交流的形式，详细了解了城厢镇在产业发展、人居环境整治等方面的工作做法和取得的成效。大家都说城厢镇积极发动群众自觉参与“五净一规范”，下大力气整治好、巩固好农村环境，大力促进产业发展，全面推进农民增收致富的做法非常值得学习和借鉴。', '最后来到天龙山景区考察乡村旅游产业，详细了解了全南县在景区建设、运营管理等方面的做法和取得的成效，大家纷纷表示应该学习全南县的先进经验、把他们好的做法运用在山坝渔村的开发建设运营上。', '通过实地考察，收获颇丰、备受启发，回去以后要认真研究、归纳总结、充分吸收和借鉴全南的好经验、好做法，并将这些好经验、好做法运用到实际工作中，推动崇仙各项工作实现高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>124</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>区党群工作部赴瑞金市学习考察新业态新就业群体党建工作</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2022-08-24</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://gzjkq.ganzhou.gov.cn/jkqxxgk/c110034/202208/32e95534271640a4885942211c4321d0.shtml</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['区党群工作部赴瑞金市学习考察新业态新就业群体党建工作 | 经济技术开发区管委会信息公开', '8月24日，区党群工作部分管同志赴瑞金市学习考察新业态新就业群体党建工作。在听取情况介绍后就快递、网约配送、外卖送餐、道路货运、网约车平台等领域的新业态企业党建工作进行了交流学习，并实地考察了城北社区爱心驿站。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>124</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>南康区人防办莅临我局学习考察人防工作</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2022-03-04</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.jxln.gov.cn/lnxxxgk/c100603/202203/8307473e696241b684d964cc1ef88e3c.shtml</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['3月3日，南康区人防办分管领导蒙金平同志带队一行4人，莅临我局学习考察人防工作。考察组一行参观了龙南阳明中学人防工程，并就人防工程建设、工程维护管理及人防疏散地域建设等问题进行了探讨交流，大家认为今后要加强沟通学习，提升人防整体建设水平。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>124</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>市林业局赴吉安市宜春市学习考察国有林场改革发展工作</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2022-06-27</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://lyj.ganzhou.gov.cn/gnlyw/c102331/202206/90102e4aca304d09b14ccf520308581f.shtml</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['6月21日至23日，市林业局由局长叶日山带队组成学习考察组，赴吉安市、宜春市学习考察国有林场改革发展工作。 学习考察组深入吉安市永丰县官山林场、吉水县石阳林场、新干县黎山林场和宜春市樟树市试验林场、万载县森工总场，实地参观国家战略储备林建设、林木良种基地、国有林场场外造林、珍贵树种培育、杉木大径材培育、森林旅游、林下经济发展等情况，并围绕机构改革后国有林场主体功能定位、人财物保障、林场在新发展阶段中的担当作为等，同吉安市、宜春市的市、县林业局和有关国有林场负责同志开展深入交流，认真学习两市激发国有林场活力、提升国有林场生产经营管理水平的工作模式和经验做法。 学习考察组指出，当前赣州市国有林场改革发展存在一定制约因素，要在全面掌握全市情况的基础上，认真学习借鉴兄弟市（县）的经验做法，创新国有林场改革发展体制机制，进一步激发国有林场改革发展活力，充分发挥国有林场在森林资源培育、保护和适度利用方面的示范引领作用。要认真消化学习考察成果，结合实际深入研究思考，强化对国有林场改革发展工作的管理和指导，督促推动各县（市、区）开阔思路、创新举措，持续加强对国有林场的监管考核，提振国有林场改革发展精气神，推动国有林场变“压力”为“动力”，提升国有林场生产经营和管理水平，努力实现新一轮改革发展。 市林业局四级调研员刘立波，国有林场和种苗管理科、政策法规和林业改革科负责同志以及上犹县、安远县、崇义县林业局和部分国有林场有关负责同志参加学习考察。 作者： 审核：（黎林华 简国林）']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>124</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>华晓斌带队赴深圳对接对口合作事宜并学习考察民政工作</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2023-04-27</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449p/202304/ceb9577bd875453bb15fea0f090a963e.shtml</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['为深入贯彻落实市委、市政府关于深赣对口合作决策部署，加快推进赣州市与深圳市民政领域对口合作走深走实，4月24日至26日，赣州市民政局党组书记、局长华晓斌带队赴深圳市对接对口合作事宜以及学习考察民政工作。', '华晓斌一行先后到罗湖区水贝社区长者服务中心、深圳市未成年人保护中心、宝安区新安街道长者服务中心、深圳市任达爱心护理院实地考察，并与深圳市民政局座谈交流，共商对口合作事宜。双方民政部门表示，深圳和赣州山水相通、人文相亲，两地历来交往频繁、合作密切，具有良好的合作基础，赣深民政部门建立对口合作，有利于助推两地民政事业实现高质量发展。双方将不断拓展对口合作的广度和深度，在建立交流合作机制、推动党建结对共建、实现信息共建共享、构建合作发展平台、开展干部人才交流、强化改革创新成果交流、推动社会组织帮扶、加强慈善品牌创建等方面加强对口合作，实现优势互补，共赢发展。', '期间，华晓斌一行还先后到深圳市龙岗领创天下创业园、深圳任达集团和深圳市江西南康商会开展招商引资活动。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>124</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>大余县赴广东省学习考察城镇精准扶贫和时间银行健康养老</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2018-02-14</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c101318/201802/18641ebda8194195a55374d36222d3a8.shtml</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['为学习借鉴外地在城镇精准扶贫和“时间银行”健康养老方面的先进经验，大余县成立由县委副书记、政协副主席为组长、县民政局、南安镇政府等相关部门负责同志为成员的学习考察团，2月6日至8日，学习考察团一行11人赴广东省江门市新会、鹤山、以及广州市南沙区等地学习考察城镇精准扶贫和“时间银行”健康养老方面的管理方式、方法，运营模式、成果及先进经验。学习考察开阔了干部视野，更新了思想观念，有利于推进城镇精准扶贫、“时间银行”健康养老工作，助推大余经济社会发展繁荣。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>124</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>大余新闻曹爱珍率我县党政考察团赴瑞金市学习考察</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2018-05-22</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c100838/201805/6f2147cdc90148d992fc4f7f03358707.shtml</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['，县委书记曹爱珍率党政考察团赴瑞金市叶坪乡山歧村、朱坊村等地，学习考察两地精准扶贫、村庄环境卫生整治和乡村旅游等工作。', '在瑞金市委副书记曾平，市委常委、常务副市长曾宪柏的陪同下，县委书记曹爱珍，县委副书记、县长钟旭辉，县委副书记邓增顺，县委常委、组织部长包礼斌，县委常委曹森等考察团一行先后来到叶坪乡山歧村、朱坊村和九丰极地世界海洋馆等地，通过参观考察现场、听取汇报、互动交流等多种形式，详细了解了瑞金市在精准扶贫、基础设施建设、村庄环境卫生整治、乡村旅游发展等工作中的好经验、好做法。', '据介绍，在精准扶贫工作中，瑞金市叶坪乡以问题为导向，对照贫困村退出的九大指标以及贫困户退出的“一收入、两不愁、三保障”，有针对性地开展工作，结合地域优势，引进龙头企业，利用现有资源，多途径壮大村级集体经济，发展特色扶贫产业。同时通过开展乡风文明行动，激发贫困户的内生动力，转变思想观念，调动贫困户的积极性，让广大群众主动参与，实现脱贫致富和村庄环境卫生整治可持续发展。', '曹爱珍对叶坪乡打好脱贫攻坚战的经验方法和取得的脱贫成效表示赞赏，认为瑞金市的精准扶贫工作准确把握了扶贫重点，最大限度挖掘、运用了各方面的资源和力量，脱贫攻坚蹄疾步稳，特别是在产业带动、环境整治、工作机制建设等方面亮点纷呈，今后要进一步加强交流学习，借鉴成功经验，全力推进大余精准扶贫工作。', '曹爱珍在考察时要求，要把瑞金市脱贫攻坚工作的好经验、好做法认真学习、梳理、总结、消化吸收，进一步转变思路理念、拓宽方法路径，针对当前存在的突出问题，找准突破口，迎难而上、艰苦奋斗、创新机制、扎实工作，以时不我待的劲头、决战必胜的勇气、务实管用的措施，切实把脱贫攻坚作为一项硬任务、硬要求，抓紧抓实抓到位，让贫困群众早日实现脱贫致富。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>124</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>庄埠乡组织乡村干部到兄弟乡镇学习考察</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2022-02-28</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.huichang.gov.cn/hcxxxgk/hc891/202202/9868a7ac57c34b4aafb951b15a0cc7e7.shtml</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['为拓宽视野思路，激发干事热情，进一步推动庄埠乡村振兴工作发展，2月20日下午，庄埠乡党委副书记、乡长郭世生带队，组织党政领导班子和各村(居)支部书记共计20余人，到兄弟乡镇考察学习。', '考察团一行先后来到小密乡圩镇、富硒产业园、杉背村，白鹅乡梓坑家园，珠兰乡祠堂下村、上照村澳洲龙虾基地。每到一处考察团成员都仔细看、详细听，边讨论，边思考，深入了解兄弟乡镇在“五美”乡村建设示范点、圩镇建设、环境整治、产业培育等方面的先进做法。', '大家一致认为，此次考察学习开阔了眼界，学到了经验，将以本次考察学习为契机，并紧密结合庄埠乡村情实际，探索出一条适合“美丽庄埠”建设的乡村振兴之路，为打造“三地一城”、建设“独好会昌”贡献庄埠力量。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>124</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>我县党政考察团赴抚州宜黄资溪等地学习考察</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2018-05-16</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c101638/201805/25823377bc4e40e28a3e79ac968d094e.shtml</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['5月11日至12日，我县党政考察团赴抚州、宜黄、资溪等市、县，学习考察全域旅游、美丽乡村建设、高标准农田建设等工作的好经验、好做法。 县委副书记、县长钟旭辉，县委副书记邓增顺，县委常委曹森等县领导出席考察活动。各乡镇党委书记及有关部门单位负责人随团考察。 11日，在宜黄县委副书记颜建平，县委副书记、副县长施晨艳的陪同下，钟旭辉一行先后参观了宜黄县帘前村、白槎村、农禅小镇、曹山景区。参观了抚州城区三翁花园、智慧旅游展示馆、文昌里历史文化街区。每到一处，考察团成员都仔细看、认真听、详细问，了解抚州市和宜黄县在全域旅游和美丽乡村建设方面的创新举措和成效。 钟旭辉表示，抚州依托底蕴深厚的临川文化和优美的自然生态环境，创新思路，科学谋划，以山水为载体、以文化为灵魂，大力发展全域旅游，形成了“百花齐放”“百景争艳”的良好态势，值得大余学习、思考和借鉴。 12日，在资溪县委书记吴建华的陪同下，考察团一行参观了大觉溪、大觉山景区，详细了解景区项目建设、经营发展模式、辐射带动作用、旅游收入等情况。资溪县结合自身实际，充分发挥生态优势，大力挖掘旅游资源，实现旅游产业不断发展壮大和经济社会全面发展，给我县考察团成员留下了深刻印象。 大家纷纷表示，通过此次考察，开阔了眼界，增长了见识，激发了干劲，将认真借鉴资溪县推进旅游产业发展的好经验、好做法，更好推进全县旅游产业发展迈上新台阶。 在广昌县副县长吴冬秀的陪同下，考察团一行还考察了广昌旴江镇高标准农田项目建设，深入了解广昌县在高标准农田建设等方面取得的好经验、好做法。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>124</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>广东省民政厅厅长卓志强一行在赣州学习考察</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2023-03-10</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>http://mzw.ganzhou.gov.cn/gzsmzjy/tzgg/202303/2c817d91db7f4eef9cf0d2d3d47fbd63.shtml</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['3月7日-9日，广东省民政厅厅长卓志强、副厅长聂元松、区划地名处处长陈爱兵、养老服务处二级调研员程红伶、办公室副主任谭钊明、河源市民政局长黄亿芳、梅州市民政局长王健等一行在我市学习考察养老服务、地名管理等工作。江西省民政厅党组书记、厅长李明生，厅党组成员、副厅长李晖，区划地名处处长吴新传、养老服务处二级调研员陈剑锋，赣州市委副书记、统战部部长熊运浪，市政府副市长罗瑞华、市政协原副主席孔刃非、市政府副秘书长李正鹏，市民政局党组书记、局长华晓斌，市民政局党组成员、副局长康仁禄等分段陪同考察。', '卓志强同志一行深入章贡区、南康区、于都县、瑞金市，先后实地考察了赣州国投天同官园里康养园、南康区龙岭敬老院、南康蟠桃园老年公寓、于都县岭背镇敬老院、于都县贡江镇红峰村、梓山镇潭头社区农村互助养老点、瑞金市叶坪红色康养小镇等养老机构和康养项目，详细了解我市养老服务特别是“1+1+N”农村养老服务体系建设、特困失能人员的集中照护、乡镇敬老院的改造提升以及农村互助养老服务、旅居养老、地名管理等工作，与相关负责人进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>124</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>吉安市青原区学习考察团深入章贡区调研火灾隐患治理工作</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2019-04-17</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://www.zgq.gov.cn/zgqxxgk/c109054/201904/35805fe91e224bcab9390c82b28e86a0.shtml</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['4月16日上午，吉安市青原区委常委、常务副区长龙蛟率学习考察团深入章贡区调研赣南贸易广场火灾隐患治理工作，章贡区委常委王子康，东外街办、城管、市监、消防等部门主要领导陪同考察调研。', '龙蛟副区长一行实地查看了赣南贸易广场“三合一”场所整治和火灾防控措施情况，以及消防设施器材配置和小型消防站、单位微型消防站等建设情况。随后，考察团一行与章贡区各单位主要领导进行了座谈交流，认真听取了章贡区政府关于赣南贸易广场火灾隐患整治的经验介绍，并围绕贸易市场火灾隐患治理中存在的重点、难点问题进行了深入交流和探讨。', '通过此次考察调研，进一步加强了双方各项工作的交流与合作，达到了取长补短、互学共进的效果，有力推动了各项工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>124</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>婺源县考察团到我县学习考察丫山乡村旅游示范点建设</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2018-07-09</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxzf/c104368/201807/ec9af66d204848a587bbb94d3fda89cd.shtml</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['7月4日至5日，婺源县考察团到我县学习考察丫山乡村旅游示范点建设。 在县委副书记、县长钟旭辉，县人大常委会副主任周红英，副县长邹隆春的陪同下，婺源县委副书记、县长吴云飞一行先后来到丫山乡村旅游示范点、丫山民宿、九成山舍等地参观考察，听取丫山A哆乡村、A哆森林规划、建设、运营和发展情况介绍，了解了丫山景区的整体规划、旅游模式和发展思路，考察了解了我县发展乡村旅游的经验做法和我县重点旅游项目规划建设情况。 丫山景区充分发挥生态优势，围绕原生态的秀美景色和“乡、土、野”的乡村风情，突出主题，打造基地，营造氛围，走出了一条生态保护与旅游产业发展良性循环之路。短短几年时间，就打造成为了一处集健身、娱乐、休闲、探险、观光、度假、养生、修心为一体的综合性生态旅游景区。 这一系列行之有效的做法得到考察团一行的高度评价。大家一致认为，我县乡村旅游发展思路新、定位准、速度快，符合绿色生态的发展趋势，令人耳目一新，深受启发。大家表示，婺源县生态环境优美、旅游产业底子好，要充分借鉴大余乡村旅游发展的好经验、好做法，结合婺源实际，利用好资源，理清思路、合理规划，全面推动婺源县旅游产业发展。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>124</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>尹弘叶建春率我省党政代表团在江苏学习考察</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2023-12-08</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://www.jiangxi.gov.cn/art/2023/12/8/art_395_4706659.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['12月7日，省委书记尹弘、省长叶建春率江西省党政代表团在江苏南京、苏州等地学习考察，并与江苏省举行会谈交流，认真学习江苏好经验好做法，推动赣苏合作向更高层次、更宽领域迈进。', '江西省领导吴忠琼、李红军、任珠峰、庄兆林、谢茹，江苏省领导沈莹、张爱军、韩立明、刘小涛、储永宏、马欣、姚晓东出席有关活动。', '尹弘、叶建春代表江西省委、省政府向江苏长期以来给予江西的支持帮助表示感谢。尹弘说，江苏是经济大省、科教文化大省，是我国现代化建设的排头兵和标杆。近年来特别是今年以来，江苏深入贯彻习近平总书记考察江苏重要讲话精神，全面落实“四个走在前”“四个新”重大任务，推动经济社会发展取得显著成效。江西和江苏同饮长江水，渊源深厚、交往频繁。习近平总书记时隔四年再次亲临江西考察，提出了“走在前、勇争先、善作为”的目标要求，赋予了江西新的时代重任。我们真诚希望强化两省战略协作，密切往来交流，支持江西成为长三角一体化发展的战略腹地，共促长江经济带高质量发展；加强产业互补，推进装备制造、新材料、生物医药等产业协作配套，积极承接江苏产业转移，助力江西产业升级；深化创新协同，鼓励更多科教资源、创新人才支持老区发展，携手共促科技成果转化落地；加强文化交流交融，促进文旅合作向更高水平迈进，共同开创新时代赣苏合作新局面。', '信长星、许昆林代表江苏省委、省政府对江西省党政代表团的到来表示欢迎，对江西长期以来给予江苏发展的大力支持表示感谢。信长星说，江西不仅人杰地灵、区位优越，更是革命摇篮、红色热土，孕育了伟大的井冈山精神、苏区精神和长征精神，在国家发展大局中战略地位十分重要。近年来，江西深入贯彻落实习近平总书记考察江西重要讲话精神，大力实施高质量发展首要战略，经济社会发展取得新成就，许多好经验好做法值得我们认真学习借鉴。习近平总书记和党中央对苏赣两省高质量发展、现代化建设都寄予厚望，既是我们做好各项工作的根本遵循，也是深化交流合作的方向指引。我们将与江西一道，聚焦国家重大战略实施，充分发挥各自区位、功能、平台等优势，加强协同发展、联动发展，围绕重点产业延链补链、科技创新、长江生态保护、文化旅游、能源资源等方面拓宽合作领域、提升合作层次、丰富合作成果，在新征程上谱写苏赣合作共赢新篇章，为推进中国式现代化作出更大贡献。', '在苏期间，尹弘、叶建春等代表团成员实地感受了江苏现代化建设的强劲脉动。苏州工业园创造了“一张蓝图绘到底”的成功典范，开放发展取得了举世瞩目的成就。尹弘、叶建春等来到展示中心，深入了解园区规划建设和发展情况，强调要学习苏州工业园先进理念和经验，坚持高水平规划引领、高质量产业培育，持续深化我省开发区改革和创新发展。苏州华兴源创科技公司深耕半导体检测设备领域自主创新，是我国科创板第一家上市企业，尹弘、叶建春等对企业以创新不断赢得竞争新优势表示赞赏，希望加强科技创新合作，助力江西电子信息等特色优势产业发展升级。在南京南瑞继保电气公司，尹弘、叶建春听取公司有关情况介绍，实地考察智能生产车间，希望加强产业对接协作，推动江西制造业转型发展。江苏省产业技术研究院勇拓科技体制改革“试验田”，一头连着科研、一头连着市场，转移转化成果7000多项，尹弘、叶建春等表示，江苏产研院通过把行业技术需求“引上来”，让创新成果和项目“落下去”，实现创新资源与关键技术需求有效对接。我们要学习江苏敢为人先、勇于创新的精神，在深化改革上大胆探索，聚焦产业需求、集聚创新资源，打造产学研用深度融合的产业技术创新体系。尹弘、叶建春等还考察了昆山陆家未来智慧田园，表示要促进两省现代农业合作交流，加强农文旅融合发展，实现两省互促共赢。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>124</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>寻乌县考察团一行来我区学习考察</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2021-02-08</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>https://www.zgq.gov.cn/zgqzf/jryd/202102/dbe3e924944544778d34b456fda86b0c.shtml</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['2月6日上午,寻乌县县委常委李茂进、李正鹏率县考察团一行来我区学习考察。区领导李志坚、钟春华等陪同考察或参加相关活动。', '考察团一行来到赣州杉杉奥特莱斯新能源充电桩项目实地参观考察,认真听取相关负责人的介绍,详细了解项目引进、投资、建设、研发与核心技术等情况,以及我区新基建、人工智能、新能源产业等方面的发展情况。', '通过实地参观和听取介绍,考察团一行对我区推进新基建、新能源等项目建设等领域的经验和做法给予高度评价。大家纷纷表示,此次学习考察开阔了视野,章贡区在项目引进和建设、新基建、人工智能、新能源产业等方面的好方法、好经验值得学习借鉴。同时,也希望今后与章贡区在相关领域,进一步加强交流学习,积极开展合作,取长补短,相互学习,共同推进经济社会高质量快速发展。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>124</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>定南县政协副主席李柳琴一行在全南县学习考察林业工作</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2023-08-02</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>http://lyj.ganzhou.gov.cn/gnlyw/c102332/202308/a359b4a8c02842dea627d1f72808df0e.shtml</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['7月26日，定南县政协副主席李柳琴一行莅临全南县学习考察提升县城周边及高速（国省道）沿线可视范围林相改造品质和国家园林城市创建工作。全南县政协副主席曾慧华全程陪同，县林业局教授级高级工程师江军全程进行讲解，考察组一行先后在高峰公司国土绿化更替改造试点示范基地、小叶岽林场水尾坑山场，城厢镇镇仔村形湾山场以及梅子山森林公园等地实地查看项目成效。 李柳琴深入了解了我县林业部门在林地清理、树种选择、抚育管理、绿化美化等工作方面采取的积极措施，对全县在提升县城周边及高速（国省道）沿线的林相改造品质方面所做的工作成绩表示赞赏。 此外，李柳琴对全南县在国家园林城市创建工作方面也表示了高度评价，她认为，全南县注重将自然生态与城市建设相结合，积极推进园林城市的创建工作，不仅提升了城市形象，也为居民提供了更好的生活环境和休闲空间。 考察结束后，李柳琴表示，全南县在林相改造品质和国家园林城市创建方面的工作给她们留下了深刻的印象，希望两县能够加强合作与交流，为两县的发展注入新的活力，共同推动林业事业和城市建设的发展。（谢琪妍）']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>124</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>赣州市供销联社赴广州市天河区供销联社学习考察</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2024-05-11</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>http://gxs.ganzhou.gov.cn/gzsgxhz/c103156/202405/79f2365867be4d9c803a0182f5ef10a6.shtml</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['为学习借鉴大湾区先进经验，拓宽供销事业发展思路，5月10日，市供销联社党组书记、理事会主任彭民生率队到广州市天河区供销联社学习考察。', '广州市供销总社党组书记、理事会主任吴尚伟，天河区供销联社党组书记、理事会主任钟伟峰，民革天河基层委员会主委、天河区供销协会会长吴小妹陪同考察。', '河供销社、天河区供销协会，详细了解天河区供销社在农产品供应链、基层社改造提升、社有资产监管、弘扬供销企业文化等方面经验做法，并围绕农产品供应链建设、产品品牌打造、赣穗两地产销对接进行座谈交流。', '交流座谈会上，双方围绕农产品流通、共促消费帮扶、社有企业发展、供应链网络建设、品牌打造等方面进行了深入交流。一致表示，一是要加强赣穗两地特色农产品产销对接，组织开展展销会、产品推广等活动，把赣州特色农产品推广至', '要积极探索“老区+湾区”供销合作新模式，在信息、人才、管理等改革经验上加强互学互鉴，助推流通网络互融、社有企业互联，形成发展合力，共同推动供销合作事业再上新台阶。', '市供销联社党组成员、理事会副主任孔青山，党组成员、监事会主任刘芃成，部分县（市、区）供销合作社、相关科室负责人参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>124</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>曹爱珍率我县党政考察团赴章贡区学习考察文明城市创建工作</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2018-03-23</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c100465/201803/d02ab6dcce124654b02cb102d582d3ea.shtml</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['3月18日，县委书记曹爱珍率我县党政考察团赴章贡区，学习考察章贡区在文明城市创建工作方面的先进经验做法，促进我县文明城市创建工作再上新台阶。', '在章贡区委副书记、区长连天浪的陪同下，县委书记曹爱珍，县委副书记、县长钟旭辉，以及邓增顺、李细妹、邓金健、包礼斌、温岩松、何选明等考察团一行先后来到文清路小学豪德校区、金洲城农贸市场、三康庙社区、马扎巷和赣江街道综合文化站等地，就市民宣传教育、社会主义核心价值观学习宣传及城市建设管理、农贸市场整治等重点内容进行考察学习，了解章贡区相关工作的具体推进举措，听取有关情况介绍，深入学习章贡区在文明城市创建过程中的好经验、好做法。', '在文清路小学豪德校区，章贡区将文明城市建设的内容融入到学校教育教学、校园环境当中，给孩子们营造出浓厚的文明氛围；在金洲城农贸市场，“菜上架、肉上台、鱼入池、鸡入笼、货入柜”，布局合理、管理规范、环境优良、配套完善；在各街道社区，环境整洁、功能健全，未成年人活动室、文化活动室、图书馆、4点半课堂等一应俱全，真正成为方便百姓办事、反映社情民意、开展文化体育活动的有效阵地。', '在每个参观考察点，考察团一行都认真听仔细看。大家一致认为，章贡区注重建立健全创文长效机制，各项体制机制健全，工作扎实细致到位，很多先进经验做法值得认真学习借鉴。将以此为契机，认真学习借鉴章贡区文明城市创建中的好做法和好经验，取长补短，并结合大余实际加以推广，推进大余创文工作向更深层次发展。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>124</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>鲍峰庭率县党政考察团赴浙江江苏学习考察</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2018-05-11</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://www.shicheng.gov.cn/scxxxgk/sc88242/201805/d0bdaaa8f3794b029d785f258c7140f4.shtml</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['号，县委书记鲍峰庭率县党政考察团赴浙江省杭州市、宁波市，江苏省宿迁市、徐州市等地学习考察。鲍峰庭强调，全县上下要深入学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神，进一步解放思想、转变观念、开拓视野，对标先进地区，借鉴成功经验，坚定发展自信，奋力谱写石城振兴发展新篇章。县人大常委会主任、县政协主席黄运群，以及刘晓方、刘晓阳、赖松林、唐祎泾、廖丽萍、陈金焘、董外院等县领导一同学习考察。', '宁波市委常委、北仑区委书记毛宏芳，北仑区人大常委会主任邬志刚，政协主席陈召华，区委常委、组织部长朱安伟，区委常委、宣传部长龚国文；杭州市余杭区人大常委会副主任汪宏儿、副区长玄立民，桐庐县委副书记周扬、副县长施俊宏。宿迁市政协副主席、宿城区委书记裴承前，宿豫区委书记、宿迁高新区党工委书记刘海红，泗洪县委常委、常务副县长范德珩；徐州市副市长徐东海，徐州市副市长、泉山区委书记赵兴友，', '贾汪区委书记曹志，贾汪区委副书记、区长张克，泉山区委副书记、区长李勇等分别参加相关活动。', '天的学习考察，行程满满、马不停蹄，足迹横跨江浙两省，遍及长三角地区。考察团进园区、看项目、观市容、览景点，在考察中开拓眼界、搅动思想、增强动力，感受长三角地区先进的发展理念、强劲的发展势头、宝贵的发展经验、浓厚的发展氛围。', '年中国综合实力百强市辖区排名第七位，主要经济指标总量和增速位居浙江省市前列。考察团走进余杭区梦想小镇、春风长乐田园综合体项目等地，看展板、听介绍，详细了解特色小镇、乡村振兴、田园综合体的经验做法。鲍峰庭指出，余杭创优服务、当好创客的“店小二”，打造创业创新热地，依托阿里巴巴集团总部打造信息经济高地，以田园生活为主题，打造“农业小镇”的做法令人印象深刻。石城要学习借鉴余杭的思路做法，进一步“转作风、提效率”，深入帮扶企业，搭建创业创新平台，营造优越的发展环境；结合地方资源禀赋，走差异化、特色化发展之路，打造富有本土韵味的特色小镇；大力推进乡村振兴，推动一二三产融合发展，激发农业农村发展潜能。', '桐庐县以“奇山秀水”享誉省内外，是全域旅游的“先行者”，先后获评中国最美县、浙江省首个美丽县城、浙江省首批美丽乡村示范县。从颐居养生特色小镇，到城市展览馆，再到江南古村荻浦，考察团一路“睁大眼睛看”“竖着耳朵听”“静下心来想”，在感受“潇洒桐庐”别样魅力的同时，比照自身的差距与不足。鲍峰庭强调，桐庐县立足奇山秀水，实施“生态立县、产业强县、全民兴县”的发展战略，取得了良好的成绩。石城与桐庐在发展方向上有异曲同工之处，今后要努力在考察中找寻差距、补足短板，把桐庐在产业打造、体制机制创新、项目管理运营等方面的经验做法运用到城市建设、旅游开发、产业打造、秀美乡村建设的实践中，擦亮精致县城招牌，绘好秀美乡村底色，增添特色景区靓色，做旺集群产业文章。', '宁波市北仑区九峰山社区以农村社区化建设为思路，建立了社区党建、社区和谐共建理事会、社区服务中心“三位一体”的管理模式，在党建引领、便民服务、旅游开发等方面进行了有益探索。博地影秀城将航海文化与商业业态特点相结合，让考察团感受到文化创意与商业业态激情交融迸发出的巨大效益。海伦钢琴自主创新、转型升级的发展历程，令考察团印象深刻。', '在江苏省宿迁市，考察团一行先后来到生态旅游之乡泗洪县、电商民企聚集高地宿豫区，项羽故里宿城区等地学习考察。', '河湖纵横、水网密布、水绿交融……在泗洪县洪泽湖湿地公园，考察团进展馆听介绍、览公园看业态，感受泗洪县生态建设、旅游开发所取得的喜人变化。鲍峰庭指出，泗洪县坚定绿色发展方向，着力发展生态经济的做法值得学习借鉴。石城是千里赣江源头，生态资源禀赋深厚，要进一步做活生态文章，推动“生态', '家，逐步成为电商名企集聚高地。当地重视电商产业发展，发挥大企业示范作用的做法让考察团深受启迪。鲍峰庭说，石城要积极抢抓“互联网', '”与其他产业深度融合，推动电商产业蓬勃发展。同时，注重打造鞋服首位产业，着力招大引强，通过以商招商、赣商回归，努力形成产业示范、聚群效应。', '宿城区项王故里历史文化景观修复工程气势恢宏、业态丰富、主题突出。考察团在感叹项目的大手笔、高品位的同时，更惊叹当地项目推进的速度。鲍峰庭说，项羽故里项目给我们很多思考，石城在项目建设过程中要转变观念、创新思路，更加注重项目质量与品位；要充分挖掘历史文化底蕴，注重文化传承，打好红色牌和客家牌，赋予旅游项目更多文化内涵。', '“淮海之都”的美誉。考察团走进徐州经开区、贾汪区、泉山区，考察金龙湖宕口生态修复工程、潘安湖采煤塌陷地修复工程、马庄村综合文化服务中心、云龙湖水环境治理提升工程、徐州软件园、中关村创新中心等项目点。鲍峰庭说，徐州在石头缝里种出了国家森林城市，生动诠释了“只有恢复绿水青山，才能使绿水青山变成金山银山', '”的深刻内涵。石城在发展中要始终秉持生态保护为先，狠抓农村环境卫生及河流治理，全面修复生态，真正显山露水；要充分发挥党员干部在工作中的先锋模范作用，进一步加强基层党组织的战斗堡垒作用，切实抓好乡村环境卫生整治和文风文明引领，让农村更加和谐美丽富裕。', '天的学习考察，考察团成员所见、所闻、所感颇丰。大家一致认为，这是一次解放思想、提升能力之旅。今后，将把学习考察所得融入工作实践，为加快石城发展贡献更多力量。特别是将进一步加强与沿海发达地区的沟通，积极推动“飞地经济”，促进旅游、文化、城建各方面合作，实现互惠互利、共同发展；汲取先进经验，敢闯敢试、敢为人先，在学中思、在思中悟、在悟中干，不断提升旅游开发、生态保护、精致县城和秀美乡村建设水平；不断推进对外开放，积极融入长三角、珠三角、海西经济区等重点区域，承接产业转移，寻找发展良机，提升产业发展水平，全力打造“赣闽粤长产业合作先行示范区”；始终践行“生态优先、绿色发展”理念，切实呵护好赣江源头一泓清水，将绿水青山转化为加快发展的“绿色引擎”；加快全域旅游提档升级，坚持“全链条发展、全产业融合、全景化打造、全社会参与、全县域共享”发展路径，让县城更精致、乡村更秀美、景区更亮丽、产业更兴旺。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>124</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>区社管局考察组到安远县学习考察职业教育建设发展工作</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2023-02-07</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://gzjkq.ganzhou.gov.cn/jkqxxgk/c110299/202302/0adea0adcc9e4328b070fe1fbcb9eda6.shtml</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['区社管局考察组到安远县学习考察职业教育建设发展工作 | 经济技术开发区管委会信息公开', '日，区社管局主要负责人翁毅军带队一行前往安远县远恒佳职业学院参观学习考察，区社管局副局长舒国腾、自然资源分局党组成员汤凡，赣州经开区高级职业技术学校、赣州应用科技职业学院、赣州现代科技职业学校、赣州青年科技职业技术学校主要负责同志参加。', '也分别作了发言，发言后，双方就职业教育发展工作进行了交流，进一步开阔了办学思路，明确了发展方向。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>124</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>宜春市质监局一行来我市学习考察国家有机产品认证示范区创建工作</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2016-05-18</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449se/201605/5203e93dc08a43a49b8b4a9ecd86c685.shtml</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['宜春市质监局一行来我市学习考察国家有机产品认证示范区创建工作 | 赣州市政府信息公开', '近日，宜春市质监局、靖安县市场和质量监督管理局一行到我市学习考察国家有机产品认证示范区创建工作，期间，举行了座谈和交流。市局认证科、信丰县市场和质量监管局负责同志陪同考察。', '座谈会上，信丰县局有关负责人从组织领导、发展政策、发展措施、发展规划等4个方面介绍了信丰县创建国家有机产品认证示范区的做法和经验，双方就创建工作进行了深入交流。考察期间，还参观了国家脐橙工程技术研究中心和相关企业。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>124</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>温扬汉院长带队赴广州国家现代农业产业科技创新中心等单位学习考察</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2019-12-02</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100440tb/201912/5e2c805c11bf4afa93d12ba27ee47643.shtml</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['温扬汉院长带队赴广州国家现代农业产业科技创新中心等单位学习考察 | 赣州市政府信息公开', '为贯彻落实市委、市政府关于加快推进赣南科学院深化改革的工作要求，学习借鉴国内同类创新平台改革创新发展的好思路、好经验、好做法，进一步完善优化赣南科学院改革工作方案，11月25日至28日，院长温扬汉率队赴广州市、南阳市、郴州市学习考察，院领导刘义生、郭小华和院改革办有关人员参加活动。', '考察组一行先后到广州国家现代农业产业科技创新中心、广东省科学院智能制造研究所、南阳市农业科学院（南阳市科学院）、郴州市农业科学研究所等地参观学习，听取了先进院所在科技体制机制创新与改革方面的宝贵经验，并就科研基础条件和平台建设、科研项目组织管理、学科团队建设、成果转化与激励机制等方面进行了深入交流与探讨。', '通过学习考察，进一步解放了思想，拓宽了思路，增强了信心，坚定了改革决心。下一步，我院将认真借鉴先进院所科技体制机制创新与改革的好思路、好经验、好做法，进一步完善优化赣南科学院改革工作思路和方案，把学习考察的成果转化为推进院所改革发展、促进院所创新创业的强大动力。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>124</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>坚守合作初心汲取奋进力量陈兴超率党外代表人士考察团在上饶学习考察</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2021-04-25</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c102342/202104/4f37c04a2ec648b3a2875e68218e1a5f.shtml</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['坚守合作初心 汲取奋进力量陈兴超率党外代表人士考察团在上饶学习考察 | 大余县信息公开', '4月21日至23日，省委常委、省委统战部部长陈兴超率党外代表人士考察团在上饶德兴学习考察。省领导马志武、孙菊生、李华栋、谢茹、汤建人、刘晓庄、雷元江，以及党外代表人士史可、张伟、曾鲁台、陈晓勇、肖利平等参加考察。', '考察期间，陈兴超与各位党外代表人士围绕“学习中共党史，坚守合作初心”主题开展了谈心活动，并率考察团先后在德兴方志敏烈士纪念馆、程家湾方志敏与粟裕惜别遗址、大茅山三百烈士纪念亭学习考察，通过观看文史资料、聆听革命故事等方式重温历史，感悟革命先辈先烈探寻革命道路时浴血奋战的英雄壮举，为信仰而英勇牺牲的革命精神，从中汲取奋进力量。', '陈兴超指出，要坚持以习近平新时代中国特色社会主义思想为指导，不断提高政治判断力、政治领悟力、政治执行力，把思想政治建设摆在更加突出的位置，持续强化理论武装，夯实共同思想政治基础。要充分认识开展中共党史学习教育的重大意义，深刻把握开展中共党史学习教育的重点，不断从中国共产党百年奋斗的光辉历程，以及民主党派、无党派人士与中国共产党团结合作、风雨同舟的优良传统中，汲取携手前行的智慧和力量。要进一步加强党外代表人士队伍建设，为多党合作事业提供人才支撑，引导支持党外代表人士提高工作本领，勇于担当作为，自觉做中国共产党的好参谋、好帮手、好同事，为描绘好新时代江西改革发展新画卷广泛凝心聚力，以优异成绩庆祝中国共产党成立100周年。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>124</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>李炳军率赣州市党政代表团在上海学习考察</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2019-08-22</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c102438/201908/4bc2fcb7e3ae4218be929f97395f6e54.shtml</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['8月21日，在上海浦东新区张江科学城，省委副书记、市委书记李炳军率赣州市党政代表团考察综合性国家科学中心运作情况。特派记者刘凯 摄', '8月21日，省委副书记、市委书记李炳军率赣州市党政代表团在上海考察，学习上海市在管理体制创新、科技创新、城市规划建设和精细化管理等方面的先进经验。大家表示，要认真学习借鉴上海的经验做法，进一步解放思想，对标先进一流，推进改革创新，加快建设革命老区高质量发展示范区。上海市委副书记、政法委书记尹弘，副市长彭沉雷，市政府副秘书长赵祝平，市政府副秘书长、浦东新区区长杭迎伟，上海虹桥商务区管委会党组书记、常务副主任闵师林分别陪同。江西省委办公厅正厅级督查专员李绪先，市领导李明生、高世文、邱建军、严水石、胡聚文、徐兵、蓝赟等参加考察。', '浦东新区是我国改革开放的前沿窗口和上海现代化建设的生动缩影，是实施国家战略的核心区、突破口、试验田。代表团一行首先来到浦东新区城市运行综合管理中心，通过“城市大脑”数据平台，详细了解该中心在实施精细管理、智能运行、协同联动、高效处置等方面的做法。该中心是目前全国领先的集合城市网格化管理、应急管理、安全生产等职能的实体运作机构，通过整合与城市管理和安全运行相关的管理资源，深化拓展城市运行综合管理功能，全面提升城市管理精细化水平。李炳军指出，上海用“绣花”精神不断深化社会治理创新，持续推进城市管理精细化，为我们树立了榜样。我们要向上海学习，始终坚持以人民为中心的发展思想，以对人民群众极端负责的态度，加强城市精细化、智能化管理，解决好老百姓身边的急难事、麻烦事、烦心事，做到“民有所呼、政有所应”。', '科技引领发展，创新改变未来。位于浦东新区的张江科学城是上海科技创新的重要窗口和国家级科技高地。在科学城展示厅，代表团一行仔细观看上海最强光、蓝天梦、创新药、中国芯、智能造等高技术展台，详细了解科学城高站位聚焦科创中心建设、高起点布局先导产业、高水平建设大科学设施的创新举措。大家表示，要认真学习上海的先进经验，深入实施创新驱动发展战略，引导企业加大科研投入，加快重大科技平台建设，促进创新链、产业链、人才链、政策链、资金链深度融合。', '唯有不断创新，才能有旺盛的生命力。代表团一行来到张江药谷，考察了青峰医药集团上海创新转化中心。该中心是青峰医药集团研发体系从自主研发向共享研发迈进的制高点，为青峰药谷实现高质量跨越式发展奠定了坚实基础。大家走进医药研发平台参观了实验室，详细了解中心先进的创新孵化模式。', '李炳军指出，上海张江高新区重点发展的生物制药产业，与赣州正在着力打造的青峰药谷产业关联度高，希望尽快建立张江高新区与我市高新区的共建共享机制，推进更多科技成果在赣州转化和产业化。', '地处长三角地区交通网络中心位置的虹桥商务区，充分发挥“大交通、大商务、大会展”的功能优势，通过城际联动、平台生态、总部经济、人才互动四大脉络，加快建设辐射长三角、服务海内外的开放门户。在商务区展示厅，代表团一行认真听取了有关情况介绍，深入了解商务区的管理体制、产业规划、开发现状。大家对虹桥商务区路网高密度、街坊小尺度、建筑低高度、地下空间开发高强度的规划建设理念赞叹不已，纷纷表示要着眼昌赣高铁通车、快速路建成后的城市发展格局，围绕打造六个区域性中心和五区一体化，谋划赣州新一轮城市规划建设的重点项目，加快形成与省域副中心城市相匹配的城市体量和辐射带动力。', '代表团一行还与长三角赣州商会企业、乡贤代表及在赣州学习工作过的同志、赣州在上海挂职的干部座谈交流，认真听取大家的意见建议。李炳军指出，作为领改革风气之先的城市，上海市在下足“绣花”功夫提升城市精细化管理水平、应用大数据做好智慧城市建设、以先进理念为指引做好城市片区开发等许多方面的先进经验做法，非常值得赣州市认真学习借鉴。我们要深入贯彻落实习近平总书记视察江西和赣州重要讲话精神，学习借鉴上海市的先进经验，对照上海标杆，拉升工作标准，以更宽视野和更高标准谋划赣州发展，建设经济活跃、社会和谐、生态宜居、人民幸福的革命老区高质量发展示范区。各地各部门要主动加强与上海的对接融入，开展务实合作，实现互利共赢。', '学习考察期间，代表团一行边考察边交流、边学习边思考，深受触动、收获满满。当日下午，代表团一行结束了在上海市的学习考察活动并连夜返程。 （特派记者 张宗兴）']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>124</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>县政府县长率队到南康区赣州市智能产业创新研究院学习考察</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2022-05-19</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://www.chongyi.gov.cn/cyxxxgk/cy53618/202206/4bf03eaf1e744fabb2a6fb8f7cbb444b.shtml</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['5月19日，县委副书记、县长黄斌率队先后来到赣州国际陆港、美克数创科艺园区、格力电器（赣州）有限公司智能制造基地、城发家具零部件智能制造有限公司、家居小镇等地学习考察。县领导段建阳、张衍欣、黄炜华陪同。南康区委副书记、区长李赣兴，区领导李茂进陪同。', '看产业、聊项目、论发展、谈创新，每到一处，大家都认真听、仔细看，并与工作人员互相交流，详细了解南康区在招商引资、产业规划、平台建设、数字化经济、产业链等方面的先进经验和做法。', '考察中，黄斌对南康区近年来取得的发展成就给予了高度评价。黄斌指出，要学习南康经验、南康做法，在招大引强上主动作为，培育壮大产业，推动项目建设。要在建链强链补链上有新突破，立足产业基础和资源优势等，打造链主企业，推动钨产业、竹产业等壮大产业集群。要发挥崇义与南康地缘相近优势，加强交流合作，共同推动两地经济高质量发展。', '黄斌指出，要以竹产业为切入点，抢抓发展机遇，探索发展以竹代木，赢在新赛道上。要做好产业与科技的结合，利用智能技术解决未来问题，推动公共服务平台建设，推动', '“工业+旅游”良性发展，构建全县产业体系。要推动数字经济发展，重规划、谋长远，强化数字平台建设和技术支撑。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>124</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>李延春主任随县党政学习考察团赴石城安远信丰于都会昌考察</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2021-09-09</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://www.ningdu.gov.cn/ndxxxgk/c101148/202109/b8b6150675bc40048a50a689992c153b.shtml</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['李延春主任随县党政学习考察团赴石城、安远、信丰、于都、会昌考察 | 宁都县信息公开', '9月6日上午，工业园区党工委副书记、管委会主任李延春，随县党政学习考察团赴石城、安远、信丰、于都、会昌五县，实地考察产业发展、城乡建设、乡村振兴等方面的先进理念、先进经验和做法。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>124</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>章江街道组织学习考察新时代文明实践工作</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2021-03-19</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://www.zgq.gov.cn/zgqxxgk/c109130c/202103/7b88dbaf0efd488282c7d676e0975b3a.shtml</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['为学习兄弟县新时代文明实践站建设先进经验，进一步推动章江街道新时代文明实践所（站）建设工作。3月17日，街道组织党建办干', '考察团成员一路认真听，认真记，虚心请教大余县在推进新时代文明实践工作的做法措施和经验成效。大家纷纷表示，通过此次学习考察，为在推进新时代文明实践中心（所、站）建设工作中高位谋划、塑造品牌提供了有效思路，打开了宽广视野。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>124</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>赣州市林业局赴抚州市学习考察林业工作</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2021-11-05</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/FDc9mC-GpuzTC61XaBdoGQ</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['为认真践行“绿水青山就是金山银山”理念，深入贯彻落实市第六次党代会精神，积极推进我市林业改革创新，进一步打通“两山”转换通道，11月2-3日，赣州市林业局党组书记肖年生带队前往抚州市学习考察“两山”银行建设、林业碳汇交易、林长制、竹产业发展等林业工作。', '考察组与抚州市林业局座谈交流。抚州市林业局局长杨皓就林业碳汇交易、“两山”银行建设、林长制等工作做了交流介绍。抚州市积极推进林业改革创新，出台了《抚州市远期林业碳汇备案登记暂行办法》，由抚州市农发投公司开展碳汇收储及交易，并于10月21日完成林业碳汇交易首单签约，为实现森林生态产品价值市场变现探索了一条重要路径。', '考察组参观了抚州市林长制大数据综合展示平台。抚州市通过打造林长制大数据综合展示平台，加强了专职护林员队伍的履职智慧管理，细化了专职护林员的履职监管，对护林员履职到位情况精准查询，建立了每季度专职护林员履职考核通报工作机制，进一步强化了专职护林员巡护考核奖惩。', '考察组详细了解“两山”银行运行机制和模式。资溪县先行先试，创新推进“两山”银行建设，创立了“两山”银行运行机制和模式，开展林权代偿收储担保，设立集体林权收储管理平台，将毛竹林林地、松材线虫病害林地收储，并与林业经营和造林项目结合起来，推动了营造林、竹产业、松材线虫病防控等林业工作。同时盘活森林资源，推动了森林资产流动，打通了“两山”转换的通道。', '考察组了解资溪县竹产业发展和竹制品加工生产情况。资溪县立足自身资源，大力发展竹产业，引进国家级竹加工龙头企业，结合“两山”银行，盘活竹产业资源，竹产业已成为资溪县三大支柱产业之一。', '考察组参观了新造油茶种植基地。乐安县结合国有林场场外造林，采用“国有林场+造林大户”模式发展油茶产业，激发了发展油茶的积极性。', '学习考察组认为，要认真学习抚州市林业创新的先进经验，结合赣州林业实际，加大、加快我市林业改革创新步伐，做好林业碳汇交易工作试点，破好林业碳汇交易题目；借鉴资溪“两山”银行运行机制，盘活我市森林资源，推动“两山”银行建设；将松材线虫病除治与林业造林项目有机结合，走出低质低效林改造的新路子；完善我局林长制智慧平台，加大对护林队伍的考核管理；引进国家级龙头竹加工企业，加强竹产业科技创新，激活竹产业发展活力。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>124</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>市行政服务中心管理办组织有关人员赴南雄市行政服务中心学习考察</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2008-07-28</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449rn/200807/76e28251a9fd4c0d92c4ec0c318caa72.shtml</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['市行政服务中心管理办组织有关人员赴南雄市行政服务中心学习考察 | 赣州市政府信息公开', '为深化我市行政审批制度改革，促进行政审批全面提速，进一步加强行政服务中心建设，7月3日上午，市行政服务中心管理办主任毛志忠、副主任肖平、副调研员杜南辉带领中心管理办有关人员，赴广东省南雄市行政服务中心学习考察和座谈交流。', '座谈交流会上，在南雄市政府领导介绍了南雄市行政服务中心和电子政务建设情况后，双方领导就加强行政服务中心建设、推行网上审批工作交换了意见。南雄市行政服务中心领导还介绍了南雄市行政服务中心自2002年4月成立运行以来所取得的经验和成效，演示了网上审批系统和电子监察系统的运作情况。毛志忠主任介绍了我市行政服务中心以及市招标投标中心成立以来的运行情况。', '通过学习座谈和交流，学习考察人员开阔了视野，拓宽了思路，尤其是南雄市建设网上审批、电子监控系统的成功经验，为推进我市网上审批系统、电子监察系统的建设提供了很好的参考和借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>124</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>赴浙第三天吴忠琼率团继续在湖州学习考察</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2023-02-02</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://www.jxxf.gov.cn/xfxxxgk/c101222/202302/e60367ef2345428cafe8cef87cccb7ad.shtml</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['1月31日至2月1日，省委副书记、市委书记吴忠琼率赣州市考察团继续在浙江湖州学习考察，学习借鉴湖州市在习近平生态文明思想指引下，坚定不移走“绿水青山就是金山银山”之路的先进理念，当好“两山”理论践行者，用好乡村振兴“他山石”。', '湖州市委书记陈浩，市委副书记、市长洪湖鹏，浙江省委办公厅副主任、省接待办主任季永强，湖州市领导杨卫东、吴智勇、闵云分别陪同。赣州市领导胡剑飞、何琦、孙敏、尹忠、赖正文等参加。', '“绿水青山就是金山银山”理念诞生地、“中国美丽乡村”发源地，湖光山色、美不胜收。考察团一行来到安吉县“小瘾·半日村”民宿村落和天荒坪镇余村村，详细了解精品民宿集群打造、文旅项目招引等情况，认真学习推动乡村振兴、共同富裕，改善农村人居环境等方面的好经验好做法。“在湖州看见美丽中国”，一路走、一路看，眼前处处如诗画，让人心旷神怡。吴忠琼说，习近平生态文明思想内涵丰富、博大精深，很多原创性的重要观点、重要论断都给我们以深刻启示。湖州市坚持生态优先、绿色发展，探索出了一条从资源驱动向内涵增长转型的新路子。赣州生态资源丰富，我们要认真学习借鉴湖州的经验做法，推动生态产业化，进一步打通“两山”转化通道。', '来到德清县莫干山郡安里度假酒店，考察团一行实地参观了依山而建的民宿客房，现场体验当地生态休闲度假新业态。吴忠琼指出，湖州在旅游品牌打造、社会资本引入、旅游企业培育等方面经验丰富、成效显著，我们要下功夫学习借鉴，积极引进有实力的民宿运营企业和专门的开发团队到赣州开展项目合作，提升民宿建设品质，变美丽环境为', '“美丽经济”。莫干民国风情小镇集聚特色的历史遗存，给考察团留下了深刻印象。近年来，当地依托莫干山这一得天独厚的山水资源，大力发展乡村民宿新业态，“莫干山民宿”逐渐成为旅游爱好者前往德清必选打卡点。吴忠琼说，民宿产业是全域旅游的重要一环，我们要对标先进找差距，助推民宿产业蓬勃发展，让广大乡村的沉睡资产变成富民资源。莫干山镇五四村以“整村景区”为定位，大力推进美丽乡村建设，逐步发展成集品质人居、乡村度假、生态观光、休闲体验于一体的乡村振兴示范村。考察团一行参观考察了游客中心、幸福邻里中心等，大家对该村以绿色发展理念推进全域旅游、打造数字乡村的做法赞叹不已，纷纷表示要对标先进，不断做大做强乡村特色产业，扎实推进全域旅游，一步步把赣州的绿水青山变成金山银山。', '1月31日晚，吴忠琼还会见了长三角赣籍商会企业家和乡贤代表。吴忠琼代表市委、市政府向各位乡贤企业家致以新春祝福，希望大家当好家乡的宣传员，积极向国内外各界人士推介赣州的发展态势、投资环境，抱团发展、互相支持，深耕优势领域，做大做强企业，参与赣州发展，共同努力把家乡建设得更加美好。邹承慧、范立栋、陈何样、周勇、钟胜辉、张祥发等乡贤企业家代表纷纷表示，将一如既往支持家乡建设，用好自身资源优势，当好桥梁纽带，引荐更多企业家到赣州投资兴业，助力赣州高质量跨越式发展。', '“亚太最佳地域文化设计大奖”“联合国教科文组织亚太文化遗产保护奖”的鬼才设计师陈谷先生于2013年在全国率先提出“集群民宿村落”理念，并完成了村落的整体规划和建筑改造设计，由安吉半日村文化休闲有限公司于2015年投资建设。整体规划约20家风格各异的民宿和精品度假酒店，村落配套有运营中心、亲子中心、中餐厅、特色小吃、生活超市、图书馆、咖啡厅、甜品店、乡村酒吧、个性小店、艺术家工作室等。', '位于浙江省安吉县天荒坪镇政府驻地西侧，地处天目山北麓，因境内天目山余脉余岭及余村坞而得名。余村的美丽乡村建设、生态文明建设走在全省乃至全国前列，是联合国世界旅游组织最佳旅游乡村、全国文明村、全国美丽宜居示范村、全国民主法治示范村、全国乡村旅游重点村、全国乡村治理示范村、全国先进基层党组织、全国爱国主义教育基地、国家', '4A级景区、中国美丽休闲乡村、全国示范性老年友好型社区、全国生态文化村、国家级充分就业村、全国农村优秀学习型村居、全国人民调解工作先进集体。', '酒店位于德清县莫干山镇，紧环莫干山风景名胜区，由佐力集团全额投资建设。项目由国际著名', 'EDSA景观规划设计事务所、VTN建筑事务所联合打造，以“回归自然”为理念，集自然美景于一体，由主楼（郡安里国际会议中心）、别墅区、各类主题餐厅、跑马场、各类球类运动场、千人户外草坪等组成，采用莫干山绿竹为建材创意建造。室内装饰质朴自然，现代设施一应俱全，户外阳台视野开阔，充满生活意趣的起居空间，为宾客创造极致入住体验。', '小镇地处燎原村（原名庾村，当地为纪念南北朝大文学家庾肩吾、庾信父子而得村名），地处国家级风景名胜区莫干山下。近几年，燎原村依托优越的自然环境和深厚的文化底蕴，充分挖掘', '“民国文化”“农耕文化”等地域特色文化，保护传承村落人文色彩与乡土古韵并存的传统风貌和历史记忆，致力于开发清境文创园、郡安里度假区、Discovery极限探索基地等文化体验类旅游产品，形成集创意办公、文化展示、论坛基地、精致西餐、艺术酒店、室外展示等功能于一体的休闲、创智、创业特色基地。', '1954年修订新中国第一部宪法期间赴莫干山考察途经，改名“五四”。村域面积5.61平方公里，共有村民小组14个，总人口1623人。村党总支下设2个党支部，共有党员53人。2022年村集体经济收入约806万元，农民人均可支配收入5.7万元。先后获评全国先进基层党组织、全国文明村、全国美丽宜居示范村等荣誉称号。近年来，五四村赓续传承红色基因，坚持“生态立村、产业强村、数字治村”发展理念，推动落实“强村六式”，奋力打造具有鲜明湖州辨识度的共同富裕绿色样本标杆村。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>124</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>赣州市党政代表团召开赴广东学习考察座谈会吴忠琼主持</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2021-05-28</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c102470/202105/08d9f427d69d4f77ac2d283e71a82064.shtml</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['一路学习、一路思考、一路谋划，5月26日晚，赴广东学习考察的赣州市党政代表团在广州就地召开座谈会，交流体会，相互启发，推动学习考察成果转化为发展思路和工作实践。', '赣州市委书记吴忠琼主持并讲话。市委副书记、市长许南吉出席并讲话。市领导高世文、徐兵、邱建军、严水石、胡聚文、胡晓平、柯岩松等出席座谈会。', '会上，有关市领导及县（市、区）、市直部门主要负责同志先后作了交流发言。他们结合学习考察情况和工作实际，围绕如何深度对接融入粤港澳大湾区、推进我市高质量跨越式发展，畅谈认识体会，提出意见建议。', '认真听取大家发言后，吴忠琼指出，这次学习考察，成果丰硕、收获满满，既是一次解放思想之旅，也是一次学习取经之旅，还是一次交流合作之旅，让我们与湾区的合作迈上了新的台阶。下一步，要认真总结并运用好这次学习考察的成果，更好地指导推动各项工作。', '吴忠琼强调，要坚定全面融入粤港澳大湾区的信心和决心。各地各部门要以坐不住的紧迫感、慢不得的危机感、等不起的责任感，全力以赴对接融入，不断取得务实有效的合作成果。', '吴忠琼要求，要以务实有力的举措推动“融湾”取得更大突破。要转变思想观念，进一步打开思想闸门，破除因循守旧、安于现状、等靠要思想，遇事多想怎么办，主动担当解决问题，引领全市不断掀起解放思想的热潮。要把招商引资工作做细做实，认真谋划好“粤企入赣”活动，特别是电子信息、纺织服装、生物医药等产业，要在各个细分领域努力引进一批好项目、大项目，加快推动产业集群发展。要舍得拿出优质资源，探索“飞地”发展模式，推进赣粤产业合作试验区南康、“三南”片区加快建设，促进陆路口岸、航空口岸等深化合作。要借鉴广东科技创新和成果转化的先进做法，进一步创新机制，探索联合开展技术攻关，更加灵活地柔性引进大湾区的人才，把创新平台做大做强，提升创新能力。各地各部门要立足自身实际再对标、再细化，努力打造一流营商环境，真正做到大湾区能办到的，我们也能办。', '吴忠琼强调，要认真学习广东务实高效、雷厉风行的作风，闻鸡起舞、只争朝夕，以高效率高质量抓好考察洽谈事项的跟踪落实。对这次学习考察洽谈的事项，要逐条梳理，狠抓落实，大胆闯、大胆突破。特别是在数据融合、行政审批等方面，务必走在全省前列。对已签订的协议，相关部门要持续跟踪对接，把协议中明确的事项项目化、清单化，争取早日落实到位。对有意向投资赣州的项目要紧盯不放，争取早日签约落地。要加大投入支持科技创新、研发平台、产业项目，确保财政资金高效便捷直达、切实惠企利民。要充分用好跟班学习干部和各地赣州商会等资源，想方设法招引更多大项目好项目，推动赣州高质量跨越式发展。', '吴忠琼还传达了省委书记刘奇在赣州调研期间的讲话精神，就抓好贯彻落实提出明确要求，并就做好市委第十一轮巡察发现的共性问题整改进行了部署。吴忠琼强调，要深入推进党史学习教育，扎实做好疫情防控、防汛减灾及城乡环境整治、村集体经济管理、高标准农田建设、工业园区规划管理等工作，以优异成绩迎接建党100周年。', '许南吉指出，这次学习考察，时间虽短，但安排紧凑、内容丰富，所见所闻令人震撼，粤港澳大湾区先进的发展理念、思路、做法，特别是体制机制的创新，非常值得我们学习。要全面学习粤港澳大湾区先进的发展理念，全方位多领域加大交流合作，加强顶层设计，促进深度融合。要进一步坚定信心，强化市场意识，加大资源整合力度，招大引强、招才引智，全力支持企业做大做强。要抓住科技创新这个龙头，构建政府引导、企业主体、金融支持的多元投入体系，激发创新主体活力。要组织专班集中攻坚，突破数据壁垒，对大湾区各领域合作进行深度研究，“一企一策”服务好重点项目、重点企业。要大胆谋划发展“飞地经济”，努力实现优势互补、互惠共赢。要加强干部交流，通过更具针对性的跟班学习，让他们学有所专、学有所用。要及早谋划赣深高铁开通的宣传推介，做好宣传策划，讲好赣州故事，加大营销力度，最大限度放大高铁经济效应，让赣州加快融入粤港澳大湾区。（特派记者张宗兴）']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>124</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>盯着目标走对标先进学黄法率队外出开展学习考察和招商活动</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2022-08-02</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://www.yudu.gov.cn/ydxxxgk/c100264csd/202208/61d5f82c5e124e51bd13fd463ebaece2.shtml</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['拼搏三季度、奠定全年胜，既要有项目建设、招大引强的“真金白银”，更要有广大干部思想和行动的“开拓创新”。县委二十届四次全会刚刚结束，7月28日-30日，县委书记黄法立即带队赴海南、广东等地开展学习考察和招商活动。县领导郝敏哲、陈运明、钟财亮、谢芸华先后陪同。', '黄法一行参加了2022年中国国际消费品博览会，并前往江西馆、国际馆观展。黄法表示，我们要充分利用消博会这一重要平台，集中展示于都对外形象和经济社会发展活力，持续做旺商贸消费，为县域经济高质量发展培育新的增长极。要不断扩大对外开放，强化沟通对接，努力在更高层次、更广领域宣传于都、推介于都，切实提升于都的知名度和影响力。', '黄法一行参观考察了陕西旅投公司，详细了解该公司在当地投资的文旅项目，并实地观看《红色娘子军》演出。黄法说，当前我县正在策划推进大型红色文旅史诗《长征第一渡》演艺项目，这次学习考察，让我们收获很大。下一步，我们将认真学习借鉴当地在发展文旅产业方面的好经验、好做法，传唱演绎好《长征第一渡》等剧目，进一步打响“长征文化”品牌。', '黄法一行参观考察了博鳌乐城健康产业园，详细了解了产业园经营范围、生产规模、产品销售、技术创新等情况。黄法要求，相关部门要深刻认识健康产业发展的重要性和紧迫性，抢抓国家部委对口支援的重要机遇，拿出更大力度、更实举措，推动我县绿色健康产业做大做强。', '黄法一行对接并考察中山市大涌牛仔服装智造产业园项目，详细了解企业发展历程、经营范围、管理运营及产业链上下游配套等情况。在随后召开的座谈会上，黄法向对方介绍了我县的区位优势、营商环境、优惠政策等情况。企业负责人表示，于都县产业基础深厚、营商环境优良、政企服务走心，是一片投资兴业的热土。希望双方进一步加强沟通联系，深入对接洽谈，早日携手合作，实现发展共赢。', '7月30日下午，黄法带队前往“参照地”——广东省江门市开平市考察学习，先后到广东建邦杭萧装配有限公司、开平市翠山湖工业园区参观考察，并召开座谈会。', '会上，双方就建筑产业联盟、纺织服装产业、园区建设等工作，进行了深入的交流探讨，初步达成战略合作意向。', '黄法表示，开平市位于粤港澳大湾区西部，地理位置优越，产业发展基础扎实，是中国建筑之乡，拥有广东省唯一的世界文化遗产——“开平碉楼与村落”，旅游资源丰富。', '我县将始终以开平市为对标先进的“参照地”，认真用好本次学习考察成果，进一步解放思想、创新思路，谋求发展良策，助推于都高质量跨越式发展。', '同时，希望两地在多彩旅游、多元产业、多线交流等方面加强互动，实现合作共赢，打造“湾区+老区”的合作典范。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>124</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>钟旭辉率队赴广州市增城经开区学习考察</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2021-11-08</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>http://lnjkq.ganzhou.gov.cn/lnjkq/ln79096/202111/55ee59db7b7842cda403bfca9da45bcf.shtml</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['11月2日，龙南经开区党工委副书记、管委会主任、龙南市委书记钟旭辉率队到广州市增城开发区参观考察，学习先进经验，深化交流合作。龙南经开区党工委委员、管委会副主任李森彪、龙南经开区招商与企业服务局局长赖子安参加，广州市增城区委常委、区委宣传部部长廖平陪同。', '参观考察，详细了解增城开发区在产业发展、平台建设、科技创新、营商环境等方面的先进经验做法。期间，与增城开发区开展了座谈交流，双方', '。增城经开区表示将结合龙南经开区园区发展现状与展望，集中各自优势力量，持续深化双方合作，合力把龙南打造为赣州电子信息产业带发展的核心区和承接粤港澳大湾区产业转移的桥头堡，大力助推龙南经开区实现高质量跨越式发展。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>124</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>胡剑飞率队赴杭州市学习考察放管服及数字化改革工作</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2023-03-23</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>http://spj.ganzhou.gov.cn/gzsxzsp/c102924/202303/a94e225c29c94670bdbf1eecf795cb75.shtml</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['日，市委常委、常务副市长胡剑飞率队赴杭州市学习考察。市委改革办、市行政审批局、市发改委、市市场监管局、市城管局、市自然资源局、市农业农村局、市税务局、市国投集团等部门单位负责人参加。', '“数聚曲水汇之江”为创意概念，全方位展示数字化改革成果。分为序厅、主展厅、设区市展厅、尾厅', '个应用成果。学习考察组一行首先来到这里，详细了解浙江省数字化改革情况介绍后，走进展厅，数字赋能的气息扑面而来，改革创新的力量令人内心震撼、深受启发。大家一致认为浙江省数字化改革的先进经验做法非常值得赣州学习借鉴，要结合自身发展实际，进一步解放思想，不断打开眼界、拓展思路。', '余杭区政务服务中心大厅面积11000平方米，进驻了36个审批服务部门，集中办理1653个事项。政务大厅按照“整体政府”理念，以办事需求为导向，设置8个“一件事”办事主题单元，每个单元都可“一站式”完成咨询、取号、窗口办、网上办、自助办等整个办事过程，实现“单元内循环”。大家认为，赣州要积极学习借鉴杭州“审批无感、服务有感”理念，不断增强企业群众办事便利度和获得感，打造“沉浸式服务”。', '余杭区径山镇径山村依托杭州市数字乡村建设，完善数字基础设施建设，大力推进数字产业、数字治理、数字生活发展。在数字赋能产业发展方面，围绕径山茶产业特色，安装茶山空气、温湿度、风速风向、降雨量、大气压等物联感知设备，搭建', '电商直播共富工坊，助力乡村产业发展，给考察团一行留下了深刻印象。大家表示，要学习借鉴杭州因地制宜推进数字乡村建设的好经验好做法，结合乡村振兴，加速发展旅游产业，让小山村迸发持久活力，促进赣州美丽乡村建设。', '杭州市城市大脑运营指挥中心集中枢运维、指挥应用、成果展示和专班研发于一体，由杭州市数据资源局牵头建设管理。城市大脑运营指挥中心构建了', '“中枢系统+部门（区县市）平台+数字驾驶舱+应用场景”的核心架构。大家认为，赣州要积极学习借鉴杭州城市大脑建设经验，推动城市治理从线下转向线上线下融合，从单一部门监管向注重部门协同治理转变，为精准决策和高效治理提供强大技术支撑。', '日下午，杭州市委常委、副市长胥伟华主持召开考察交流会，市委常委、常务副市长胡剑飞作了赣州市情介绍并说明了来意。考察组一行与杭州市委改革办、市数据资源管理局、市城管局、市市场监管局、市发改委、市规划和自然资源局、市农业农村局、市审管办、市公管办等部门负责人座谈交流，详细了解杭州市深化“放管服”及数字化改革等方面的先进经验和具体做法。', '3月22日至23日，市行政审批局牵头，市城管局、市市场监管局、市自然资源局、市农业农村局、市住建局、市国投集团等相关部门单位的38名业务骨干，将分成数字化改革组和“放管服”改革组，分赴杭州市对应部门开展蹲点调研。']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>124</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>我市党政代表团赴闽学习考察走进第二站</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2016-12-09</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c102472/201612/9b481cade23848ccb726a92143535ce8.shtml</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['李市委副书记、市长曾文明率领我市党政代表团到这次赴闽学习考察的第二站泉州市考察。泉州市委书记郑新聪，市委副书记、市长康涛出席相关活动。', '市人大常委会主任陈晓春，市政协主席刘建平，市领导刘文华、李恭进、胡雪梅、李明生、刘建明、胡聚文、何福洲、徐兵、蓝赟，以及各县（市、区）和赣州、龙南、瑞金经开区，市直有关部门主要负责人参加考察。泉州市领导陈万里、陈灿辉、陈奕辉、李冀平陪同考察或出席相关活动。', '7日下午，我市党政代表团一行来到泉州清濛开发区，详细了解当地智能制造发展情况。作为智能制造的“先行者”，泉州市立足产业实际，开展以“机器换工”为核心的智能化、数控化生产线改造，企业取得明显经济效益，全社会形成了推进“智能制造”的浓厚氛围。锐驰电子是一家致力于打造智能无屏电视产业链的科技公司，在这里，代表团一行听企业介绍，看产品展示，领略到了核心项目带动产业集群发展的蓬勃力量。在黑金刚（福建）自动化科技公司，大家认真察看了鞋业智能制造生产线，详细了解企业科技创新成果。在“数控一代”科技创新中心，大家深深感受到了“数控一代”让企业从传统的“卖产品”转向“卖设备”“卖服务”，为产业转型升级带来的勃勃生机。', '一条生产线可以提升多少产能、节省多少用工？政府如何引导、成果如何推广？李炳军一路看得格外仔细，问得特别具体，还不时与相关负责同志现场交流、探讨。李炳军指出，泉州发展智能制造的经验具有很强的借鉴意义，通过实施“数控一代”示范工程，加快培育研发应用企业，提升制造业技术创新水平，值得我们认真学习。他希望考察团成员将此次考察所见、所闻、所感，转化落实到具体实践中，推动我市家具、轻纺等传统产业转型升级，加快赣州工业经济发展。', '晋江是县域经济发展“第一阵营”，自福建省启动县域经济评价以来，已连续领跑福建县域经济23年。8日上午，我市党政代表团来到泉州晋江市，实地感受晋江敢为人先的改革热情、创新创业的巨大活力、城市发展的美好前景。安踏（中国）有限公司发扬闽商爱拼敢赢的精神，注重加大研发投入和科技创新，成为国内第一家销售破百亿元的体育用品公司，给代表团一行留下了深刻印象。走进五店市传统街区，一栋栋独具闽南特色的古建筑吸引着大家的目光。这里不仅是集传统文化展示、民俗体验、商务旅游、休闲娱乐等于一体的街区，更是晋江新型城镇化建设中注重根脉文脉的一个缩影，给赣州历史文化街区改造以启迪。来到晋江市创意创业创新园服务中心和创客大街，大家切实感受到了大众创业、万众创新的蓬勃活力。石墨烯作为一种新型纳米材料，可广泛应用于新能源、光电、电子通讯、生物、医疗等领域。走进福建海峡石墨烯产业技术研究院，代表团一行饶有兴致地观看了产品展示。李炳军当即要求相关负责同志加强与研究院交流合作，助推赣州新能源汽车产业发展。', '考察中，李炳军指出，要提前谋划，抓住兴泉铁路建设的机遇，与泉州密切合作，着力打造铁路沿线产业经济带。要认真学习泉州人爱拼敢赢的精神，借鉴泉州的好经验、好做法，充分发挥赣州在政策、土地、劳动力等方面的优势，积极承接产业转移，大力发展民营经济，千方百计推动县域经济加快跨越发展。（特派记者张宗兴）']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>124</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>县委常委开发区党委书记叶金华带队赴南康市学习考察</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2012-05-14</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>http://www.jxln.gov.cn/lnxxxgk/c100759/201205/376d73b9de0249aca3d23a8f155115ee.shtml</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['县委常委、开发区党委书记叶金华带队 赴南康市学习考察 5月14日，县委常委、开发区党委书记叶金华带领开发区管委会、县商务局部分人员赴南康市考察照明产业园的开发、招商情况。南康市委常委钟旭辉等市领导及相关部门热情接待了考察团一行，通过现场查看、座谈，考察团一行了解了南康市“为什么要引进、怎么引进以及如何推进照明产业园”的思路与做法，为我县今后做好产业园开发与招商提供了很好的借鉴与参考。 龙南县商务局 唐汇敏 二〇一二年五月十四日', '，县委常委、开发区党委书记叶金华带领开发区管委会、县商务局部分人员赴南康市考察照明产业园的开发、招商情况。南康市委常委钟旭辉等市领导及相关部门热情接待了考察团一行，通过现场查看、座谈，考察团一行了解了南康市“为什么要引进、怎么引进以及如何推进照明产业园”的思路与做法，为我县今后做好产业园开发与招商提供了很好的借鉴与参考。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>124</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>朱冬兰带队赴南京计量院学习考察</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2017-02-23</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449se/201702/fff1adbfaf3740d893339e94d7064013.shtml</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['近日，市局党组成员朱冬兰带队赴南京计量院，学习考察计量检测机构先进发展经验。市计量所负责人等6人陪同考察。', '此次考察得到了南京市质监局和南京计量院的高度重视，南京市质监局副局长周黎丽、南京市计量院林学勇院长、许旭红副院长等院领导亲自接待，全程陪同，并组织召开了交流会，介绍了南京计量院在项目建设、产业计量、CNAS认可、机构改革发展等方面的具体做法和先进经验。', '座谈会上，朱冬兰首先对兄弟单位高度负责、毫无保留的交流态度表示感谢，并简要介绍了赣州市计量所的基本情况。林学勇介绍了南京市计量院发展历程、建设成效和业务开展情况等。在认真听取南京计量院的经验介绍后，朱冬兰认为，南京计量院的实力在江苏省乃至全国名列前茅，在技术投入、人才培养、业务管理和创建服务品牌等方面，特色鲜明，成效显著，很值得赣州学习和借鉴。朱冬兰表示，此行收获很大，开阔了视野，增强了信心，取得了“真经”，为赣州市计量所下一步发展指明了方向，树立了标杆。双方均表示要进一步加强交流合作，资源共享，共同推动计量检测事业发展。', '据悉，南京市计量监督检测院以“用心计量每一刻”为服务品牌，致力于打造长江三角洲一流计量技术机构，可开展检定、校准检测项目1000余项，拥有研究员级高工、高级工程师、国家级省级评审员等高精尖人才100余人。该院连续多年获得南京市质监系统先进单位称号，2015年获得“全国质量监督检验检疫工作先进集体”荣誉称号。']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>124</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>邹志华率县发改委财政局商务局等部门到厦门学习考察总部经济</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2017-08-17</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>https://www.yudu.gov.cn/yudu/jryd/201708/174be1a8959c4f80a7a10fa5e6c3a3f6.shtml</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['习近平在中共中央政治局第十五次集体学习时强调：贯彻落实新时代党的建设总要求 进一步健全全面从严治党体系', '全国科技大会 国家科学技术奖励大会 两院院士大会在京召开 习近平为国家最高科学技术奖获得者等颁奖并发表重要讲话', '习近平在青海考察时强调：持续推进青藏高原生态保护和高质量发展 奋力谱写中国式现代化青海篇章', '习近平对防汛抗旱工作作出重要指示要求全力应对灾情 做好防汛抗旱抢险救灾各项工作切实保障人民群众生命财产安全和社会大局稳定', '于都县人民政府办公室关于印发《于都县2024—2026年低质低效林改造实施方案》的通知', '【政策解读】《于都县构建“初心为民 精诚共治”城乡居民基本养老保险和基本医疗保险立体化征缴机制工作方案》', '关于于都县2022年国民经济和社会发展计划执行情况与2023年国民经济和社会发展计划草案的报告（书面）', '关于于都县2021年国民经济和社会发展计划执行情况与2022年国民经济和社会发展计划草案的报告']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>124</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>省党政代表团举行沪皖学习考察小结座谈会刘奇主持易炼红讲话叶建春出席</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2021-04-15</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>http://www.jxdy.gov.cn/dyxxxgk/c102086/202104/cb6996565ef440538dd2d5d191c1406d.shtml</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['省党政代表团举行沪皖学习考察小结座谈会刘奇主持易炼红讲话叶建春出席 | 大余县信息公开', '一路学习、一路思考、一路谋划。4月14日，赴上海、安徽学习考察的江西省党政代表团在合肥就地召开小结座谈会，交流体会，相互启发，进一步把学习考察成果转化为发展思路和实效。', '省委书记刘奇主持座谈会，省长易炼红出席并讲话，省领导叶建春、施小琳、吴忠琼、胡世忠、吴浩、陈俊卿出席座谈会。', '会上，省发改委、省科技厅、南昌市、九江市主要负责同志作了交流发言，他们结合学习考察情况和工作实际，找差距、谈启示、说打算，进一步坚定推进高质量跨越式发展的信心和决心。', '刘奇与大家互动交流，要求认真学习借鉴两省市的好经验好做法，紧密结合实际，创造性地转化为推动高质量跨越式发展的有力举措，为“十四五”开好局、起好步奠定坚实基础。', '——要切实增强“作示范、勇争先”的使命感紧迫感。牢固树立“不以江西为世界,而以世界谋江西”意识，切实增强坐不住的紧迫感、慢不得的危机感、等不起的责任感，勇于“向好的学、向强的比、向高的攀”，自觉在中部地区乃至全国范围定坐标、找标杆，奋起直追、拼搏进取，全力以赴加快推进高质量跨越式发展。', '——要依靠科技创新构建现代产业体系。深入实施创新驱动发展战略，集中力量做实做优做强做大航空、电子信息等优势产业和现代农业，千方百计提升创新平台建设水平，持续推动产业链供应链创新链价值链相互融合、迈向中高端，加快构建具有江西特色的现代化产业体系。', '——要以深化改革开放激发发展新活力。大力推进更深层次改革，实行更高水平开放，全面对接共建“一带一路”、长江经济带发展、长三角一体化发展、粤港澳大湾区建设等，持续优化营商环境，着力引进一批头部企业和百亿级大项目好项目，不断增强发展动能和势能。', '——要在党史学习教育中传承红色基因。这次考察专门瞻仰了中共一大会址，就是要在这个我们党梦想起航的神圣之地，更好地重温铭记党的奋斗历程，学习革命先辈崇高精神，进一步坚定理想信念、激发前进动力，真抓实干、锐意进取，努力让革命老区人民过上更加美好幸福的生活，以优异成绩庆祝建党100周年。', '易炼红指出，我们要以坐不住、等不起、慢不得的紧迫感、危机感，真学、真悟、真想、真谋，不断开创江西高质量跨越式发展新局面。取沪皖真经，要学习创新之道，不断完善推进创新体制机制，强化投融资平台建设，努力把科技创新这个“关键变量”转化为“最大增量”，持续推动产业链价值链迈向中高端。要学习开放之方，加快江西内陆开放型经济试验区建设，全面融入长江经济带发展、粤港澳大湾区建设和长三角一体化，加快构建内外并举、全域统筹、量质双高的开放新格局。要学习改革之勇，以担当的精神深化国有企业等重点领域改革，以敢走他人未走之路、敢闯他人未闯之关的胆识和魄力，努力把江西建设成为全国政务服务满意度一等省份。要学习为民之情，积极推进城市高质量发展示范省建设，让江西的城市功能更完备、形态更精美、运行更顺畅，努力打造更多宜居宜业、精致精美、人见人爱的人民满意城市。要学习奋进之为，扎实开展党史学习教育，激发党员干部干事创业的精气神，敢于作为，善于作为，奋力作为，努力在全面建设社会主义现代化国家新征程上书写更加精彩的江西篇章。', '当日，省党政代表团在合肥考察了晶合集成电路股份公司、京东方显示技术公司。下午，代表团在圆满完成此次沪皖学习考察各项活动后返回南昌。']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>124</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>龙南县到上犹县学习考察国有林场改革工作</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2012-04-11</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>http://www.jxln.gov.cn/lnxxxgk/c100954/201204/1451ea66d57d4cc1a09d229b766aebe8.shtml</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['习近平主持召开中央全面深化改革委员会第二十七次会议强调健全关键核心技术攻关新型举国体制全面加强资源节约工作李克强王沪宁韩正出席新华社北京9月6日电 中共中央总书记、国家主席、中央军...', '市政府党组开展“赓续红色血脉，传承红色基因，喜迎党的二十大”主题党日活动暨理论学习中心组学习', '习近平在中共中央政治局第十五次集体学习时强调：贯彻落实新时代党的建设总要求 进一步健全全面从严治党体系', '全国科技大会 国家科学技术奖励大会 两院院士大会在京召开 习近平为国家最高科学技术奖获得者等颁奖并发表重要讲话', '习近平在青海考察时强调：持续推进青藏高原生态保护和高质量发展 奋力谱写中国式现代化青海篇章', '习近平主持召开中央全面深化改革委员会第五次会议强调 完善中国特色现代企业制度 建设具有全球竞争力的科技创新开放环境', '中共中央政治局召开会议 审议《新时代推动中部地区加快崛起的若干政策措施》《防范化解金融风险问责规定（试行）》 中共中央总书记习近平主持会议', '赣州市南鑫新材料有限公司年产 15000吨减水剂、10000吨外加剂项目环境影响评价征求意见稿公示', '[龙南市]赣州市银欣项目咨询管理有限公司关于江西省龙南市教育体育局龙南市第七公立幼儿园和杨村镇公立幼儿园办学设备采购（项目编号：GZYX2024-LN-G007）不见面电子化公开招标的中标结果公告', '[龙南市]九鼎赣饶国际项目管理有限公司关于赣州市龙南生态环境局采购龙南市监测能力提升建设（一期）（项目编号：JDGR2024-LN-G002）电子化公开招标公告', '[龙南市][线下]九鼎赣饶国际项目管理有限公司关于赣州市龙南生态环境局采购龙南市执法和应急监管能力提升建设（项目编号：JDGR2024-LN-C001）竞争性磋商公告', '[龙南市][非自动评审]江西省赣州市重点区域森林防火应急道路建设项目(龙南市)一标段、二标段、三标段中标公示', '[龙南市]龙南南武当山景区旅游基础设施提升项目一标段主体土建工程中标候选人公示中标候选人公示', '[龙南市]赣州森鼎立咨询管理有限公司关于江西省龙南市财政局2024-2025年度龙南市国家机关、事业单位、社会团体印刷服务框架协议采购入围结果公告[中标候选人公示] [第1次公示]', '[龙南市]赣州市银欣项目咨询管理有限公司关于江西省龙南市总工会龙南市劳模文化长廊设备设施采购（项目编号：GZYX2024-LN-C004）不见面电子化竞争性磋商的成交结果公告']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>124</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>于都最强考察团赴兄弟县市学习考察</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2023-02-07</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>http://www.yudu.gov.cn/ydxxxgk/c100264/202302/3700a6dfae844c0d9110fba2d3a9eb13.shtml</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['新年开新局，奋进新征程。为进一步解放思想、拓宽思路、以学促干，更好推动我县经济社会高质量发展，2月6日下午，由县四套班子领导，各乡（镇）党委书记、县委各部门和县直有关单位负责人组成的党政考察团开启解放思想之旅，重点考察兄弟县（市）在乡村振兴、文化旅游、工业倍增升级、现代服务业、城市能级提升、金融服务、科技创新赋能等方面的先进经验和做法，借鉴高质量发展经验，推动做好协同发展文章。', '大家走进物流园，详细观摩京东产地仓、供销智慧供应链中心、现代冷链仓储中心、“互联网+第四方物流”集配中心、供销惠农服务中心、农产品交易中心等六大功能板块，学习交流供销经验；据介绍，京东·供销智慧数字物流产业园项目通过建立“政府搭台、企业主导、集群发展”的联动运营新模式，利用京东线上线下销售体系，形成从种植生产到物流配送再到线上线下销售的产供销配全链条体系。依托完善的冷链仓储体系，农产品空窗期大幅缩短，可实现一季产、四季销。', '随后，考察团一行来到洞头乡铸牢中华民族共同体意识示范基地项目，参观了畲族文化展览馆、畲族文化广场、凤凰桥、亲水长廊等民族文化建设点，交流学习了挖掘畲族文化底蕴，打造旅游品牌建设的工作经验。', '详细了解石城全域旅游、新型城镇化建设、红色名村建设等方面的经验做法。当地依托红色底蕴，立足乡村全面振兴，发挥生态优势、农业资源，打造“农旅融合+村民共富”乡村文旅示范区，树立科技引领、农旅融合、共同富裕新标杆。', '点、有特色，并就如何如何建设具有特色的乡村振兴示范点进行了经验交流，希望以此次考察为契机，不断推动我县乡村振兴进入“快车道”。', '，该示范点紧紧围绕“五大振兴”全面实施乡村振兴战略，坚持农业高质高效、乡村宜居宜业、农民富裕富足发展目标，力争把钓洲岛打造成“百里梅江第一岛”和全市乡村振兴示范区。考察团高度赞赏，大家一致认为其经验和模式可借鉴、可推广。随后考察团还参观了', '江西钛时代新能源有限公司年产3GWh复合钛电池生产项目、江西赣能电子有限公司年产1500万件电子元器件项目', '。通过听取讲解、观摩演示等方式了解电子信息、生产工艺、研发创新等工业发展情况，现场感受大干项目、大拼经济、大抓发展的火热场景，对宁都县狠抓工业倍增升级，壮大产业集群印象深刻。', '学无止境，征途不停。驱行三个县，考察团边走边看、边听边议，细心考察，虚心学习，详细了解各地的好经验、好做法，亲身感受他们在文化旅游、乡村振兴、工业倍增升级等方面的先进做法。并表示，此次考察开阔了视野，学到了经验，下一步，将充分消化吸收此次考察成果，立足自身优势，找准工作推进切入点，进一步解放思想，更新观念，明确方向，真抓实干，奋力谱写全面建设社会主义现代化于都新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>124</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>市人大常委会副主任吴青率队赴厦门市学习考察招商引资</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2024-07-13</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>http://www.ganxian.gov.cn/gxqxxgk/c110861/202407/946e5c5aaf704fbda064fdaabd6c8ca6.shtml</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['7月4日至5日，赣州市人大常委会副主任，吴清主席率队赴厦门学习考察工人文化宫建设运营工作并走访企业，开展招商引资，赣州市总工会党组成员、副主席刘孟强，章贡区人大常委会副主任，区总工会党组书记、主席刘俊平参加相关活动，赣州市人民政府驻厦门办事处主任欧阳安民，办一级调研员曾为东分别陪同。', '7月4日上午，吴青一行来到厦门市工人文化宫实地考察了职工培训、文艺演出、体育健身等职工文体服务活动阵地，详细了解厦门市工人文化宫的建设布局、活动开展及运营情况。吴清指出，此次学习考察活动为赣州市工人文化宫建设提升带来很好的启示经验，也为后期的运行管理工作提供了有力借鉴和参考，目前，赣州市总工会正大力推进工人文化宫项目建设，要充分学习借鉴先进地区工人文化宫的成功经验和运行管理模式，结合自身实际与特色，高标准高要求规划和建设市工人文化宫，为赣州职工打造高质量的综合性服务阵地。', '考察期间，吴青还先后前往福建安井食品集团股份有限公司、厦门悦讯信息科技股份有限公司、厦门澳丽尔日化有限公司等知名企业宣传推介、招商引资。吴清指出，赣州区位条件优越、政策公开透明，正积极打造对接融入粤港澳大湾区桥头堡，深化与海西经济区经贸交流合作，诚挚邀请海西经济区企业家来赣州实地考察、探索合作路径，积极投资兴业，实现合作共赢。']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>124</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>政协分宜县委员会办公室到龙南市学习考察林长制工作</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2020-07-31</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>http://www.jxln.gov.cn/lnzf/c104541/202007/0f0d9a411c0a408e8faacac9a751c74d.shtml</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['考察组一行由分宜县政协副主席、民盟分宜总支主委段寿平带队，先后来到虔心小镇、江西新灵倍康生物科技有限公司，实地考察龙南市林长制执行落实工作。', '考察期间，还召开了林长制工作座谈会，龙南市政协党组成员、副主席廖承房主持。会议介绍了龙南市2018年以来林长制执行落实工作情况，探讨了林长制执行落实工作中存在的困难和问题，并就如何有效开展下一步林长制工作作了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>124</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>瑞金市党政考察团一行到我县学习考察城乡环境整治工作</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2022-11-30</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>http://www.shicheng.gov.cn/scxzf/c104798/202211/e0295df3d636461882abf026448f0592.shtml</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['11月25号，瑞金市委常委、统战部部长蒋小英率党政考察团到我县考察城乡环境整治工作。县委常委、副县长彭长春陪同考察。', '考察团一行先后来到县游客集散中心、钢琴小镇、琴江镇兴隆村城中村集中整治改造点、闽粤通衢博物馆、天沐温泉等地，详细了解我县在城乡环境整治工作方面采取的措施及取得的成效。', '考察团表示，石城县在城乡环境综合整治工作中理念新颖、思路超前、规划科学，工作推进力度大，有许多好的经验和做法值得学习和借鉴。希望两地继续加强交流，共同做好城乡环境综合整治工作。']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>124</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>宁都县政协来龙南学习考察司法行政工作</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2020-09-11</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>http://www.jxln.gov.cn/lnzf/c104541/202009/57fcdb008e3d44108b66c6d115782424.shtml</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['9月9日—10日，宁都县政协副主席李松茂一行来龙南学习考察司法行政工作。市政协副主席廖承房、市司法局党组书记、局长王侃陪同活动。考察组通过听取汇报、现场查看等方式了解公共法律服务中心建设、人民调解、社区矫正和基层司法所建设等工作情况。', '9月9日，考察组实地参观了市公共法律服务中心，听取了龙南市公共法律服务平台建设工作介绍，查看了公共法律服务中心来访人员登记表、法律援助案卷等资料，并与相关负责人就公共法律服务平台建设进行深入的交流。', '考察组来到市司法局“万家和”党员调解室，查看了部分调解卷宗，与调解员就各类调解案件的处理方式、调解技巧等进行了交流探讨。对我市建立多元化纠纷解决机制，坚持“以和为贵，促进繁简分流，开展诉调对接，减轻当事人诉累”的做法表示赞赏。', '随后，考察组一行来到市社区矫正中心，先后参观了社区矫正报到室、宣告室、远程视频会见室、心理矫正室和心理咨询室。在社区矫正宣告室，考察组围绕社区矫正宣告室的布局饶有兴致地听取了相关工作介绍，并对龙南社区矫正宣告室高标准建设点赞。', '在市司法局指挥中心，考察组与基层司法所进行远程视频对接，观看了法律援助、社区矫正微电影，并与科技信息股负责人就远程视频对接事项进行了亲切交流，对龙南市司法局的信息化建设表示赞赏。', '9月10日上午，王侃带领考察组一行来到临塘司法所参观考察基层司法所规范化建设。考察组听取了临塘司法所长赖娟对业务网上管理平台运行以及业务开展情况的介绍，仔细翻阅了人民调解、社区矫正、法律援助、法治宣传等工作台账。', '考察组表示，龙南的司法行政工作做的有声有色，司法所规范化建设和社区矫正中心建设标准高，成效好，这些方面的先进经验做法值得宁都学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>124</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>全县乡镇党委书记座谈会暨外出学习考察交流会召开</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2023-07-14</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>http://www.yudu.gov.cn/ydxxxgk/c100263gm/202307/84a36f27a3f74c509b691d2055da96d4.shtml</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['7月8日，全县乡（镇）党委书记座谈会暨外出学习考察交流会召开。县委书记黄法主持并讲话，县委副书记、县长李松柏出席并讲话。王峰、姜超、郭书珑、罗高波、赖晓强等县四套班子领导，法检“两长”、中央红军长征集结出发历史博物馆馆长、工业园区管委会主任等参加会议。', '会上，传达学习了设市区市委书记座谈会、县（市、区）委书记座谈会精神；部分县领导结合分管工作，谈学习体会，并部署了相关工作；部分乡（镇）党委书记、部门主要负责同志结合外出培训和学习考察作了发言，谈体会、说感想，找差距、讲打算，认真总结上半年工作，统筹谋划下半年工作。', '持之以恒用习近平新时代中国特色社会主义思想凝心铸魂，不断提高政治判断力、政治领悟力、政治执行力，忠诚拥护“两个确立”、坚决做到“两个维护”。要保持高度的政治敏感性，严守政治纪律和政治规矩，以实际行动践行政治忠诚，确保党中央、省委、市委决策部署在于都落到实处、见到实效。', '认真学习借鉴先进发达地区和周边先进县（市、区）的好经验、好做法，学以致用、知行合一，不断提升拼经济、拼发展的成效。要全力以赴稳增长，坚定不移强产业、抓招商、攻项目，千方百计优环境、稳实体、促消费，持续巩固稳的基础、培育新的动能。要围绕“办好两个会，提升一座城”的目标，加快重点文旅项目建设，完善旅游要素配套，全面提升旅游消费环境。', '始终树牢宗旨意识，涵养为民情怀，站稳人民立场，扎实办好民生实事，加快推进民生项目，努力让人民群众生活更加幸福美好。要扎实开展调查研究，多到基层跑一跑，拜群众为师，与群众交友，深入了解群众关注什么、需要什么，以实实在在的成效和变化赢得群众的拥护和支持。', '时刻保持如履薄冰的谨慎、见叶知秋的敏锐、未雨绸缪的忧患，抓实抓细安全稳定各项工作，坚决筑牢安全防线，以一域之安服务全县大局之稳。要深入推进重大事故隐患专项排查整治，紧盯农业农村、道路交通、燃气消防、防汛抗旱、防溺水等重点行业领域，全力防风险、查隐患、遏事故。', '各乡（镇）、各单位“一把手”要学会当“班长”，带头讲团结，坚持人尽其才、才尽其用，汇聚起团结奋进的磅礴力量，携手开创事业发展的新天地。要坚决扛好管党治党政治责任，既要管好自己，又要管好干部队伍，真正做到严于律己、严负其责、严管所辖，确保干部队伍始终廉洁自律、政治生态持续向上向好。', '要更加关注经济运行，强化经济运行监测分析，加快实施企业入规、项目入库，持续推进招大引强，推动项目落地，运用好助企纾困政策，解决制约企业发展的因素。要更加关注项目建设，全力以赴做好招商引资、争项争资、要素保障工作，加大重大重点项目推进力度，努力形成更多实物工作量。要更加关注营商环境，深入推进“放管服”改革，聚焦堵点、痛点、难点问题，创新工作方法，推动营商环境优化升级。要更加关注民生保障，聚焦薄弱环节、采取更大力度，抓好耕地保护领域问题整改，推进蔬菜基地空棚撂荒问题整治，巩固拓展脱贫攻坚成果，保障招生工作平稳有序。要更加关注安全稳定，紧盯重点行业领域，持续推进重大事故隐患专项排查整治，常态化抓好信访问题的化解。要更加关注旅发大会、红博会筹办，加速推进“硬件”设施建设和“软件”服务提升，做好会前预热，加强宣传推介力度，充分展示于都发展成效。']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>124</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>叶建春在广州学习考察努力开创江西高质量跨越式发展新境界</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2021-10-26</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>http://www.jxxf.gov.cn/xfxxxgk/c101186/202110/1c2461f07e2c4452808e6b3add52d3b6.shtml</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['10月24日，省委副书记、代省长叶建春在广州学习考察，广东省委副书记、省长马兴瑞陪同考察。叶建春指出，我们要深入学习贯彻习近平总书记“七一”重要讲话精神和视察江西重要讲话精神，抢抓新一轮科技革命和产业变革机遇，学习发达地区经验，发挥自身比较优势，深入实施数字经济“一号工程”，加快培育壮大发展新动能，努力开创江西高质量跨越式发展新境界。', '白纸绘新景、荒山起宏图。短短五年时间，中新广州知识城从无到有、从有到优，彰显了创新驱动的强大力量。在中新广州知识城发展规划馆，叶建春深入了解知识城的发展规划、建设理念和运营模式，为知识城打造“知识创造新高地、湾区创新策源地、国际人才自由港、开放合作示范区”取得的成效点赞。他说，要学习知识城的理念模式，坚持链式思维，强化大科学装置、国家重点试验室等创新平台的引领作用，发挥园区资源聚合功能，建立健全“产学研用”协同创新融合发展体制机制，努力打造“基础研究+技术攻关+成果产业化+科技金融+人才支撑”全过程创新生态链，厚植江西创新的沃土。听说知识城出台了吸引人才的一系列好政策，叶建春要求有关部门全套带回江西，取真经、用良策。他指出，', '粤芯半导体技术有限公司是广东省首个进入量产的12英寸晶圆厂，生产各类芯片、传感器等。叶建春看工艺、问销售、聊产业。他说，芯片是数字经济的底座，希望粤赣两省强化芯片产业的协作配套，共同做强做优做大新一代信息技术产业集群。叶建春指出，', '江西的电子信息产业有基础、有优势，要集中创新资源聚力研发，力争突破一批核心关键技术，打造江西数字经济的核心竞争力。', '不进车间，参观者就能通过VR、AR技术全程探访生产流程和工艺。在百济神州生物制药有限公司，叶建春现场体验了数字工厂建设成效，详细了解生物科技的前沿技术。他指出，', '大力开展VR、物联网和“5G+工业互联网”等试点示范，推动制造业数字化、网络化、智能化、绿色化改造，建设数字标杆工厂、灯塔工厂，不断提升江西制造业的现代化水平。', '我省中医药产业底蕴深厚，要坚持守正创新，围绕产业链部署创新链、围绕创新链布局产业链，']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>124</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>加速对接融湾杜飞轮带队在深圳学习考察</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2023-05-29</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>https://www.ganzhou.gov.cn/zfxxgk/c100449b/202306/e3e1583ff112440a95bb7f2bba12fac6.shtml</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['为学习借鉴深圳市开展政策研究、决策咨询方面的好经验、好做法，5月25日至26日，市委常委、市政府副市长杜飞轮带队在深圳市政府发展研究中心（深圳市政府政策研究室）学习考察。', '日，市委常委、市政府副市长杜飞轮带队在深圳市政府发展研究中心（深圳市政府政策研究室）学习考察。', '深圳市政府发展研究中心党组书记、主任黄哲，经济处一级调研员罗华荣、办公室（社会处）副主任邓莉莎等陪同。赣州市政府副秘书长，市政府发展研究中心党组书记、主任钟金华，市政府发展研究中心党组成员、副主任徐海洋等参加学习考察。', '座谈会上，钟金华简要介绍了本次学习考察的目的，黄哲对我市学习考察之行表示热烈欢迎，对我市高位推动合作、主动积极对接表示赞赏。双方分别就两地政府发展研究机构发展历程、职能履行、人员配备等情况进行了介绍，对加速打造“特区+老区”高质量发展合作模式，推进产业发展、科技创新、人才引育等事项进行了深入交流，并就党建共建、业务合作、人员交流等3个方面9项具体合作事项进行了详细研究。', '老区”高质量发展合作模式，推进产业发展、科技创新、人才引育等事项进行了深入交流，并就党建共建、业务合作、人员交流等', '深圳是中国特色社会主义先行示范区，是改革开放的排头兵和示范城市，在政策研究、先行先试、决策咨询等方面积累了大量好经验、好做法，值得赣州学习借鉴，希望深赣两地发展研究部门，加强日常交流和人员往来，共同开展调查研究，推进互利合作，围绕深赣对口合作中的关键环节、重点领域加强调研，为推进深赣合作走深走实，促进两地经济社会高质量发展贡献更多“金点子”“妙方子”。', '与赣州革命老区对口合作是国家政策要求，是区域合作协作的现实需要，也是深圳义不容辞的职责和使命。近年来，赣州在党中央、国务院，特别是习近平总书记的亲自关心关怀下，经济社会发展势头迅猛，潜力巨大、前景可观，赣州在推进产业发展、传承红色基因、生态环境保护等方面取得优异成绩，值得研究和学习，深圳市政府发展研究中心将尽快前来考察与合作。', '期间，学习考察组还实地走访中国（深圳）综合开发研究院、部分赣州籍企业家，参观“大潮起珠江”改革开放纪念馆。']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>124</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>孙晖率队赴浙江衢州学习考察千万工程经验</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2023-12-14</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/nv-AC9lDiVoeI_8zQ0kbTg</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['为深入贯彻习近平总书记考察江西重要讲话精神和关于学习浙江“千万工程”经验的重要指示批示精神、落实全省学习运用“千万工程”经验加快建设宜居宜业和美乡村现场推进会要求，12月12日至13日，赣州市农业农村局党组书记、局长孙晖率队赴浙江衢州市学习考察，通过看现场、开座谈会等方式学习借鉴浙江省“千万工程”理念思路和生动实践，提升我市学习运用“千万工程”经验、建设“四融一共”和美乡村的能力水平。赣州市农业农村局分管负责同志、各县（市、区）农业农村局主要负责同志、分管负责同志等共45人参加学习考察活动。', '赣州市农业农村局分管负责同志、各县（市、区）农业农村局主要负责同志、分管负责同志等共45人参加学习考察活动。', '“文化，也是增长点，也是生产力，是可以带动群众致富的”——被誉为“中国第一农民画村”的衢州市柯城区余东村和“金庸武侠文化特色村”石梁镇麻蓬村让大家深刻体会到了这句话的含义。余东村通过深入挖掘农民画特色产业链条，成为独具特色的未来新艺术乡村。2022年，村集体经营性收入达到112万元，年游客人数近50万人次，农民画相关产业产值2000多万元。麻蓬村则依托金庸武侠文化思想萌发地，深挖武侠文化，开发稻渔立体种养模式，打造集稻虾共养、初级加工、农业科研、休闲观光、研学体验于一体的“共富工坊”，带动村民在家门口就业，实现共同富裕。学习考察团与当地干部热情交谈，问计取经，表示要进一步解放思想、开拓思路，挖掘本土村庄特色提升新路径。', '科技感十足的龙游县溪口未来乡村，向大家展示了一个兼具创新产业和原乡情怀的居业协同性社区。作为浙江省首批未来乡村建设试点，溪口未来乡村按照“创建一个社区、集聚一批人才、培育一个产业、带动一地发展”的思路，开启零碳、共享、智慧、健康等未来生活实验，成功入选浙江省农业农村领域高质量发展建设共同富裕示范区首批试点、浙江省第二批千年古城复兴试点，开启了共同富裕新征程。', '走进龙游县沐尘畲族乡沐尘村、小南海镇团石村、衢江区高家镇盈川村，沿线“衢州有礼”诗画风光带景色宜人，一幅幅生态宜居的美丽画卷依次展开，学习考察团实地感受了从古村落向未来乡村的升级蝶变，感受了新时代美丽乡村建设的活力律动。', '学习考察团成员纷纷表示，衢州之行收获满满。衢州市地形地貌与赣州相似，其经验做法可学可鉴，回去之后要结合本地实际，坚持问题导向，强化统筹谋划，理清工作思路，努力推动本地和美乡村建设提档升级。', '学习考察结束时，学习考察团召开了专题座谈会。中国美术学院设计总院乡村振兴研究中心副主任方春辉和浙江农林大学文法学院院长鲁可荣分别进行了授课，向全体成员讲解了和美乡村规划的实践和理念，进一步丰富了大家的认知，拓宽了大家的视野。', '座谈会上，孙晖就转化运用学习考察成果作了部署强调。孙晖强调，各县（市、区）要及时将本次学习考察以及此次座谈会议的精神，第一时间向县委书记、县长和分管领导汇报好；要学习借鉴“千万工程”蕴含的核心要义，特别是浙江衢州坚持打造未来乡村的理念、坚持“一统三化九场景”的工作路径、创新建设模式，细化推进措施，推动当前和明年的和美乡村建设工作，在建设“四融一共”和美乡村中践行“走在前、勇争先、善作为”的目标要求。']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>124</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>崇义县学习考察组来我县学习六大攻坚战工作</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2018-01-25</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>https://www.yudu.gov.cn/yudu/jryd/201801/f33810a507804e919d7b0a2784a7f8f1.shtml</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['1月24日，由崇义县人大常委会副主任汤名东带队的该县学习考察组一行，到我县学习主攻工业攻坚战工作经验。县委常委、县政府副县长冯靖哲陪同。', '考察组先后来到我县伊妮斯服饰有限公司、赣州华强杭萧建设股份有限公司实地参观和学习。考察组每到一处，都认真听取我县就有关项目的情况介绍，详细询问了解了我县在主攻工业攻坚战工作中的好做法和好经验。考察组一行对我县主攻工业攻坚战工作给予了高度评价，认为我县有许多的成功经验和先进做法，值得学习借鉴。考察组还希望于都和崇义两地今后进一步深化交流、携手并进。（郭顺）']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>124</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>全南县供销联社赴瑞金市赣县区开展供销集配体系建设学习考察</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2024-05-13</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>http://gxs.ganzhou.gov.cn/gzsgxhz/c103157/202405/392b0486cc5b4df5944eeb5266f13b69.shtml</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['“互联网+第四方物流”供销集配体系建设试点项目建设，近日，全南县供销联社党总支书记、理事会主任钟小周率队到瑞金市、赣县区开展“互联网+第四方物流”供销集配体系建设学习考察。', '“互联网+第四方物流”供销集配中心红土地物流园、官山供销社和壬田供销合作社集配网点、壬田供销合作社农资配送中心，', '与企业负责人开展座谈，对集配企业组建运营、县级集配中心升级改造以及乡村集配站点布局进行了交流探讨。随后，钟小周等人到赣县区参观学习赣县区供销社农业社会化服务中心和赣县区电商大楼，并就当前全南县', '“互联网+第四方物流”供销集配体系建设存在的问题和困难与赣县区供销合作社进行了深入交流。', '通过此次学习，向瑞金市、赣县区供销联社学习到了丰富的试点建设经验，深入了解了供销集配体系建设的重点内容，为全南县加快推进']</t>
         </is>
